--- a/Code/Results/Cases/Case_3_18/res_bus/vm_pu.xlsx
+++ b/Code/Results/Cases/Case_3_18/res_bus/vm_pu.xlsx
@@ -421,34 +421,34 @@
         <v>1.05</v>
       </c>
       <c r="C2">
-        <v>0.9912698150976941</v>
+        <v>0.9912698150976949</v>
       </c>
       <c r="D2">
-        <v>1.011952435203784</v>
+        <v>1.011952435203785</v>
       </c>
       <c r="E2">
-        <v>1.000853579659176</v>
+        <v>1.000853579659177</v>
       </c>
       <c r="F2">
-        <v>1.010502702222063</v>
+        <v>1.010502702222064</v>
       </c>
       <c r="G2">
         <v>1</v>
       </c>
       <c r="I2">
-        <v>1.043086005533856</v>
+        <v>1.043086005533857</v>
       </c>
       <c r="J2">
-        <v>1.013714817267165</v>
+        <v>1.013714817267166</v>
       </c>
       <c r="K2">
         <v>1.023247727659572</v>
       </c>
       <c r="L2">
-        <v>1.012301035557001</v>
+        <v>1.012301035557002</v>
       </c>
       <c r="M2">
-        <v>1.021817631470993</v>
+        <v>1.021817631470994</v>
       </c>
     </row>
     <row r="3" spans="1:14">
@@ -459,7 +459,7 @@
         <v>1.05</v>
       </c>
       <c r="C3">
-        <v>0.9977640992147485</v>
+        <v>0.9977640992147484</v>
       </c>
       <c r="D3">
         <v>1.016792350608426</v>
@@ -468,13 +468,13 @@
         <v>1.006278916809007</v>
       </c>
       <c r="F3">
-        <v>1.016754416025285</v>
+        <v>1.016754416025286</v>
       </c>
       <c r="G3">
         <v>1</v>
       </c>
       <c r="I3">
-        <v>1.04521837154627</v>
+        <v>1.045218371546269</v>
       </c>
       <c r="J3">
         <v>1.018315903281266</v>
@@ -535,34 +535,34 @@
         <v>1.05</v>
       </c>
       <c r="C5">
-        <v>1.003543333200983</v>
+        <v>1.003543333200984</v>
       </c>
       <c r="D5">
         <v>1.021101877316945</v>
       </c>
       <c r="E5">
-        <v>1.011117246898411</v>
+        <v>1.011117246898412</v>
       </c>
       <c r="F5">
-        <v>1.022327330545726</v>
+        <v>1.022327330545727</v>
       </c>
       <c r="G5">
         <v>1</v>
       </c>
       <c r="I5">
-        <v>1.047091239507564</v>
+        <v>1.047091239507565</v>
       </c>
       <c r="J5">
-        <v>1.022403953073189</v>
+        <v>1.02240395307319</v>
       </c>
       <c r="K5">
         <v>1.030733733898115</v>
       </c>
       <c r="L5">
-        <v>1.020862040335971</v>
+        <v>1.020862040335972</v>
       </c>
       <c r="M5">
-        <v>1.031945512981729</v>
+        <v>1.03194551298173</v>
       </c>
     </row>
     <row r="6" spans="1:14">
@@ -573,16 +573,16 @@
         <v>1.05</v>
       </c>
       <c r="C6">
-        <v>1.003825942506239</v>
+        <v>1.00382594250624</v>
       </c>
       <c r="D6">
-        <v>1.021312663195621</v>
+        <v>1.021312663195622</v>
       </c>
       <c r="E6">
-        <v>1.011354096785902</v>
+        <v>1.011354096785904</v>
       </c>
       <c r="F6">
-        <v>1.022600083155083</v>
+        <v>1.022600083155084</v>
       </c>
       <c r="G6">
         <v>1</v>
@@ -591,16 +591,16 @@
         <v>1.047182177849953</v>
       </c>
       <c r="J6">
-        <v>1.022603686258668</v>
+        <v>1.022603686258669</v>
       </c>
       <c r="K6">
         <v>1.030905509354468</v>
       </c>
       <c r="L6">
-        <v>1.021059040494532</v>
+        <v>1.021059040494533</v>
       </c>
       <c r="M6">
-        <v>1.032178633623813</v>
+        <v>1.032178633623814</v>
       </c>
     </row>
     <row r="7" spans="1:14">
@@ -611,13 +611,13 @@
         <v>1.05</v>
       </c>
       <c r="C7">
-        <v>1.001873973610388</v>
+        <v>1.001873973610389</v>
       </c>
       <c r="D7">
-        <v>1.019856854478855</v>
+        <v>1.019856854478856</v>
       </c>
       <c r="E7">
-        <v>1.009718665709012</v>
+        <v>1.009718665709013</v>
       </c>
       <c r="F7">
         <v>1.02071663768693</v>
@@ -626,16 +626,16 @@
         <v>1</v>
       </c>
       <c r="I7">
-        <v>1.046552808836989</v>
+        <v>1.04655280883699</v>
       </c>
       <c r="J7">
         <v>1.021223790938128</v>
       </c>
       <c r="K7">
-        <v>1.029718466140993</v>
+        <v>1.029718466140994</v>
       </c>
       <c r="L7">
-        <v>1.01969823065628</v>
+        <v>1.019698230656281</v>
       </c>
       <c r="M7">
         <v>1.030568379221552</v>
@@ -649,34 +649,34 @@
         <v>1.05</v>
       </c>
       <c r="C8">
-        <v>0.9934892764689022</v>
+        <v>0.9934892764689008</v>
       </c>
       <c r="D8">
-        <v>1.013606110500957</v>
+        <v>1.013606110500956</v>
       </c>
       <c r="E8">
-        <v>1.002706343822662</v>
+        <v>1.002706343822661</v>
       </c>
       <c r="F8">
-        <v>1.012637994787589</v>
+        <v>1.012637994787588</v>
       </c>
       <c r="G8">
         <v>1</v>
       </c>
       <c r="I8">
-        <v>1.04381785282139</v>
+        <v>1.043817852821389</v>
       </c>
       <c r="J8">
-        <v>1.015288041587387</v>
+        <v>1.015288041587386</v>
       </c>
       <c r="K8">
-        <v>1.024604879259882</v>
+        <v>1.024604879259881</v>
       </c>
       <c r="L8">
-        <v>1.013849780334531</v>
+        <v>1.01384978033453</v>
       </c>
       <c r="M8">
-        <v>1.023649454946115</v>
+        <v>1.023649454946114</v>
       </c>
     </row>
     <row r="9" spans="1:14">
@@ -687,28 +687,28 @@
         <v>1.05</v>
       </c>
       <c r="C9">
-        <v>0.9777653924470652</v>
+        <v>0.9777653924470645</v>
       </c>
       <c r="D9">
-        <v>1.001901846351714</v>
+        <v>1.001901846351713</v>
       </c>
       <c r="E9">
-        <v>0.9896110477158888</v>
+        <v>0.9896110477158879</v>
       </c>
       <c r="F9">
-        <v>0.9975386128861883</v>
+        <v>0.9975386128861878</v>
       </c>
       <c r="G9">
         <v>1</v>
       </c>
       <c r="I9">
-        <v>1.038571822853725</v>
+        <v>1.038571822853724</v>
       </c>
       <c r="J9">
-        <v>1.004128505630682</v>
+        <v>1.004128505630681</v>
       </c>
       <c r="K9">
-        <v>1.014964142603279</v>
+        <v>1.014964142603278</v>
       </c>
       <c r="L9">
         <v>1.002874957680965</v>
@@ -725,34 +725,34 @@
         <v>1.05</v>
       </c>
       <c r="C10">
-        <v>0.9665397568652886</v>
+        <v>0.9665397568652893</v>
       </c>
       <c r="D10">
-        <v>0.9935658578930362</v>
+        <v>0.9935658578930369</v>
       </c>
       <c r="E10">
-        <v>0.9803057527571124</v>
+        <v>0.9803057527571131</v>
       </c>
       <c r="F10">
-        <v>0.9867989160874271</v>
+        <v>0.9867989160874281</v>
       </c>
       <c r="G10">
         <v>1</v>
       </c>
       <c r="I10">
-        <v>1.034751694659784</v>
+        <v>1.034751694659785</v>
       </c>
       <c r="J10">
-        <v>0.9961468352765129</v>
+        <v>0.9961468352765137</v>
       </c>
       <c r="K10">
-        <v>1.008052262704887</v>
+        <v>1.008052262704888</v>
       </c>
       <c r="L10">
-        <v>0.9950399363460407</v>
+        <v>0.9950399363460415</v>
       </c>
       <c r="M10">
-        <v>1.001410682208605</v>
+        <v>1.001410682208606</v>
       </c>
     </row>
     <row r="11" spans="1:14">
@@ -763,34 +763,34 @@
         <v>1.05</v>
       </c>
       <c r="C11">
-        <v>0.9614757005897275</v>
+        <v>0.9614757005897295</v>
       </c>
       <c r="D11">
-        <v>0.9898120664992662</v>
+        <v>0.9898120664992677</v>
       </c>
       <c r="E11">
-        <v>0.9761199793999767</v>
+        <v>0.9761199793999787</v>
       </c>
       <c r="F11">
-        <v>0.9819650489681212</v>
+        <v>0.9819650489681229</v>
       </c>
       <c r="G11">
         <v>1</v>
       </c>
       <c r="I11">
-        <v>1.033011786400674</v>
+        <v>1.033011786400675</v>
       </c>
       <c r="J11">
-        <v>0.9925438465595434</v>
+        <v>0.9925438465595453</v>
       </c>
       <c r="K11">
-        <v>1.004928704239822</v>
+        <v>1.004928704239823</v>
       </c>
       <c r="L11">
-        <v>0.9915067404192273</v>
+        <v>0.9915067404192291</v>
       </c>
       <c r="M11">
-        <v>0.997235285403864</v>
+        <v>0.9972352854038657</v>
       </c>
     </row>
     <row r="12" spans="1:14">
@@ -801,16 +801,16 @@
         <v>1.05</v>
       </c>
       <c r="C12">
-        <v>0.9595615261505394</v>
+        <v>0.9595615261505395</v>
       </c>
       <c r="D12">
-        <v>0.9883943539610417</v>
+        <v>0.9883943539610418</v>
       </c>
       <c r="E12">
-        <v>0.9745397423118768</v>
+        <v>0.9745397423118771</v>
       </c>
       <c r="F12">
-        <v>0.9801396722241003</v>
+        <v>0.9801396722241</v>
       </c>
       <c r="G12">
         <v>1</v>
@@ -819,16 +819,16 @@
         <v>1.032351732927623</v>
       </c>
       <c r="J12">
-        <v>0.9911817010801289</v>
+        <v>0.9911817010801292</v>
       </c>
       <c r="K12">
         <v>1.003747329446417</v>
       </c>
       <c r="L12">
-        <v>0.9901715348802507</v>
+        <v>0.9901715348802508</v>
       </c>
       <c r="M12">
-        <v>0.9956575191856637</v>
+        <v>0.9956575191856636</v>
       </c>
     </row>
     <row r="13" spans="1:14">
@@ -839,16 +839,16 @@
         <v>1.05</v>
       </c>
       <c r="C13">
-        <v>0.959973668934394</v>
+        <v>0.9599736689343942</v>
       </c>
       <c r="D13">
-        <v>0.9886995460896767</v>
+        <v>0.9886995460896774</v>
       </c>
       <c r="E13">
-        <v>0.97487989394887</v>
+        <v>0.9748798939488703</v>
       </c>
       <c r="F13">
-        <v>0.9805326127894394</v>
+        <v>0.9805326127894398</v>
       </c>
       <c r="G13">
         <v>1</v>
@@ -857,7 +857,7 @@
         <v>1.032493955312118</v>
       </c>
       <c r="J13">
-        <v>0.9914749951192812</v>
+        <v>0.9914749951192814</v>
       </c>
       <c r="K13">
         <v>1.004001721461219</v>
@@ -866,7 +866,7 @@
         <v>0.9904590030165683</v>
       </c>
       <c r="M13">
-        <v>0.9959972045498395</v>
+        <v>0.99599720454984</v>
       </c>
     </row>
     <row r="14" spans="1:14">
@@ -877,16 +877,16 @@
         <v>1.05</v>
       </c>
       <c r="C14">
-        <v>0.9613181669793806</v>
+        <v>0.9613181669793804</v>
       </c>
       <c r="D14">
-        <v>0.9896953656352629</v>
+        <v>0.9896953656352627</v>
       </c>
       <c r="E14">
-        <v>0.975989887768892</v>
+        <v>0.9759898877688917</v>
       </c>
       <c r="F14">
-        <v>0.9818147861472826</v>
+        <v>0.9818147861472822</v>
       </c>
       <c r="G14">
         <v>1</v>
@@ -895,16 +895,16 @@
         <v>1.032957512656773</v>
       </c>
       <c r="J14">
-        <v>0.9924317483665602</v>
+        <v>0.99243174836656</v>
       </c>
       <c r="K14">
         <v>1.00483149217511</v>
       </c>
       <c r="L14">
-        <v>0.9913968479296658</v>
+        <v>0.9913968479296656</v>
       </c>
       <c r="M14">
-        <v>0.9971054266426685</v>
+        <v>0.9971054266426681</v>
       </c>
     </row>
     <row r="15" spans="1:14">
@@ -915,16 +915,16 @@
         <v>1.05</v>
       </c>
       <c r="C15">
-        <v>0.9621420793068985</v>
+        <v>0.9621420793068984</v>
       </c>
       <c r="D15">
-        <v>0.9903057693147349</v>
+        <v>0.990305769314735</v>
       </c>
       <c r="E15">
-        <v>0.9766703568976675</v>
+        <v>0.9766703568976673</v>
       </c>
       <c r="F15">
-        <v>0.9826007452820884</v>
+        <v>0.9826007452820887</v>
       </c>
       <c r="G15">
         <v>1</v>
@@ -933,16 +933,16 @@
         <v>1.033241272158452</v>
       </c>
       <c r="J15">
-        <v>0.9930180208991614</v>
+        <v>0.9930180208991612</v>
       </c>
       <c r="K15">
         <v>1.005339891014572</v>
       </c>
       <c r="L15">
-        <v>0.9919716072715402</v>
+        <v>0.99197160727154</v>
       </c>
       <c r="M15">
-        <v>0.9977846187474642</v>
+        <v>0.9977846187474645</v>
       </c>
     </row>
     <row r="16" spans="1:14">
@@ -953,31 +953,31 @@
         <v>1.05</v>
       </c>
       <c r="C16">
-        <v>0.9668713420488346</v>
+        <v>0.9668713420488354</v>
       </c>
       <c r="D16">
-        <v>0.9938118033422152</v>
+        <v>0.9938118033422155</v>
       </c>
       <c r="E16">
-        <v>0.9805800904360675</v>
+        <v>0.980580090436068</v>
       </c>
       <c r="F16">
-        <v>0.9871156676888064</v>
+        <v>0.9871156676888069</v>
       </c>
       <c r="G16">
         <v>1</v>
       </c>
       <c r="I16">
-        <v>1.034865286018962</v>
+        <v>1.034865286018963</v>
       </c>
       <c r="J16">
-        <v>0.996382712834025</v>
+        <v>0.9963827128340256</v>
       </c>
       <c r="K16">
         <v>1.008256684502081</v>
       </c>
       <c r="L16">
-        <v>0.9952713203762771</v>
+        <v>0.9952713203762774</v>
       </c>
       <c r="M16">
         <v>1.001684140978048</v>
@@ -991,31 +991,31 @@
         <v>1.05</v>
       </c>
       <c r="C17">
-        <v>0.9697817036085046</v>
+        <v>0.9697817036085051</v>
       </c>
       <c r="D17">
-        <v>0.9959712729777949</v>
+        <v>0.9959712729777956</v>
       </c>
       <c r="E17">
-        <v>0.9829893558003175</v>
+        <v>0.9829893558003184</v>
       </c>
       <c r="F17">
-        <v>0.9898970888969122</v>
+        <v>0.9898970888969125</v>
       </c>
       <c r="G17">
         <v>1</v>
       </c>
       <c r="I17">
-        <v>1.035860427791483</v>
+        <v>1.035860427791484</v>
       </c>
       <c r="J17">
-        <v>0.9984527854727714</v>
+        <v>0.9984527854727718</v>
       </c>
       <c r="K17">
-        <v>1.010050311042264</v>
+        <v>1.010050311042265</v>
       </c>
       <c r="L17">
-        <v>0.9973023652613323</v>
+        <v>0.9973023652613331</v>
       </c>
       <c r="M17">
         <v>1.004084608351262</v>
@@ -1029,31 +1029,31 @@
         <v>1.05</v>
       </c>
       <c r="C18">
-        <v>0.9714598465131645</v>
+        <v>0.9714598465131661</v>
       </c>
       <c r="D18">
-        <v>0.9972170621863211</v>
+        <v>0.9972170621863221</v>
       </c>
       <c r="E18">
-        <v>0.9843796796320257</v>
+        <v>0.9843796796320268</v>
       </c>
       <c r="F18">
-        <v>0.9915019069115701</v>
+        <v>0.9915019069115714</v>
       </c>
       <c r="G18">
         <v>1</v>
       </c>
       <c r="I18">
-        <v>1.036432666858341</v>
+        <v>1.036432666858342</v>
       </c>
       <c r="J18">
-        <v>0.9996461823037935</v>
+        <v>0.9996461823037948</v>
       </c>
       <c r="K18">
-        <v>1.011084006291499</v>
+        <v>1.0110840062915</v>
       </c>
       <c r="L18">
-        <v>0.9984735998314573</v>
+        <v>0.9984735998314586</v>
       </c>
       <c r="M18">
         <v>1.005468958733333</v>
@@ -1067,34 +1067,34 @@
         <v>1.05</v>
       </c>
       <c r="C19">
-        <v>0.9720288302758986</v>
+        <v>0.9720288302758971</v>
       </c>
       <c r="D19">
-        <v>0.9976395536168903</v>
+        <v>0.9976395536168892</v>
       </c>
       <c r="E19">
-        <v>0.9848512620856499</v>
+        <v>0.984851262085648</v>
       </c>
       <c r="F19">
-        <v>0.9920461991674252</v>
+        <v>0.9920461991674238</v>
       </c>
       <c r="G19">
         <v>1</v>
       </c>
       <c r="I19">
-        <v>1.036626418374095</v>
+        <v>1.036626418374094</v>
       </c>
       <c r="J19">
-        <v>1.000050768621031</v>
+        <v>1.00005076862103</v>
       </c>
       <c r="K19">
-        <v>1.011434393262716</v>
+        <v>1.011434393262715</v>
       </c>
       <c r="L19">
-        <v>0.9988707294981817</v>
+        <v>0.9988707294981798</v>
       </c>
       <c r="M19">
-        <v>1.00593836348304</v>
+        <v>1.005938363483038</v>
       </c>
     </row>
     <row r="20" spans="1:13">
@@ -1105,34 +1105,34 @@
         <v>1.05</v>
       </c>
       <c r="C20">
-        <v>0.9694714761984691</v>
+        <v>0.9694714761984707</v>
       </c>
       <c r="D20">
-        <v>0.9957410207731303</v>
+        <v>0.9957410207731315</v>
       </c>
       <c r="E20">
-        <v>0.9827324251244403</v>
+        <v>0.9827324251244418</v>
       </c>
       <c r="F20">
-        <v>0.9896004985087751</v>
+        <v>0.9896004985087766</v>
       </c>
       <c r="G20">
         <v>1</v>
       </c>
       <c r="I20">
-        <v>1.035754513831756</v>
+        <v>1.035754513831757</v>
       </c>
       <c r="J20">
-        <v>0.9982321507992612</v>
+        <v>0.9982321507992626</v>
       </c>
       <c r="K20">
-        <v>1.009859174894007</v>
+        <v>1.009859174894008</v>
       </c>
       <c r="L20">
-        <v>0.9970858551514983</v>
+        <v>0.9970858551514997</v>
       </c>
       <c r="M20">
-        <v>1.003828709128229</v>
+        <v>1.003828709128231</v>
       </c>
     </row>
     <row r="21" spans="1:13">
@@ -1143,34 +1143,34 @@
         <v>1.05</v>
       </c>
       <c r="C21">
-        <v>0.9609231837074086</v>
+        <v>0.9609231837074097</v>
       </c>
       <c r="D21">
-        <v>0.9894027819445957</v>
+        <v>0.9894027819445966</v>
       </c>
       <c r="E21">
-        <v>0.9756637416011705</v>
+        <v>0.9756637416011716</v>
       </c>
       <c r="F21">
-        <v>0.9814380621498751</v>
+        <v>0.9814380621498759</v>
       </c>
       <c r="G21">
         <v>1</v>
       </c>
       <c r="I21">
-        <v>1.032821394444584</v>
+        <v>1.032821394444585</v>
       </c>
       <c r="J21">
-        <v>0.9921506815690554</v>
+        <v>0.9921506815690567</v>
       </c>
       <c r="K21">
-        <v>1.004587742144877</v>
+        <v>1.004587742144878</v>
       </c>
       <c r="L21">
-        <v>0.9911213205146537</v>
+        <v>0.9911213205146548</v>
       </c>
       <c r="M21">
-        <v>0.9967798409576027</v>
+        <v>0.9967798409576036</v>
       </c>
     </row>
     <row r="22" spans="1:13">
@@ -1181,16 +1181,16 @@
         <v>1.05</v>
       </c>
       <c r="C22">
-        <v>0.9553551591433203</v>
+        <v>0.9553551591433213</v>
       </c>
       <c r="D22">
-        <v>0.9852813717376937</v>
+        <v>0.9852813717376948</v>
       </c>
       <c r="E22">
-        <v>0.9710709801134644</v>
+        <v>0.9710709801134649</v>
       </c>
       <c r="F22">
-        <v>0.9761319005332025</v>
+        <v>0.9761319005332032</v>
       </c>
       <c r="G22">
         <v>1</v>
@@ -1199,16 +1199,16 @@
         <v>1.030897016825327</v>
       </c>
       <c r="J22">
-        <v>0.9881880880457267</v>
+        <v>0.9881880880457274</v>
       </c>
       <c r="K22">
-        <v>1.001150157252373</v>
+        <v>1.001150157252374</v>
       </c>
       <c r="L22">
-        <v>0.9872381671169894</v>
+        <v>0.98723816711699</v>
       </c>
       <c r="M22">
-        <v>0.9921914957640856</v>
+        <v>0.9921914957640864</v>
       </c>
     </row>
     <row r="23" spans="1:13">
@@ -1222,13 +1222,13 @@
         <v>0.9583261606059646</v>
       </c>
       <c r="D23">
-        <v>0.9874797545044509</v>
+        <v>0.9874797545044508</v>
       </c>
       <c r="E23">
-        <v>0.973520463404385</v>
+        <v>0.9735204634043849</v>
       </c>
       <c r="F23">
-        <v>0.9789621374371137</v>
+        <v>0.9789621374371134</v>
       </c>
       <c r="G23">
         <v>1</v>
@@ -1240,10 +1240,10 @@
         <v>0.9903025484604512</v>
       </c>
       <c r="K23">
-        <v>1.002984718682474</v>
+        <v>1.002984718682473</v>
       </c>
       <c r="L23">
-        <v>0.9893099278823214</v>
+        <v>0.9893099278823213</v>
       </c>
       <c r="M23">
         <v>0.9946394241172982</v>
@@ -1257,16 +1257,16 @@
         <v>1.05</v>
       </c>
       <c r="C24">
-        <v>0.9696117144365402</v>
+        <v>0.9696117144365394</v>
       </c>
       <c r="D24">
-        <v>0.9958451043306449</v>
+        <v>0.9958451043306443</v>
       </c>
       <c r="E24">
-        <v>0.9828485671245021</v>
+        <v>0.9828485671245013</v>
       </c>
       <c r="F24">
-        <v>0.9897345689662652</v>
+        <v>0.989734568966265</v>
       </c>
       <c r="G24">
         <v>1</v>
@@ -1275,13 +1275,13 @@
         <v>1.035802397097481</v>
       </c>
       <c r="J24">
-        <v>0.9983318893725639</v>
+        <v>0.9983318893725631</v>
       </c>
       <c r="K24">
         <v>1.009945579598603</v>
       </c>
       <c r="L24">
-        <v>0.9971837281570159</v>
+        <v>0.9971837281570153</v>
       </c>
       <c r="M24">
         <v>1.003944387655384</v>
@@ -1301,7 +1301,7 @@
         <v>1.005016140871184</v>
       </c>
       <c r="E25">
-        <v>0.9930916371761707</v>
+        <v>0.9930916371761705</v>
       </c>
       <c r="F25">
         <v>1.001553508831836</v>

--- a/Code/Results/Cases/Case_3_18/res_bus/vm_pu.xlsx
+++ b/Code/Results/Cases/Case_3_18/res_bus/vm_pu.xlsx
@@ -421,34 +421,34 @@
         <v>1.05</v>
       </c>
       <c r="C2">
-        <v>0.9912698150976949</v>
+        <v>0.9912698150976941</v>
       </c>
       <c r="D2">
-        <v>1.011952435203785</v>
+        <v>1.011952435203784</v>
       </c>
       <c r="E2">
-        <v>1.000853579659177</v>
+        <v>1.000853579659176</v>
       </c>
       <c r="F2">
-        <v>1.010502702222064</v>
+        <v>1.010502702222063</v>
       </c>
       <c r="G2">
         <v>1</v>
       </c>
       <c r="I2">
-        <v>1.043086005533857</v>
+        <v>1.043086005533856</v>
       </c>
       <c r="J2">
-        <v>1.013714817267166</v>
+        <v>1.013714817267165</v>
       </c>
       <c r="K2">
         <v>1.023247727659572</v>
       </c>
       <c r="L2">
-        <v>1.012301035557002</v>
+        <v>1.012301035557001</v>
       </c>
       <c r="M2">
-        <v>1.021817631470994</v>
+        <v>1.021817631470993</v>
       </c>
     </row>
     <row r="3" spans="1:14">
@@ -459,7 +459,7 @@
         <v>1.05</v>
       </c>
       <c r="C3">
-        <v>0.9977640992147484</v>
+        <v>0.9977640992147485</v>
       </c>
       <c r="D3">
         <v>1.016792350608426</v>
@@ -468,13 +468,13 @@
         <v>1.006278916809007</v>
       </c>
       <c r="F3">
-        <v>1.016754416025286</v>
+        <v>1.016754416025285</v>
       </c>
       <c r="G3">
         <v>1</v>
       </c>
       <c r="I3">
-        <v>1.045218371546269</v>
+        <v>1.04521837154627</v>
       </c>
       <c r="J3">
         <v>1.018315903281266</v>
@@ -535,34 +535,34 @@
         <v>1.05</v>
       </c>
       <c r="C5">
-        <v>1.003543333200984</v>
+        <v>1.003543333200983</v>
       </c>
       <c r="D5">
         <v>1.021101877316945</v>
       </c>
       <c r="E5">
-        <v>1.011117246898412</v>
+        <v>1.011117246898411</v>
       </c>
       <c r="F5">
-        <v>1.022327330545727</v>
+        <v>1.022327330545726</v>
       </c>
       <c r="G5">
         <v>1</v>
       </c>
       <c r="I5">
-        <v>1.047091239507565</v>
+        <v>1.047091239507564</v>
       </c>
       <c r="J5">
-        <v>1.02240395307319</v>
+        <v>1.022403953073189</v>
       </c>
       <c r="K5">
         <v>1.030733733898115</v>
       </c>
       <c r="L5">
-        <v>1.020862040335972</v>
+        <v>1.020862040335971</v>
       </c>
       <c r="M5">
-        <v>1.03194551298173</v>
+        <v>1.031945512981729</v>
       </c>
     </row>
     <row r="6" spans="1:14">
@@ -573,16 +573,16 @@
         <v>1.05</v>
       </c>
       <c r="C6">
-        <v>1.00382594250624</v>
+        <v>1.003825942506239</v>
       </c>
       <c r="D6">
-        <v>1.021312663195622</v>
+        <v>1.021312663195621</v>
       </c>
       <c r="E6">
-        <v>1.011354096785904</v>
+        <v>1.011354096785902</v>
       </c>
       <c r="F6">
-        <v>1.022600083155084</v>
+        <v>1.022600083155083</v>
       </c>
       <c r="G6">
         <v>1</v>
@@ -591,16 +591,16 @@
         <v>1.047182177849953</v>
       </c>
       <c r="J6">
-        <v>1.022603686258669</v>
+        <v>1.022603686258668</v>
       </c>
       <c r="K6">
         <v>1.030905509354468</v>
       </c>
       <c r="L6">
-        <v>1.021059040494533</v>
+        <v>1.021059040494532</v>
       </c>
       <c r="M6">
-        <v>1.032178633623814</v>
+        <v>1.032178633623813</v>
       </c>
     </row>
     <row r="7" spans="1:14">
@@ -611,13 +611,13 @@
         <v>1.05</v>
       </c>
       <c r="C7">
-        <v>1.001873973610389</v>
+        <v>1.001873973610388</v>
       </c>
       <c r="D7">
-        <v>1.019856854478856</v>
+        <v>1.019856854478855</v>
       </c>
       <c r="E7">
-        <v>1.009718665709013</v>
+        <v>1.009718665709012</v>
       </c>
       <c r="F7">
         <v>1.02071663768693</v>
@@ -626,16 +626,16 @@
         <v>1</v>
       </c>
       <c r="I7">
-        <v>1.04655280883699</v>
+        <v>1.046552808836989</v>
       </c>
       <c r="J7">
         <v>1.021223790938128</v>
       </c>
       <c r="K7">
-        <v>1.029718466140994</v>
+        <v>1.029718466140993</v>
       </c>
       <c r="L7">
-        <v>1.019698230656281</v>
+        <v>1.01969823065628</v>
       </c>
       <c r="M7">
         <v>1.030568379221552</v>
@@ -649,34 +649,34 @@
         <v>1.05</v>
       </c>
       <c r="C8">
-        <v>0.9934892764689008</v>
+        <v>0.9934892764689022</v>
       </c>
       <c r="D8">
-        <v>1.013606110500956</v>
+        <v>1.013606110500957</v>
       </c>
       <c r="E8">
-        <v>1.002706343822661</v>
+        <v>1.002706343822662</v>
       </c>
       <c r="F8">
-        <v>1.012637994787588</v>
+        <v>1.012637994787589</v>
       </c>
       <c r="G8">
         <v>1</v>
       </c>
       <c r="I8">
-        <v>1.043817852821389</v>
+        <v>1.04381785282139</v>
       </c>
       <c r="J8">
-        <v>1.015288041587386</v>
+        <v>1.015288041587387</v>
       </c>
       <c r="K8">
-        <v>1.024604879259881</v>
+        <v>1.024604879259882</v>
       </c>
       <c r="L8">
-        <v>1.01384978033453</v>
+        <v>1.013849780334531</v>
       </c>
       <c r="M8">
-        <v>1.023649454946114</v>
+        <v>1.023649454946115</v>
       </c>
     </row>
     <row r="9" spans="1:14">
@@ -687,28 +687,28 @@
         <v>1.05</v>
       </c>
       <c r="C9">
-        <v>0.9777653924470645</v>
+        <v>0.9777653924470652</v>
       </c>
       <c r="D9">
-        <v>1.001901846351713</v>
+        <v>1.001901846351714</v>
       </c>
       <c r="E9">
-        <v>0.9896110477158879</v>
+        <v>0.9896110477158888</v>
       </c>
       <c r="F9">
-        <v>0.9975386128861878</v>
+        <v>0.9975386128861883</v>
       </c>
       <c r="G9">
         <v>1</v>
       </c>
       <c r="I9">
-        <v>1.038571822853724</v>
+        <v>1.038571822853725</v>
       </c>
       <c r="J9">
-        <v>1.004128505630681</v>
+        <v>1.004128505630682</v>
       </c>
       <c r="K9">
-        <v>1.014964142603278</v>
+        <v>1.014964142603279</v>
       </c>
       <c r="L9">
         <v>1.002874957680965</v>
@@ -725,34 +725,34 @@
         <v>1.05</v>
       </c>
       <c r="C10">
-        <v>0.9665397568652893</v>
+        <v>0.9665397568652886</v>
       </c>
       <c r="D10">
-        <v>0.9935658578930369</v>
+        <v>0.9935658578930362</v>
       </c>
       <c r="E10">
-        <v>0.9803057527571131</v>
+        <v>0.9803057527571124</v>
       </c>
       <c r="F10">
-        <v>0.9867989160874281</v>
+        <v>0.9867989160874271</v>
       </c>
       <c r="G10">
         <v>1</v>
       </c>
       <c r="I10">
-        <v>1.034751694659785</v>
+        <v>1.034751694659784</v>
       </c>
       <c r="J10">
-        <v>0.9961468352765137</v>
+        <v>0.9961468352765129</v>
       </c>
       <c r="K10">
-        <v>1.008052262704888</v>
+        <v>1.008052262704887</v>
       </c>
       <c r="L10">
-        <v>0.9950399363460415</v>
+        <v>0.9950399363460407</v>
       </c>
       <c r="M10">
-        <v>1.001410682208606</v>
+        <v>1.001410682208605</v>
       </c>
     </row>
     <row r="11" spans="1:14">
@@ -763,34 +763,34 @@
         <v>1.05</v>
       </c>
       <c r="C11">
-        <v>0.9614757005897295</v>
+        <v>0.9614757005897275</v>
       </c>
       <c r="D11">
-        <v>0.9898120664992677</v>
+        <v>0.9898120664992662</v>
       </c>
       <c r="E11">
-        <v>0.9761199793999787</v>
+        <v>0.9761199793999767</v>
       </c>
       <c r="F11">
-        <v>0.9819650489681229</v>
+        <v>0.9819650489681212</v>
       </c>
       <c r="G11">
         <v>1</v>
       </c>
       <c r="I11">
-        <v>1.033011786400675</v>
+        <v>1.033011786400674</v>
       </c>
       <c r="J11">
-        <v>0.9925438465595453</v>
+        <v>0.9925438465595434</v>
       </c>
       <c r="K11">
-        <v>1.004928704239823</v>
+        <v>1.004928704239822</v>
       </c>
       <c r="L11">
-        <v>0.9915067404192291</v>
+        <v>0.9915067404192273</v>
       </c>
       <c r="M11">
-        <v>0.9972352854038657</v>
+        <v>0.997235285403864</v>
       </c>
     </row>
     <row r="12" spans="1:14">
@@ -801,16 +801,16 @@
         <v>1.05</v>
       </c>
       <c r="C12">
-        <v>0.9595615261505395</v>
+        <v>0.9595615261505394</v>
       </c>
       <c r="D12">
-        <v>0.9883943539610418</v>
+        <v>0.9883943539610417</v>
       </c>
       <c r="E12">
-        <v>0.9745397423118771</v>
+        <v>0.9745397423118768</v>
       </c>
       <c r="F12">
-        <v>0.9801396722241</v>
+        <v>0.9801396722241003</v>
       </c>
       <c r="G12">
         <v>1</v>
@@ -819,16 +819,16 @@
         <v>1.032351732927623</v>
       </c>
       <c r="J12">
-        <v>0.9911817010801292</v>
+        <v>0.9911817010801289</v>
       </c>
       <c r="K12">
         <v>1.003747329446417</v>
       </c>
       <c r="L12">
-        <v>0.9901715348802508</v>
+        <v>0.9901715348802507</v>
       </c>
       <c r="M12">
-        <v>0.9956575191856636</v>
+        <v>0.9956575191856637</v>
       </c>
     </row>
     <row r="13" spans="1:14">
@@ -839,16 +839,16 @@
         <v>1.05</v>
       </c>
       <c r="C13">
-        <v>0.9599736689343942</v>
+        <v>0.959973668934394</v>
       </c>
       <c r="D13">
-        <v>0.9886995460896774</v>
+        <v>0.9886995460896767</v>
       </c>
       <c r="E13">
-        <v>0.9748798939488703</v>
+        <v>0.97487989394887</v>
       </c>
       <c r="F13">
-        <v>0.9805326127894398</v>
+        <v>0.9805326127894394</v>
       </c>
       <c r="G13">
         <v>1</v>
@@ -857,7 +857,7 @@
         <v>1.032493955312118</v>
       </c>
       <c r="J13">
-        <v>0.9914749951192814</v>
+        <v>0.9914749951192812</v>
       </c>
       <c r="K13">
         <v>1.004001721461219</v>
@@ -866,7 +866,7 @@
         <v>0.9904590030165683</v>
       </c>
       <c r="M13">
-        <v>0.99599720454984</v>
+        <v>0.9959972045498395</v>
       </c>
     </row>
     <row r="14" spans="1:14">
@@ -877,16 +877,16 @@
         <v>1.05</v>
       </c>
       <c r="C14">
-        <v>0.9613181669793804</v>
+        <v>0.9613181669793806</v>
       </c>
       <c r="D14">
-        <v>0.9896953656352627</v>
+        <v>0.9896953656352629</v>
       </c>
       <c r="E14">
-        <v>0.9759898877688917</v>
+        <v>0.975989887768892</v>
       </c>
       <c r="F14">
-        <v>0.9818147861472822</v>
+        <v>0.9818147861472826</v>
       </c>
       <c r="G14">
         <v>1</v>
@@ -895,16 +895,16 @@
         <v>1.032957512656773</v>
       </c>
       <c r="J14">
-        <v>0.99243174836656</v>
+        <v>0.9924317483665602</v>
       </c>
       <c r="K14">
         <v>1.00483149217511</v>
       </c>
       <c r="L14">
-        <v>0.9913968479296656</v>
+        <v>0.9913968479296658</v>
       </c>
       <c r="M14">
-        <v>0.9971054266426681</v>
+        <v>0.9971054266426685</v>
       </c>
     </row>
     <row r="15" spans="1:14">
@@ -915,16 +915,16 @@
         <v>1.05</v>
       </c>
       <c r="C15">
-        <v>0.9621420793068984</v>
+        <v>0.9621420793068985</v>
       </c>
       <c r="D15">
-        <v>0.990305769314735</v>
+        <v>0.9903057693147349</v>
       </c>
       <c r="E15">
-        <v>0.9766703568976673</v>
+        <v>0.9766703568976675</v>
       </c>
       <c r="F15">
-        <v>0.9826007452820887</v>
+        <v>0.9826007452820884</v>
       </c>
       <c r="G15">
         <v>1</v>
@@ -933,16 +933,16 @@
         <v>1.033241272158452</v>
       </c>
       <c r="J15">
-        <v>0.9930180208991612</v>
+        <v>0.9930180208991614</v>
       </c>
       <c r="K15">
         <v>1.005339891014572</v>
       </c>
       <c r="L15">
-        <v>0.99197160727154</v>
+        <v>0.9919716072715402</v>
       </c>
       <c r="M15">
-        <v>0.9977846187474645</v>
+        <v>0.9977846187474642</v>
       </c>
     </row>
     <row r="16" spans="1:14">
@@ -953,31 +953,31 @@
         <v>1.05</v>
       </c>
       <c r="C16">
-        <v>0.9668713420488354</v>
+        <v>0.9668713420488346</v>
       </c>
       <c r="D16">
-        <v>0.9938118033422155</v>
+        <v>0.9938118033422152</v>
       </c>
       <c r="E16">
-        <v>0.980580090436068</v>
+        <v>0.9805800904360675</v>
       </c>
       <c r="F16">
-        <v>0.9871156676888069</v>
+        <v>0.9871156676888064</v>
       </c>
       <c r="G16">
         <v>1</v>
       </c>
       <c r="I16">
-        <v>1.034865286018963</v>
+        <v>1.034865286018962</v>
       </c>
       <c r="J16">
-        <v>0.9963827128340256</v>
+        <v>0.996382712834025</v>
       </c>
       <c r="K16">
         <v>1.008256684502081</v>
       </c>
       <c r="L16">
-        <v>0.9952713203762774</v>
+        <v>0.9952713203762771</v>
       </c>
       <c r="M16">
         <v>1.001684140978048</v>
@@ -991,31 +991,31 @@
         <v>1.05</v>
       </c>
       <c r="C17">
-        <v>0.9697817036085051</v>
+        <v>0.9697817036085046</v>
       </c>
       <c r="D17">
-        <v>0.9959712729777956</v>
+        <v>0.9959712729777949</v>
       </c>
       <c r="E17">
-        <v>0.9829893558003184</v>
+        <v>0.9829893558003175</v>
       </c>
       <c r="F17">
-        <v>0.9898970888969125</v>
+        <v>0.9898970888969122</v>
       </c>
       <c r="G17">
         <v>1</v>
       </c>
       <c r="I17">
-        <v>1.035860427791484</v>
+        <v>1.035860427791483</v>
       </c>
       <c r="J17">
-        <v>0.9984527854727718</v>
+        <v>0.9984527854727714</v>
       </c>
       <c r="K17">
-        <v>1.010050311042265</v>
+        <v>1.010050311042264</v>
       </c>
       <c r="L17">
-        <v>0.9973023652613331</v>
+        <v>0.9973023652613323</v>
       </c>
       <c r="M17">
         <v>1.004084608351262</v>
@@ -1029,31 +1029,31 @@
         <v>1.05</v>
       </c>
       <c r="C18">
-        <v>0.9714598465131661</v>
+        <v>0.9714598465131645</v>
       </c>
       <c r="D18">
-        <v>0.9972170621863221</v>
+        <v>0.9972170621863211</v>
       </c>
       <c r="E18">
-        <v>0.9843796796320268</v>
+        <v>0.9843796796320257</v>
       </c>
       <c r="F18">
-        <v>0.9915019069115714</v>
+        <v>0.9915019069115701</v>
       </c>
       <c r="G18">
         <v>1</v>
       </c>
       <c r="I18">
-        <v>1.036432666858342</v>
+        <v>1.036432666858341</v>
       </c>
       <c r="J18">
-        <v>0.9996461823037948</v>
+        <v>0.9996461823037935</v>
       </c>
       <c r="K18">
-        <v>1.0110840062915</v>
+        <v>1.011084006291499</v>
       </c>
       <c r="L18">
-        <v>0.9984735998314586</v>
+        <v>0.9984735998314573</v>
       </c>
       <c r="M18">
         <v>1.005468958733333</v>
@@ -1067,34 +1067,34 @@
         <v>1.05</v>
       </c>
       <c r="C19">
-        <v>0.9720288302758971</v>
+        <v>0.9720288302758986</v>
       </c>
       <c r="D19">
-        <v>0.9976395536168892</v>
+        <v>0.9976395536168903</v>
       </c>
       <c r="E19">
-        <v>0.984851262085648</v>
+        <v>0.9848512620856499</v>
       </c>
       <c r="F19">
-        <v>0.9920461991674238</v>
+        <v>0.9920461991674252</v>
       </c>
       <c r="G19">
         <v>1</v>
       </c>
       <c r="I19">
-        <v>1.036626418374094</v>
+        <v>1.036626418374095</v>
       </c>
       <c r="J19">
-        <v>1.00005076862103</v>
+        <v>1.000050768621031</v>
       </c>
       <c r="K19">
-        <v>1.011434393262715</v>
+        <v>1.011434393262716</v>
       </c>
       <c r="L19">
-        <v>0.9988707294981798</v>
+        <v>0.9988707294981817</v>
       </c>
       <c r="M19">
-        <v>1.005938363483038</v>
+        <v>1.00593836348304</v>
       </c>
     </row>
     <row r="20" spans="1:13">
@@ -1105,34 +1105,34 @@
         <v>1.05</v>
       </c>
       <c r="C20">
-        <v>0.9694714761984707</v>
+        <v>0.9694714761984691</v>
       </c>
       <c r="D20">
-        <v>0.9957410207731315</v>
+        <v>0.9957410207731303</v>
       </c>
       <c r="E20">
-        <v>0.9827324251244418</v>
+        <v>0.9827324251244403</v>
       </c>
       <c r="F20">
-        <v>0.9896004985087766</v>
+        <v>0.9896004985087751</v>
       </c>
       <c r="G20">
         <v>1</v>
       </c>
       <c r="I20">
-        <v>1.035754513831757</v>
+        <v>1.035754513831756</v>
       </c>
       <c r="J20">
-        <v>0.9982321507992626</v>
+        <v>0.9982321507992612</v>
       </c>
       <c r="K20">
-        <v>1.009859174894008</v>
+        <v>1.009859174894007</v>
       </c>
       <c r="L20">
-        <v>0.9970858551514997</v>
+        <v>0.9970858551514983</v>
       </c>
       <c r="M20">
-        <v>1.003828709128231</v>
+        <v>1.003828709128229</v>
       </c>
     </row>
     <row r="21" spans="1:13">
@@ -1143,34 +1143,34 @@
         <v>1.05</v>
       </c>
       <c r="C21">
-        <v>0.9609231837074097</v>
+        <v>0.9609231837074086</v>
       </c>
       <c r="D21">
-        <v>0.9894027819445966</v>
+        <v>0.9894027819445957</v>
       </c>
       <c r="E21">
-        <v>0.9756637416011716</v>
+        <v>0.9756637416011705</v>
       </c>
       <c r="F21">
-        <v>0.9814380621498759</v>
+        <v>0.9814380621498751</v>
       </c>
       <c r="G21">
         <v>1</v>
       </c>
       <c r="I21">
-        <v>1.032821394444585</v>
+        <v>1.032821394444584</v>
       </c>
       <c r="J21">
-        <v>0.9921506815690567</v>
+        <v>0.9921506815690554</v>
       </c>
       <c r="K21">
-        <v>1.004587742144878</v>
+        <v>1.004587742144877</v>
       </c>
       <c r="L21">
-        <v>0.9911213205146548</v>
+        <v>0.9911213205146537</v>
       </c>
       <c r="M21">
-        <v>0.9967798409576036</v>
+        <v>0.9967798409576027</v>
       </c>
     </row>
     <row r="22" spans="1:13">
@@ -1181,16 +1181,16 @@
         <v>1.05</v>
       </c>
       <c r="C22">
-        <v>0.9553551591433213</v>
+        <v>0.9553551591433203</v>
       </c>
       <c r="D22">
-        <v>0.9852813717376948</v>
+        <v>0.9852813717376937</v>
       </c>
       <c r="E22">
-        <v>0.9710709801134649</v>
+        <v>0.9710709801134644</v>
       </c>
       <c r="F22">
-        <v>0.9761319005332032</v>
+        <v>0.9761319005332025</v>
       </c>
       <c r="G22">
         <v>1</v>
@@ -1199,16 +1199,16 @@
         <v>1.030897016825327</v>
       </c>
       <c r="J22">
-        <v>0.9881880880457274</v>
+        <v>0.9881880880457267</v>
       </c>
       <c r="K22">
-        <v>1.001150157252374</v>
+        <v>1.001150157252373</v>
       </c>
       <c r="L22">
-        <v>0.98723816711699</v>
+        <v>0.9872381671169894</v>
       </c>
       <c r="M22">
-        <v>0.9921914957640864</v>
+        <v>0.9921914957640856</v>
       </c>
     </row>
     <row r="23" spans="1:13">
@@ -1222,13 +1222,13 @@
         <v>0.9583261606059646</v>
       </c>
       <c r="D23">
-        <v>0.9874797545044508</v>
+        <v>0.9874797545044509</v>
       </c>
       <c r="E23">
-        <v>0.9735204634043849</v>
+        <v>0.973520463404385</v>
       </c>
       <c r="F23">
-        <v>0.9789621374371134</v>
+        <v>0.9789621374371137</v>
       </c>
       <c r="G23">
         <v>1</v>
@@ -1240,10 +1240,10 @@
         <v>0.9903025484604512</v>
       </c>
       <c r="K23">
-        <v>1.002984718682473</v>
+        <v>1.002984718682474</v>
       </c>
       <c r="L23">
-        <v>0.9893099278823213</v>
+        <v>0.9893099278823214</v>
       </c>
       <c r="M23">
         <v>0.9946394241172982</v>
@@ -1257,16 +1257,16 @@
         <v>1.05</v>
       </c>
       <c r="C24">
-        <v>0.9696117144365394</v>
+        <v>0.9696117144365402</v>
       </c>
       <c r="D24">
-        <v>0.9958451043306443</v>
+        <v>0.9958451043306449</v>
       </c>
       <c r="E24">
-        <v>0.9828485671245013</v>
+        <v>0.9828485671245021</v>
       </c>
       <c r="F24">
-        <v>0.989734568966265</v>
+        <v>0.9897345689662652</v>
       </c>
       <c r="G24">
         <v>1</v>
@@ -1275,13 +1275,13 @@
         <v>1.035802397097481</v>
       </c>
       <c r="J24">
-        <v>0.9983318893725631</v>
+        <v>0.9983318893725639</v>
       </c>
       <c r="K24">
         <v>1.009945579598603</v>
       </c>
       <c r="L24">
-        <v>0.9971837281570153</v>
+        <v>0.9971837281570159</v>
       </c>
       <c r="M24">
         <v>1.003944387655384</v>
@@ -1301,7 +1301,7 @@
         <v>1.005016140871184</v>
       </c>
       <c r="E25">
-        <v>0.9930916371761705</v>
+        <v>0.9930916371761707</v>
       </c>
       <c r="F25">
         <v>1.001553508831836</v>

--- a/Code/Results/Cases/Case_3_18/res_bus/vm_pu.xlsx
+++ b/Code/Results/Cases/Case_3_18/res_bus/vm_pu.xlsx
@@ -421,34 +421,37 @@
         <v>1.05</v>
       </c>
       <c r="C2">
-        <v>0.9912698150976941</v>
+        <v>0.9912761562239176</v>
       </c>
       <c r="D2">
-        <v>1.011952435203784</v>
+        <v>1.011957550616292</v>
       </c>
       <c r="E2">
-        <v>1.000853579659176</v>
+        <v>1.000859618528662</v>
       </c>
       <c r="F2">
-        <v>1.010502702222063</v>
+        <v>1.010507740607934</v>
       </c>
       <c r="G2">
         <v>1</v>
       </c>
       <c r="I2">
-        <v>1.043086005533856</v>
+        <v>1.043088727654818</v>
       </c>
       <c r="J2">
-        <v>1.013714817267165</v>
+        <v>1.013720964096627</v>
       </c>
       <c r="K2">
-        <v>1.023247727659572</v>
+        <v>1.023252773908532</v>
       </c>
       <c r="L2">
-        <v>1.012301035557001</v>
+        <v>1.012306990477037</v>
       </c>
       <c r="M2">
-        <v>1.021817631470993</v>
+        <v>1.021822601488617</v>
+      </c>
+      <c r="N2">
+        <v>1.011191691505734</v>
       </c>
     </row>
     <row r="3" spans="1:14">
@@ -459,34 +462,37 @@
         <v>1.05</v>
       </c>
       <c r="C3">
-        <v>0.9977640992147485</v>
+        <v>0.9977672221013301</v>
       </c>
       <c r="D3">
-        <v>1.016792350608426</v>
+        <v>1.016794994654561</v>
       </c>
       <c r="E3">
-        <v>1.006278916809007</v>
+        <v>1.006282141754787</v>
       </c>
       <c r="F3">
-        <v>1.016754416025285</v>
+        <v>1.016757039394899</v>
       </c>
       <c r="G3">
         <v>1</v>
       </c>
       <c r="I3">
-        <v>1.04521837154627</v>
+        <v>1.045219780084983</v>
       </c>
       <c r="J3">
-        <v>1.018315903281266</v>
+        <v>1.018318940514428</v>
       </c>
       <c r="K3">
-        <v>1.02721478578534</v>
+        <v>1.027217397376616</v>
       </c>
       <c r="L3">
-        <v>1.016832083204537</v>
+        <v>1.016835267526685</v>
       </c>
       <c r="M3">
-        <v>1.027177316860743</v>
+        <v>1.027179908026306</v>
+      </c>
+      <c r="N3">
+        <v>1.014361128883879</v>
       </c>
     </row>
     <row r="4" spans="1:14">
@@ -497,34 +503,37 @@
         <v>1.05</v>
       </c>
       <c r="C4">
-        <v>1.001851262985096</v>
+        <v>1.001852390542471</v>
       </c>
       <c r="D4">
-        <v>1.019839917684993</v>
+        <v>1.019841026496759</v>
       </c>
       <c r="E4">
-        <v>1.009699644509609</v>
+        <v>1.009701122322431</v>
       </c>
       <c r="F4">
-        <v>1.020694730410701</v>
+        <v>1.020695860285105</v>
       </c>
       <c r="G4">
         <v>1</v>
       </c>
       <c r="I4">
-        <v>1.04654546911763</v>
+        <v>1.046546060465485</v>
       </c>
       <c r="J4">
-        <v>1.021207731523456</v>
+        <v>1.021208830381718</v>
       </c>
       <c r="K4">
-        <v>1.029704647098409</v>
+        <v>1.029705743163237</v>
       </c>
       <c r="L4">
-        <v>1.01968239614567</v>
+        <v>1.019683856544473</v>
       </c>
       <c r="M4">
-        <v>1.030549643013617</v>
+        <v>1.030550759925789</v>
+      </c>
+      <c r="N4">
+        <v>1.016351866840868</v>
       </c>
     </row>
     <row r="5" spans="1:14">
@@ -535,34 +544,37 @@
         <v>1.05</v>
       </c>
       <c r="C5">
-        <v>1.003543333200983</v>
+        <v>1.003543641120979</v>
       </c>
       <c r="D5">
-        <v>1.021101877316945</v>
+        <v>1.021102354860963</v>
       </c>
       <c r="E5">
-        <v>1.011117246898411</v>
+        <v>1.011118006536378</v>
       </c>
       <c r="F5">
-        <v>1.022327330545726</v>
+        <v>1.022327847790434</v>
       </c>
       <c r="G5">
         <v>1</v>
       </c>
       <c r="I5">
-        <v>1.047091239507564</v>
+        <v>1.047091494557892</v>
       </c>
       <c r="J5">
-        <v>1.022403953073189</v>
+        <v>1.022404253404364</v>
       </c>
       <c r="K5">
-        <v>1.030733733898115</v>
+        <v>1.030734206105619</v>
       </c>
       <c r="L5">
-        <v>1.020862040335971</v>
+        <v>1.020862791276928</v>
       </c>
       <c r="M5">
-        <v>1.031945512981729</v>
+        <v>1.031946024463309</v>
+      </c>
+      <c r="N5">
+        <v>1.01717502718954</v>
       </c>
     </row>
     <row r="6" spans="1:14">
@@ -573,34 +585,37 @@
         <v>1.05</v>
       </c>
       <c r="C6">
-        <v>1.003825942506239</v>
+        <v>1.00382611388648</v>
       </c>
       <c r="D6">
-        <v>1.021312663195621</v>
+        <v>1.021313035544985</v>
       </c>
       <c r="E6">
-        <v>1.011354096785902</v>
+        <v>1.011354736760288</v>
       </c>
       <c r="F6">
-        <v>1.022600083155083</v>
+        <v>1.022600498393919</v>
       </c>
       <c r="G6">
         <v>1</v>
       </c>
       <c r="I6">
-        <v>1.047182177849953</v>
+        <v>1.047182376843214</v>
       </c>
       <c r="J6">
-        <v>1.022603686258668</v>
+        <v>1.022603853438165</v>
       </c>
       <c r="K6">
-        <v>1.030905509354468</v>
+        <v>1.030905877562803</v>
       </c>
       <c r="L6">
-        <v>1.021059040494532</v>
+        <v>1.021059673177637</v>
       </c>
       <c r="M6">
-        <v>1.032178633623813</v>
+        <v>1.03217904425892</v>
+      </c>
+      <c r="N6">
+        <v>1.017312451172671</v>
       </c>
     </row>
     <row r="7" spans="1:14">
@@ -611,34 +626,37 @@
         <v>1.05</v>
       </c>
       <c r="C7">
-        <v>1.001873973610388</v>
+        <v>1.001875090142345</v>
       </c>
       <c r="D7">
-        <v>1.019856854478855</v>
+        <v>1.019857954801453</v>
       </c>
       <c r="E7">
-        <v>1.009718665709012</v>
+        <v>1.009720133863063</v>
       </c>
       <c r="F7">
-        <v>1.02071663768693</v>
+        <v>1.020717759317132</v>
       </c>
       <c r="G7">
         <v>1</v>
       </c>
       <c r="I7">
-        <v>1.046552808836989</v>
+        <v>1.046553395663483</v>
       </c>
       <c r="J7">
-        <v>1.021223790938128</v>
+        <v>1.021224879063737</v>
       </c>
       <c r="K7">
-        <v>1.029718466140993</v>
+        <v>1.029719553818992</v>
       </c>
       <c r="L7">
-        <v>1.01969823065628</v>
+        <v>1.019699681516735</v>
       </c>
       <c r="M7">
-        <v>1.030568379221552</v>
+        <v>1.030569487989085</v>
+      </c>
+      <c r="N7">
+        <v>1.016362919146572</v>
       </c>
     </row>
     <row r="8" spans="1:14">
@@ -649,34 +667,37 @@
         <v>1.05</v>
       </c>
       <c r="C8">
-        <v>0.9934892764689022</v>
+        <v>0.993494510895691</v>
       </c>
       <c r="D8">
-        <v>1.013606110500957</v>
+        <v>1.013610376739869</v>
       </c>
       <c r="E8">
-        <v>1.002706343822662</v>
+        <v>1.002711415626641</v>
       </c>
       <c r="F8">
-        <v>1.012637994787589</v>
+        <v>1.012642201839908</v>
       </c>
       <c r="G8">
         <v>1</v>
       </c>
       <c r="I8">
-        <v>1.04381785282139</v>
+        <v>1.043820123842939</v>
       </c>
       <c r="J8">
-        <v>1.015288041587387</v>
+        <v>1.015293121429133</v>
       </c>
       <c r="K8">
-        <v>1.024604879259882</v>
+        <v>1.024609089638264</v>
       </c>
       <c r="L8">
-        <v>1.013849780334531</v>
+        <v>1.013854783903499</v>
       </c>
       <c r="M8">
-        <v>1.023649454946115</v>
+        <v>1.023653606780776</v>
+      </c>
+      <c r="N8">
+        <v>1.0122756636843</v>
       </c>
     </row>
     <row r="9" spans="1:14">
@@ -687,34 +708,37 @@
         <v>1.05</v>
       </c>
       <c r="C9">
-        <v>0.9777653924470652</v>
+        <v>0.9777786344174689</v>
       </c>
       <c r="D9">
-        <v>1.001901846351714</v>
+        <v>1.001912239423626</v>
       </c>
       <c r="E9">
-        <v>0.9896110477158888</v>
+        <v>0.989623100665303</v>
       </c>
       <c r="F9">
-        <v>0.9975386128861883</v>
+        <v>0.9975488544823823</v>
       </c>
       <c r="G9">
         <v>1</v>
       </c>
       <c r="I9">
-        <v>1.038571822853725</v>
+        <v>1.038577343165565</v>
       </c>
       <c r="J9">
-        <v>1.004128505630682</v>
+        <v>1.004141249526822</v>
       </c>
       <c r="K9">
-        <v>1.014964142603279</v>
+        <v>1.014974367877733</v>
       </c>
       <c r="L9">
-        <v>1.002874957680965</v>
+        <v>1.002886809758336</v>
       </c>
       <c r="M9">
-        <v>1.010671751009773</v>
+        <v>1.010681825389947</v>
+      </c>
+      <c r="N9">
+        <v>1.004581564011283</v>
       </c>
     </row>
     <row r="10" spans="1:14">
@@ -725,34 +749,37 @@
         <v>1.05</v>
       </c>
       <c r="C10">
-        <v>0.9665397568652886</v>
+        <v>0.9665589793143278</v>
       </c>
       <c r="D10">
-        <v>0.9935658578930362</v>
+        <v>0.993580798687772</v>
       </c>
       <c r="E10">
-        <v>0.9803057527571124</v>
+        <v>0.9803229921016577</v>
       </c>
       <c r="F10">
-        <v>0.9867989160874271</v>
+        <v>0.9868136926658843</v>
       </c>
       <c r="G10">
         <v>1</v>
       </c>
       <c r="I10">
-        <v>1.034751694659784</v>
+        <v>1.03475961953771</v>
       </c>
       <c r="J10">
-        <v>0.9961468352765129</v>
+        <v>0.9961652175516816</v>
       </c>
       <c r="K10">
-        <v>1.008052262704887</v>
+        <v>1.008066929174083</v>
       </c>
       <c r="L10">
-        <v>0.9950399363460407</v>
+        <v>0.9950568478643033</v>
       </c>
       <c r="M10">
-        <v>1.001410682208605</v>
+        <v>1.001425182598013</v>
+      </c>
+      <c r="N10">
+        <v>0.9990726483544917</v>
       </c>
     </row>
     <row r="11" spans="1:14">
@@ -763,34 +790,37 @@
         <v>1.05</v>
       </c>
       <c r="C11">
-        <v>0.9614757005897275</v>
+        <v>0.9614977024364493</v>
       </c>
       <c r="D11">
-        <v>0.9898120664992662</v>
+        <v>0.9898291120393347</v>
       </c>
       <c r="E11">
-        <v>0.9761199793999767</v>
+        <v>0.9761396200810064</v>
       </c>
       <c r="F11">
-        <v>0.9819650489681212</v>
+        <v>0.9819819407973228</v>
       </c>
       <c r="G11">
         <v>1</v>
       </c>
       <c r="I11">
-        <v>1.033011786400674</v>
+        <v>1.033020822325453</v>
       </c>
       <c r="J11">
-        <v>0.9925438465595434</v>
+        <v>0.992564824298596</v>
       </c>
       <c r="K11">
-        <v>1.004928704239822</v>
+        <v>1.004945419601934</v>
       </c>
       <c r="L11">
-        <v>0.9915067404192273</v>
+        <v>0.9915259864774832</v>
       </c>
       <c r="M11">
-        <v>0.997235285403864</v>
+        <v>0.9972518431261913</v>
+      </c>
+      <c r="N11">
+        <v>0.9965847007274177</v>
       </c>
     </row>
     <row r="12" spans="1:14">
@@ -801,34 +831,37 @@
         <v>1.05</v>
       </c>
       <c r="C12">
-        <v>0.9595615261505394</v>
+        <v>0.9595845927383376</v>
       </c>
       <c r="D12">
-        <v>0.9883943539610417</v>
+        <v>0.9884122042680548</v>
       </c>
       <c r="E12">
-        <v>0.9745397423118768</v>
+        <v>0.9745603013095634</v>
       </c>
       <c r="F12">
-        <v>0.9801396722241003</v>
+        <v>0.9801573756023693</v>
       </c>
       <c r="G12">
         <v>1</v>
       </c>
       <c r="I12">
-        <v>1.032351732927623</v>
+        <v>1.032361193389017</v>
       </c>
       <c r="J12">
-        <v>0.9911817010801289</v>
+        <v>0.9912036689170484</v>
       </c>
       <c r="K12">
-        <v>1.003747329446417</v>
+        <v>1.003764827146981</v>
       </c>
       <c r="L12">
-        <v>0.9901715348802507</v>
+        <v>0.9901916723907177</v>
       </c>
       <c r="M12">
-        <v>0.9956575191856637</v>
+        <v>0.9956748650597419</v>
+      </c>
+      <c r="N12">
+        <v>0.995643949407973</v>
       </c>
     </row>
     <row r="13" spans="1:14">
@@ -839,34 +872,37 @@
         <v>1.05</v>
       </c>
       <c r="C13">
-        <v>0.959973668934394</v>
+        <v>0.9599965055993772</v>
       </c>
       <c r="D13">
-        <v>0.9886995460896767</v>
+        <v>0.988717222685655</v>
       </c>
       <c r="E13">
-        <v>0.97487989394887</v>
+        <v>0.9749002547190356</v>
       </c>
       <c r="F13">
-        <v>0.9805326127894394</v>
+        <v>0.9805501408629596</v>
       </c>
       <c r="G13">
         <v>1</v>
       </c>
       <c r="I13">
-        <v>1.032493955312118</v>
+        <v>1.032503324149004</v>
       </c>
       <c r="J13">
-        <v>0.9914749951192812</v>
+        <v>0.9914967493477621</v>
       </c>
       <c r="K13">
-        <v>1.004001721461219</v>
+        <v>1.004019050341825</v>
       </c>
       <c r="L13">
-        <v>0.9904590030165683</v>
+        <v>0.9904789481599015</v>
       </c>
       <c r="M13">
-        <v>0.9959972045498395</v>
+        <v>0.9960143802281395</v>
+      </c>
+      <c r="N13">
+        <v>0.9958465166395239</v>
       </c>
     </row>
     <row r="14" spans="1:14">
@@ -877,34 +913,37 @@
         <v>1.05</v>
       </c>
       <c r="C14">
-        <v>0.9613181669793806</v>
+        <v>0.9613402561536271</v>
       </c>
       <c r="D14">
-        <v>0.9896953656352629</v>
+        <v>0.9897124772124919</v>
       </c>
       <c r="E14">
-        <v>0.975989887768892</v>
+        <v>0.9760096038017714</v>
       </c>
       <c r="F14">
-        <v>0.9818147861472826</v>
+        <v>0.9818317445124428</v>
       </c>
       <c r="G14">
         <v>1</v>
       </c>
       <c r="I14">
-        <v>1.032957512656773</v>
+        <v>1.032966583423701</v>
       </c>
       <c r="J14">
-        <v>0.9924317483665602</v>
+        <v>0.9924528073981563</v>
       </c>
       <c r="K14">
-        <v>1.00483149217511</v>
+        <v>1.004848271756168</v>
       </c>
       <c r="L14">
-        <v>0.9913968479296658</v>
+        <v>0.9914161671628019</v>
       </c>
       <c r="M14">
-        <v>0.9971054266426685</v>
+        <v>0.9971220490071087</v>
+      </c>
+      <c r="N14">
+        <v>0.9965072843929407</v>
       </c>
     </row>
     <row r="15" spans="1:14">
@@ -915,34 +954,37 @@
         <v>1.05</v>
       </c>
       <c r="C15">
-        <v>0.9621420793068985</v>
+        <v>0.9621637123392236</v>
       </c>
       <c r="D15">
-        <v>0.9903057693147349</v>
+        <v>0.9903225358939967</v>
       </c>
       <c r="E15">
-        <v>0.9766703568976675</v>
+        <v>0.9766896792757064</v>
       </c>
       <c r="F15">
-        <v>0.9826007452820884</v>
+        <v>0.9826173561571865</v>
       </c>
       <c r="G15">
         <v>1</v>
       </c>
       <c r="I15">
-        <v>1.033241272158452</v>
+        <v>1.033250160888082</v>
       </c>
       <c r="J15">
-        <v>0.9930180208991614</v>
+        <v>0.9930386551398811</v>
       </c>
       <c r="K15">
-        <v>1.005339891014572</v>
+        <v>1.005356335052601</v>
       </c>
       <c r="L15">
-        <v>0.9919716072715402</v>
+        <v>0.9919905441686749</v>
       </c>
       <c r="M15">
-        <v>0.9977846187474642</v>
+        <v>0.9978009034644048</v>
+      </c>
+      <c r="N15">
+        <v>0.9969121648072526</v>
       </c>
     </row>
     <row r="16" spans="1:14">
@@ -953,37 +995,40 @@
         <v>1.05</v>
       </c>
       <c r="C16">
-        <v>0.9668713420488346</v>
+        <v>0.9668903843507736</v>
       </c>
       <c r="D16">
-        <v>0.9938118033422152</v>
+        <v>0.9938266075212226</v>
       </c>
       <c r="E16">
-        <v>0.9805800904360675</v>
+        <v>0.980597173933752</v>
       </c>
       <c r="F16">
-        <v>0.9871156676888064</v>
+        <v>0.9871303073302167</v>
       </c>
       <c r="G16">
         <v>1</v>
       </c>
       <c r="I16">
-        <v>1.034865286018962</v>
+        <v>1.034873138742635</v>
       </c>
       <c r="J16">
-        <v>0.996382712834025</v>
+        <v>0.9964009263382397</v>
       </c>
       <c r="K16">
-        <v>1.008256684502081</v>
+        <v>1.008271217839312</v>
       </c>
       <c r="L16">
-        <v>0.9952713203762771</v>
+        <v>0.995288080209029</v>
       </c>
       <c r="M16">
-        <v>1.001684140978048</v>
-      </c>
-    </row>
-    <row r="17" spans="1:13">
+        <v>1.001698508026025</v>
+      </c>
+      <c r="N16">
+        <v>0.9992355044310764</v>
+      </c>
+    </row>
+    <row r="17" spans="1:14">
       <c r="A17" s="1">
         <v>15</v>
       </c>
@@ -991,37 +1036,40 @@
         <v>1.05</v>
       </c>
       <c r="C17">
-        <v>0.9697817036085046</v>
+        <v>0.9697991741500535</v>
       </c>
       <c r="D17">
-        <v>0.9959712729777949</v>
+        <v>0.995984884203243</v>
       </c>
       <c r="E17">
-        <v>0.9829893558003175</v>
+        <v>0.9830050785259351</v>
       </c>
       <c r="F17">
-        <v>0.9898970888969122</v>
+        <v>0.989910534639715</v>
       </c>
       <c r="G17">
         <v>1</v>
       </c>
       <c r="I17">
-        <v>1.035860427791483</v>
+        <v>1.035867650247473</v>
       </c>
       <c r="J17">
-        <v>0.9984527854727714</v>
+        <v>0.9984695236505111</v>
       </c>
       <c r="K17">
-        <v>1.010050311042264</v>
+        <v>1.010063681106675</v>
       </c>
       <c r="L17">
-        <v>0.9973023652613323</v>
+        <v>0.9973177997504427</v>
       </c>
       <c r="M17">
-        <v>1.004084608351262</v>
-      </c>
-    </row>
-    <row r="18" spans="1:13">
+        <v>1.004097812050189</v>
+      </c>
+      <c r="N17">
+        <v>1.000664605929654</v>
+      </c>
+    </row>
+    <row r="18" spans="1:14">
       <c r="A18" s="1">
         <v>16</v>
       </c>
@@ -1029,37 +1077,40 @@
         <v>1.05</v>
       </c>
       <c r="C18">
-        <v>0.9714598465131645</v>
+        <v>0.9714764182982738</v>
       </c>
       <c r="D18">
-        <v>0.9972170621863211</v>
+        <v>0.9972299904649647</v>
       </c>
       <c r="E18">
-        <v>0.9843796796320257</v>
+        <v>0.9843946234308869</v>
       </c>
       <c r="F18">
-        <v>0.9915019069115701</v>
+        <v>0.9915146706658708</v>
       </c>
       <c r="G18">
         <v>1</v>
       </c>
       <c r="I18">
-        <v>1.036432666858341</v>
+        <v>1.036439528328299</v>
       </c>
       <c r="J18">
-        <v>0.9996461823037935</v>
+        <v>0.9996620745911268</v>
       </c>
       <c r="K18">
-        <v>1.011084006291499</v>
+        <v>1.011096709799787</v>
       </c>
       <c r="L18">
-        <v>0.9984735998314573</v>
+        <v>0.9984882749386981</v>
       </c>
       <c r="M18">
-        <v>1.005468958733333</v>
-      </c>
-    </row>
-    <row r="19" spans="1:13">
+        <v>1.005481497248097</v>
+      </c>
+      <c r="N18">
+        <v>1.001488370572381</v>
+      </c>
+    </row>
+    <row r="19" spans="1:14">
       <c r="A19" s="1">
         <v>17</v>
       </c>
@@ -1067,37 +1118,40 @@
         <v>1.05</v>
       </c>
       <c r="C19">
-        <v>0.9720288302758986</v>
+        <v>0.9720450985589978</v>
       </c>
       <c r="D19">
-        <v>0.9976395536168903</v>
+        <v>0.9976522511407322</v>
       </c>
       <c r="E19">
-        <v>0.9848512620856499</v>
+        <v>0.9848659427159264</v>
       </c>
       <c r="F19">
-        <v>0.9920461991674252</v>
+        <v>0.9920587327368</v>
       </c>
       <c r="G19">
         <v>1</v>
       </c>
       <c r="I19">
-        <v>1.036626418374095</v>
+        <v>1.036633157845457</v>
       </c>
       <c r="J19">
-        <v>1.000050768621031</v>
+        <v>1.000066374884523</v>
       </c>
       <c r="K19">
-        <v>1.011434393262716</v>
+        <v>1.011446871454832</v>
       </c>
       <c r="L19">
-        <v>0.9988707294981817</v>
+        <v>0.9988851479188533</v>
       </c>
       <c r="M19">
-        <v>1.00593836348304</v>
-      </c>
-    </row>
-    <row r="20" spans="1:13">
+        <v>1.005950677378089</v>
+      </c>
+      <c r="N19">
+        <v>1.001767624301188</v>
+      </c>
+    </row>
+    <row r="20" spans="1:14">
       <c r="A20" s="1">
         <v>18</v>
       </c>
@@ -1105,37 +1159,40 @@
         <v>1.05</v>
       </c>
       <c r="C20">
-        <v>0.9694714761984691</v>
+        <v>0.9694891134848972</v>
       </c>
       <c r="D20">
-        <v>0.9957410207731303</v>
+        <v>0.995754758641117</v>
       </c>
       <c r="E20">
-        <v>0.9827324251244403</v>
+        <v>0.9827482922983155</v>
       </c>
       <c r="F20">
-        <v>0.9896004985087751</v>
+        <v>0.9896140708362438</v>
       </c>
       <c r="G20">
         <v>1</v>
       </c>
       <c r="I20">
-        <v>1.035754513831756</v>
+        <v>1.035761803213762</v>
       </c>
       <c r="J20">
-        <v>0.9982321507992612</v>
+        <v>0.9982490457315426</v>
       </c>
       <c r="K20">
-        <v>1.009859174894007</v>
+        <v>1.009872668513304</v>
       </c>
       <c r="L20">
-        <v>0.9970858551514983</v>
+        <v>0.9971014304054233</v>
       </c>
       <c r="M20">
-        <v>1.003828709128229</v>
-      </c>
-    </row>
-    <row r="21" spans="1:13">
+        <v>1.003842036240908</v>
+      </c>
+      <c r="N20">
+        <v>1.000512299462558</v>
+      </c>
+    </row>
+    <row r="21" spans="1:14">
       <c r="A21" s="1">
         <v>19</v>
       </c>
@@ -1143,37 +1200,40 @@
         <v>1.05</v>
       </c>
       <c r="C21">
-        <v>0.9609231837074086</v>
+        <v>0.960945492072141</v>
       </c>
       <c r="D21">
-        <v>0.9894027819445957</v>
+        <v>0.9894200592486777</v>
       </c>
       <c r="E21">
-        <v>0.9756637416011705</v>
+        <v>0.9756836467393666</v>
       </c>
       <c r="F21">
-        <v>0.9814380621498751</v>
+        <v>0.9814551875391008</v>
       </c>
       <c r="G21">
         <v>1</v>
       </c>
       <c r="I21">
-        <v>1.032821394444584</v>
+        <v>1.032830552646825</v>
       </c>
       <c r="J21">
-        <v>0.9921506815690554</v>
+        <v>0.9921719445748771</v>
       </c>
       <c r="K21">
-        <v>1.004587742144877</v>
+        <v>1.004604682872281</v>
       </c>
       <c r="L21">
-        <v>0.9911213205146537</v>
+        <v>0.9911408233681365</v>
       </c>
       <c r="M21">
-        <v>0.9967798409576027</v>
-      </c>
-    </row>
-    <row r="22" spans="1:13">
+        <v>0.9967966255727788</v>
+      </c>
+      <c r="N21">
+        <v>0.9963131738708911</v>
+      </c>
+    </row>
+    <row r="22" spans="1:14">
       <c r="A22" s="1">
         <v>20</v>
       </c>
@@ -1181,37 +1241,40 @@
         <v>1.05</v>
       </c>
       <c r="C22">
-        <v>0.9553551591433203</v>
+        <v>0.9553805939436996</v>
       </c>
       <c r="D22">
-        <v>0.9852813717376937</v>
+        <v>0.9853010089340826</v>
       </c>
       <c r="E22">
-        <v>0.9710709801134644</v>
+        <v>0.9710935783891008</v>
       </c>
       <c r="F22">
-        <v>0.9761319005332025</v>
+        <v>0.9761514113502385</v>
       </c>
       <c r="G22">
         <v>1</v>
       </c>
       <c r="I22">
-        <v>1.030897016825327</v>
+        <v>1.03090741938825</v>
       </c>
       <c r="J22">
-        <v>0.9881880880457267</v>
+        <v>0.9882122497948863</v>
       </c>
       <c r="K22">
-        <v>1.001150157252373</v>
+        <v>1.001169389949845</v>
       </c>
       <c r="L22">
-        <v>0.9872381671169894</v>
+        <v>0.9872602816642465</v>
       </c>
       <c r="M22">
-        <v>0.9921914957640856</v>
-      </c>
-    </row>
-    <row r="23" spans="1:13">
+        <v>0.9922105946512493</v>
+      </c>
+      <c r="N22">
+        <v>0.9935761732410296</v>
+      </c>
+    </row>
+    <row r="23" spans="1:14">
       <c r="A23" s="1">
         <v>21</v>
       </c>
@@ -1219,37 +1282,40 @@
         <v>1.05</v>
       </c>
       <c r="C23">
-        <v>0.9583261606059646</v>
+        <v>0.9583499186065562</v>
       </c>
       <c r="D23">
-        <v>0.9874797545044509</v>
+        <v>0.9874981269457093</v>
       </c>
       <c r="E23">
-        <v>0.973520463404385</v>
+        <v>0.9735416182480736</v>
       </c>
       <c r="F23">
-        <v>0.9789621374371137</v>
+        <v>0.9789803681705251</v>
       </c>
       <c r="G23">
         <v>1</v>
       </c>
       <c r="I23">
-        <v>1.031925092533327</v>
+        <v>1.031934828354349</v>
       </c>
       <c r="J23">
-        <v>0.9903025484604512</v>
+        <v>0.9903251580013918</v>
       </c>
       <c r="K23">
-        <v>1.002984718682474</v>
+        <v>1.00300272365137</v>
       </c>
       <c r="L23">
-        <v>0.9893099278823214</v>
+        <v>0.9893306434202113</v>
       </c>
       <c r="M23">
-        <v>0.9946394241172982</v>
-      </c>
-    </row>
-    <row r="24" spans="1:13">
+        <v>0.9946572817959823</v>
+      </c>
+      <c r="N23">
+        <v>0.9950367299244818</v>
+      </c>
+    </row>
+    <row r="24" spans="1:14">
       <c r="A24" s="1">
         <v>22</v>
       </c>
@@ -1257,37 +1323,40 @@
         <v>1.05</v>
       </c>
       <c r="C24">
-        <v>0.9696117144365402</v>
+        <v>0.9696292763227172</v>
       </c>
       <c r="D24">
-        <v>0.9958451043306449</v>
+        <v>0.9958587849347016</v>
       </c>
       <c r="E24">
-        <v>0.9828485671245021</v>
+        <v>0.9828643689829474</v>
       </c>
       <c r="F24">
-        <v>0.9897345689662652</v>
+        <v>0.9897480840513238</v>
       </c>
       <c r="G24">
         <v>1</v>
       </c>
       <c r="I24">
-        <v>1.035802397097481</v>
+        <v>1.035809656218087</v>
       </c>
       <c r="J24">
-        <v>0.9983318893725639</v>
+        <v>0.99834871342918</v>
       </c>
       <c r="K24">
-        <v>1.009945579598603</v>
+        <v>1.009959017351979</v>
       </c>
       <c r="L24">
-        <v>0.9971837281570159</v>
+        <v>0.9971992397633405</v>
       </c>
       <c r="M24">
-        <v>1.003944387655384</v>
-      </c>
-    </row>
-    <row r="25" spans="1:13">
+        <v>1.003957658961569</v>
+      </c>
+      <c r="N24">
+        <v>1.000581150413218</v>
+      </c>
+    </row>
+    <row r="25" spans="1:14">
       <c r="A25" s="1">
         <v>23</v>
       </c>
@@ -1295,34 +1364,37 @@
         <v>1.05</v>
       </c>
       <c r="C25">
-        <v>0.9819530113508725</v>
+        <v>0.9819640812209635</v>
       </c>
       <c r="D25">
-        <v>1.005016140871184</v>
+        <v>1.005024876093771</v>
       </c>
       <c r="E25">
-        <v>0.9930916371761707</v>
+        <v>0.993101800322934</v>
       </c>
       <c r="F25">
-        <v>1.001553508831836</v>
+        <v>1.001562109137195</v>
       </c>
       <c r="G25">
         <v>1</v>
       </c>
       <c r="I25">
-        <v>1.039982089504222</v>
+        <v>1.039986731783995</v>
       </c>
       <c r="J25">
-        <v>1.007103375761995</v>
+        <v>1.007114053656745</v>
       </c>
       <c r="K25">
-        <v>1.017537083598278</v>
+        <v>1.017545684940837</v>
       </c>
       <c r="L25">
-        <v>1.005798151668373</v>
+        <v>1.005808154224781</v>
       </c>
       <c r="M25">
-        <v>1.014127756350448</v>
+        <v>1.014136223677034</v>
+      </c>
+      <c r="N25">
+        <v>1.006633688943728</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_3_18/res_bus/vm_pu.xlsx
+++ b/Code/Results/Cases/Case_3_18/res_bus/vm_pu.xlsx
@@ -421,37 +421,37 @@
         <v>1.05</v>
       </c>
       <c r="C2">
-        <v>0.9912761562239176</v>
+        <v>1.020706747813021</v>
       </c>
       <c r="D2">
-        <v>1.011957550616292</v>
+        <v>1.037781747746605</v>
       </c>
       <c r="E2">
-        <v>1.000859618528662</v>
+        <v>1.033397072873972</v>
       </c>
       <c r="F2">
-        <v>1.010507740607934</v>
+        <v>1.042910667791641</v>
       </c>
       <c r="G2">
         <v>1</v>
       </c>
       <c r="I2">
-        <v>1.043088727654818</v>
+        <v>1.050254117586894</v>
       </c>
       <c r="J2">
-        <v>1.013720964096627</v>
+        <v>1.042285283229153</v>
       </c>
       <c r="K2">
-        <v>1.023252773908532</v>
+        <v>1.048738668625047</v>
       </c>
       <c r="L2">
-        <v>1.012306990477037</v>
+        <v>1.044409943884254</v>
       </c>
       <c r="M2">
-        <v>1.021822601488617</v>
+        <v>1.053802886213832</v>
       </c>
       <c r="N2">
-        <v>1.011191691505734</v>
+        <v>1.043765447883131</v>
       </c>
     </row>
     <row r="3" spans="1:14">
@@ -462,37 +462,37 @@
         <v>1.05</v>
       </c>
       <c r="C3">
-        <v>0.9977672221013301</v>
+        <v>1.027030504952642</v>
       </c>
       <c r="D3">
-        <v>1.016794994654561</v>
+        <v>1.042716964297642</v>
       </c>
       <c r="E3">
-        <v>1.006282141754787</v>
+        <v>1.03875593357398</v>
       </c>
       <c r="F3">
-        <v>1.016757039394899</v>
+        <v>1.048543142590923</v>
       </c>
       <c r="G3">
         <v>1</v>
       </c>
       <c r="I3">
-        <v>1.045219780084983</v>
+        <v>1.052083184483963</v>
       </c>
       <c r="J3">
-        <v>1.018318940514428</v>
+        <v>1.04681046527315</v>
       </c>
       <c r="K3">
-        <v>1.027217397376616</v>
+        <v>1.052830960502981</v>
       </c>
       <c r="L3">
-        <v>1.016835267526685</v>
+        <v>1.048915823917622</v>
       </c>
       <c r="M3">
-        <v>1.027179908026306</v>
+        <v>1.058590411510935</v>
       </c>
       <c r="N3">
-        <v>1.014361128883879</v>
+        <v>1.048297056204677</v>
       </c>
     </row>
     <row r="4" spans="1:14">
@@ -503,37 +503,37 @@
         <v>1.05</v>
       </c>
       <c r="C4">
-        <v>1.001852390542471</v>
+        <v>1.031019313005697</v>
       </c>
       <c r="D4">
-        <v>1.019841026496759</v>
+        <v>1.045832393299031</v>
       </c>
       <c r="E4">
-        <v>1.009701122322431</v>
+        <v>1.042141986938608</v>
       </c>
       <c r="F4">
-        <v>1.020695860285105</v>
+        <v>1.052102356866255</v>
       </c>
       <c r="G4">
         <v>1</v>
       </c>
       <c r="I4">
-        <v>1.046546060465485</v>
+        <v>1.053225772839256</v>
       </c>
       <c r="J4">
-        <v>1.021208830381718</v>
+        <v>1.049661500606378</v>
       </c>
       <c r="K4">
-        <v>1.029705743163237</v>
+        <v>1.055407425021681</v>
       </c>
       <c r="L4">
-        <v>1.019683856544473</v>
+        <v>1.051757069229441</v>
       </c>
       <c r="M4">
-        <v>1.030550759925789</v>
+        <v>1.061610131881049</v>
       </c>
       <c r="N4">
-        <v>1.016351866840868</v>
+        <v>1.051152140335096</v>
       </c>
     </row>
     <row r="5" spans="1:14">
@@ -544,37 +544,37 @@
         <v>1.05</v>
       </c>
       <c r="C5">
-        <v>1.003543641120979</v>
+        <v>1.032672692809295</v>
       </c>
       <c r="D5">
-        <v>1.021102354860963</v>
+        <v>1.047124262514217</v>
       </c>
       <c r="E5">
-        <v>1.011118006536378</v>
+        <v>1.043546860512528</v>
       </c>
       <c r="F5">
-        <v>1.022327847790434</v>
+        <v>1.053579140284442</v>
       </c>
       <c r="G5">
         <v>1</v>
       </c>
       <c r="I5">
-        <v>1.047091494557892</v>
+        <v>1.053696660338036</v>
       </c>
       <c r="J5">
-        <v>1.022404253404364</v>
+        <v>1.050842424807058</v>
       </c>
       <c r="K5">
-        <v>1.030734206105619</v>
+        <v>1.056474161571916</v>
       </c>
       <c r="L5">
-        <v>1.020862791276928</v>
+        <v>1.052934501079375</v>
       </c>
       <c r="M5">
-        <v>1.031946024463309</v>
+        <v>1.062861732044924</v>
       </c>
       <c r="N5">
-        <v>1.01717502718954</v>
+        <v>1.052334741583595</v>
       </c>
     </row>
     <row r="6" spans="1:14">
@@ -585,37 +585,37 @@
         <v>1.05</v>
       </c>
       <c r="C6">
-        <v>1.00382611388648</v>
+        <v>1.032948955987985</v>
       </c>
       <c r="D6">
-        <v>1.021313035544985</v>
+        <v>1.047340148530316</v>
       </c>
       <c r="E6">
-        <v>1.011354736760288</v>
+        <v>1.043781677541082</v>
       </c>
       <c r="F6">
-        <v>1.022600498393919</v>
+        <v>1.053825980484048</v>
       </c>
       <c r="G6">
         <v>1</v>
       </c>
       <c r="I6">
-        <v>1.047182376843214</v>
+        <v>1.053775179467043</v>
       </c>
       <c r="J6">
-        <v>1.022603853438165</v>
+        <v>1.051039694302354</v>
       </c>
       <c r="K6">
-        <v>1.030905877562803</v>
+        <v>1.056652328953341</v>
       </c>
       <c r="L6">
-        <v>1.021059673177637</v>
+        <v>1.053131220115731</v>
       </c>
       <c r="M6">
-        <v>1.03217904425892</v>
+        <v>1.063070854787907</v>
       </c>
       <c r="N6">
-        <v>1.017312451172671</v>
+        <v>1.052532291224201</v>
       </c>
     </row>
     <row r="7" spans="1:14">
@@ -626,37 +626,37 @@
         <v>1.05</v>
       </c>
       <c r="C7">
-        <v>1.001875090142345</v>
+        <v>1.031041496464591</v>
       </c>
       <c r="D7">
-        <v>1.019857954801453</v>
+        <v>1.045849724448754</v>
       </c>
       <c r="E7">
-        <v>1.009720133863063</v>
+        <v>1.042160830976641</v>
       </c>
       <c r="F7">
-        <v>1.020717759317132</v>
+        <v>1.05212216519728</v>
       </c>
       <c r="G7">
         <v>1</v>
       </c>
       <c r="I7">
-        <v>1.046553395663483</v>
+        <v>1.053232101580035</v>
       </c>
       <c r="J7">
-        <v>1.021224879063737</v>
+        <v>1.049677348514192</v>
       </c>
       <c r="K7">
-        <v>1.029719553818992</v>
+        <v>1.055421742375232</v>
       </c>
       <c r="L7">
-        <v>1.019699681516735</v>
+        <v>1.051772868051841</v>
       </c>
       <c r="M7">
-        <v>1.030569487989085</v>
+        <v>1.06162692508301</v>
       </c>
       <c r="N7">
-        <v>1.016362919146572</v>
+        <v>1.051168010748757</v>
       </c>
     </row>
     <row r="8" spans="1:14">
@@ -667,37 +667,37 @@
         <v>1.05</v>
       </c>
       <c r="C8">
-        <v>0.993494510895691</v>
+        <v>1.022865962187081</v>
       </c>
       <c r="D8">
-        <v>1.013610376739869</v>
+        <v>1.039466281696497</v>
       </c>
       <c r="E8">
-        <v>1.002711415626641</v>
+        <v>1.035225549453981</v>
       </c>
       <c r="F8">
-        <v>1.012642201839908</v>
+        <v>1.044832445035188</v>
       </c>
       <c r="G8">
         <v>1</v>
       </c>
       <c r="I8">
-        <v>1.043820123842939</v>
+        <v>1.050880951213444</v>
       </c>
       <c r="J8">
-        <v>1.015293121429133</v>
+        <v>1.043831042861188</v>
       </c>
       <c r="K8">
-        <v>1.024609089638264</v>
+        <v>1.050136931891475</v>
       </c>
       <c r="L8">
-        <v>1.013854783903499</v>
+        <v>1.045948606924396</v>
       </c>
       <c r="M8">
-        <v>1.023653606780776</v>
+        <v>1.055437537432884</v>
       </c>
       <c r="N8">
-        <v>1.0122756636843</v>
+        <v>1.045313402671145</v>
       </c>
     </row>
     <row r="9" spans="1:14">
@@ -708,37 +708,37 @@
         <v>1.05</v>
       </c>
       <c r="C9">
-        <v>0.9777786344174689</v>
+        <v>1.00761333139578</v>
       </c>
       <c r="D9">
-        <v>1.001912239423626</v>
+        <v>1.027581010154445</v>
       </c>
       <c r="E9">
-        <v>0.989623100665303</v>
+        <v>1.022337528237048</v>
       </c>
       <c r="F9">
-        <v>0.9975488544823823</v>
+        <v>1.031287999232191</v>
       </c>
       <c r="G9">
         <v>1</v>
       </c>
       <c r="I9">
-        <v>1.038577343165565</v>
+        <v>1.046407584463806</v>
       </c>
       <c r="J9">
-        <v>1.004141249526822</v>
+        <v>1.032900078404384</v>
       </c>
       <c r="K9">
-        <v>1.014974367877733</v>
+        <v>1.040241910504641</v>
       </c>
       <c r="L9">
-        <v>1.002886809758336</v>
+        <v>1.035078299934698</v>
       </c>
       <c r="M9">
-        <v>1.010681825389947</v>
+        <v>1.043893056594935</v>
       </c>
       <c r="N9">
-        <v>1.004581564011283</v>
+        <v>1.034366914991013</v>
       </c>
     </row>
     <row r="10" spans="1:14">
@@ -749,37 +749,37 @@
         <v>1.05</v>
       </c>
       <c r="C10">
-        <v>0.9665589793143278</v>
+        <v>0.9967887007375724</v>
       </c>
       <c r="D10">
-        <v>0.993580798687772</v>
+        <v>1.019168791879994</v>
       </c>
       <c r="E10">
-        <v>0.9803229921016577</v>
+        <v>1.013231005700212</v>
       </c>
       <c r="F10">
-        <v>0.9868136926658843</v>
+        <v>1.021719237687592</v>
       </c>
       <c r="G10">
         <v>1</v>
       </c>
       <c r="I10">
-        <v>1.03475961953771</v>
+        <v>1.043177510922404</v>
       </c>
       <c r="J10">
-        <v>0.9961652175516816</v>
+        <v>1.025130310522434</v>
       </c>
       <c r="K10">
-        <v>1.008066929174083</v>
+        <v>1.033200363245929</v>
       </c>
       <c r="L10">
-        <v>0.9950568478643033</v>
+        <v>1.02736540999677</v>
       </c>
       <c r="M10">
-        <v>1.001425182598013</v>
+        <v>1.035707113456698</v>
       </c>
       <c r="N10">
-        <v>0.9990726483544917</v>
+        <v>1.026586113147466</v>
       </c>
     </row>
     <row r="11" spans="1:14">
@@ -790,37 +790,37 @@
         <v>1.05</v>
       </c>
       <c r="C11">
-        <v>0.9614977024364493</v>
+        <v>0.9919237837071481</v>
       </c>
       <c r="D11">
-        <v>0.9898291120393347</v>
+        <v>1.0153950349204</v>
       </c>
       <c r="E11">
-        <v>0.9761396200810064</v>
+        <v>1.009149116686334</v>
       </c>
       <c r="F11">
-        <v>0.9819819407973228</v>
+        <v>1.017430549635938</v>
       </c>
       <c r="G11">
         <v>1</v>
       </c>
       <c r="I11">
-        <v>1.033020822325453</v>
+        <v>1.041713577595644</v>
       </c>
       <c r="J11">
-        <v>0.992564824298596</v>
+        <v>1.021636445559222</v>
       </c>
       <c r="K11">
-        <v>1.004945419601934</v>
+        <v>1.030032348334399</v>
       </c>
       <c r="L11">
-        <v>0.9915259864774832</v>
+        <v>1.023900532276701</v>
       </c>
       <c r="M11">
-        <v>0.9972518431261913</v>
+        <v>1.032031071124566</v>
       </c>
       <c r="N11">
-        <v>0.9965847007274177</v>
+        <v>1.023087286495255</v>
       </c>
     </row>
     <row r="12" spans="1:14">
@@ -831,37 +831,37 @@
         <v>1.05</v>
       </c>
       <c r="C12">
-        <v>0.9595845927383376</v>
+        <v>0.9900879129176542</v>
       </c>
       <c r="D12">
-        <v>0.9884122042680548</v>
+        <v>1.013972125663299</v>
       </c>
       <c r="E12">
-        <v>0.9745603013095634</v>
+        <v>1.007610496341245</v>
       </c>
       <c r="F12">
-        <v>0.9801573756023693</v>
+        <v>1.015814039916094</v>
       </c>
       <c r="G12">
         <v>1</v>
       </c>
       <c r="I12">
-        <v>1.032361193389017</v>
+        <v>1.041159378687198</v>
       </c>
       <c r="J12">
-        <v>0.9912036689170484</v>
+        <v>1.020317775978081</v>
       </c>
       <c r="K12">
-        <v>1.003764827146981</v>
+        <v>1.028836449620094</v>
       </c>
       <c r="L12">
-        <v>0.9901916723907177</v>
+        <v>1.022593329417963</v>
       </c>
       <c r="M12">
-        <v>0.9956748650597419</v>
+        <v>1.030644412341986</v>
       </c>
       <c r="N12">
-        <v>0.995643949407973</v>
+        <v>1.021766744252055</v>
       </c>
     </row>
     <row r="13" spans="1:14">
@@ -872,37 +872,37 @@
         <v>1.05</v>
       </c>
       <c r="C13">
-        <v>0.9599965055993772</v>
+        <v>0.9904830541692849</v>
       </c>
       <c r="D13">
-        <v>0.988717222685655</v>
+        <v>1.014278327403069</v>
       </c>
       <c r="E13">
-        <v>0.9749002547190356</v>
+        <v>1.007941577650987</v>
       </c>
       <c r="F13">
-        <v>0.9805501408629596</v>
+        <v>1.016161878717759</v>
       </c>
       <c r="G13">
         <v>1</v>
       </c>
       <c r="I13">
-        <v>1.032503324149004</v>
+        <v>1.041278738807945</v>
       </c>
       <c r="J13">
-        <v>0.9914967493477621</v>
+        <v>1.020601605190836</v>
       </c>
       <c r="K13">
-        <v>1.004019050341825</v>
+        <v>1.029093862862794</v>
       </c>
       <c r="L13">
-        <v>0.9904789481599015</v>
+        <v>1.022874666546434</v>
       </c>
       <c r="M13">
-        <v>0.9960143802281395</v>
+        <v>1.030942840374043</v>
       </c>
       <c r="N13">
-        <v>0.9958465166395239</v>
+        <v>1.022050976534847</v>
       </c>
     </row>
     <row r="14" spans="1:14">
@@ -913,37 +913,37 @@
         <v>1.05</v>
       </c>
       <c r="C14">
-        <v>0.9613402561536271</v>
+        <v>0.9917726310725199</v>
       </c>
       <c r="D14">
-        <v>0.9897124772124919</v>
+        <v>1.015277857553898</v>
       </c>
       <c r="E14">
-        <v>0.9760096038017714</v>
+        <v>1.009022401059003</v>
       </c>
       <c r="F14">
-        <v>0.9818317445124428</v>
+        <v>1.017297418047249</v>
       </c>
       <c r="G14">
         <v>1</v>
       </c>
       <c r="I14">
-        <v>1.032966583423701</v>
+        <v>1.041667983895358</v>
       </c>
       <c r="J14">
-        <v>0.9924528073981563</v>
+        <v>1.02152787895111</v>
       </c>
       <c r="K14">
-        <v>1.004848271756168</v>
+        <v>1.029933893646133</v>
       </c>
       <c r="L14">
-        <v>0.9914161671628019</v>
+        <v>1.023792898962883</v>
       </c>
       <c r="M14">
-        <v>0.9971220490071087</v>
+        <v>1.031916891189578</v>
       </c>
       <c r="N14">
-        <v>0.9965072843929407</v>
+        <v>1.022978565710106</v>
       </c>
     </row>
     <row r="15" spans="1:14">
@@ -954,37 +954,37 @@
         <v>1.05</v>
       </c>
       <c r="C15">
-        <v>0.9621637123392236</v>
+        <v>0.992563295492503</v>
       </c>
       <c r="D15">
-        <v>0.9903225358939967</v>
+        <v>1.015890850095223</v>
       </c>
       <c r="E15">
-        <v>0.9766896792757064</v>
+        <v>1.009685310314217</v>
       </c>
       <c r="F15">
-        <v>0.9826173561571865</v>
+        <v>1.017993894724378</v>
       </c>
       <c r="G15">
         <v>1</v>
       </c>
       <c r="I15">
-        <v>1.033250160888082</v>
+        <v>1.041906409103101</v>
       </c>
       <c r="J15">
-        <v>0.9930386551398811</v>
+        <v>1.022095772860857</v>
       </c>
       <c r="K15">
-        <v>1.005356335052601</v>
+        <v>1.03044888529992</v>
       </c>
       <c r="L15">
-        <v>0.9919905441686749</v>
+        <v>1.024355932463015</v>
       </c>
       <c r="M15">
-        <v>0.9978009034644048</v>
+        <v>1.03251417891166</v>
       </c>
       <c r="N15">
-        <v>0.9969121648072526</v>
+        <v>1.023547266094343</v>
       </c>
     </row>
     <row r="16" spans="1:14">
@@ -995,37 +995,37 @@
         <v>1.05</v>
       </c>
       <c r="C16">
-        <v>0.9668903843507736</v>
+        <v>0.9971076481000025</v>
       </c>
       <c r="D16">
-        <v>0.9938266075212226</v>
+        <v>1.01941635834593</v>
       </c>
       <c r="E16">
-        <v>0.980597173933752</v>
+        <v>1.013498853098388</v>
       </c>
       <c r="F16">
-        <v>0.9871303073302167</v>
+        <v>1.022000663266712</v>
       </c>
       <c r="G16">
         <v>1</v>
       </c>
       <c r="I16">
-        <v>1.034873138742635</v>
+        <v>1.043273240274613</v>
       </c>
       <c r="J16">
-        <v>0.9964009263382397</v>
+        <v>1.02535933905126</v>
       </c>
       <c r="K16">
-        <v>1.008271217839312</v>
+        <v>1.033408000740615</v>
       </c>
       <c r="L16">
-        <v>0.995288080209029</v>
+        <v>1.027592610269595</v>
       </c>
       <c r="M16">
-        <v>1.001698508026025</v>
+        <v>1.035948188929081</v>
       </c>
       <c r="N16">
-        <v>0.9992355044310764</v>
+        <v>1.026815466923073</v>
       </c>
     </row>
     <row r="17" spans="1:14">
@@ -1036,37 +1036,37 @@
         <v>1.05</v>
       </c>
       <c r="C17">
-        <v>0.9697991741500535</v>
+        <v>0.9999091782225614</v>
       </c>
       <c r="D17">
-        <v>0.995984884203243</v>
+        <v>1.021591705369129</v>
       </c>
       <c r="E17">
-        <v>0.9830050785259351</v>
+        <v>1.015852781858666</v>
       </c>
       <c r="F17">
-        <v>0.989910534639715</v>
+        <v>1.024473966316626</v>
       </c>
       <c r="G17">
         <v>1</v>
       </c>
       <c r="I17">
-        <v>1.035867650247473</v>
+        <v>1.0441127189685</v>
       </c>
       <c r="J17">
-        <v>0.9984695236505111</v>
+        <v>1.02737084702491</v>
       </c>
       <c r="K17">
-        <v>1.010063681106675</v>
+        <v>1.035231456681345</v>
       </c>
       <c r="L17">
-        <v>0.9973177997504427</v>
+        <v>1.029588448783207</v>
       </c>
       <c r="M17">
-        <v>1.004097812050189</v>
+        <v>1.038066067420114</v>
       </c>
       <c r="N17">
-        <v>1.000664605929654</v>
+        <v>1.028829831468768</v>
       </c>
     </row>
     <row r="18" spans="1:14">
@@ -1077,37 +1077,37 @@
         <v>1.05</v>
       </c>
       <c r="C18">
-        <v>0.9714764182982738</v>
+        <v>1.001526264070555</v>
       </c>
       <c r="D18">
-        <v>0.9972299904649647</v>
+        <v>1.022847994224559</v>
       </c>
       <c r="E18">
-        <v>0.9843946234308869</v>
+        <v>1.017212520951101</v>
       </c>
       <c r="F18">
-        <v>0.9915146706658708</v>
+        <v>1.025902698665469</v>
       </c>
       <c r="G18">
         <v>1</v>
       </c>
       <c r="I18">
-        <v>1.036439528328299</v>
+        <v>1.044596118172508</v>
       </c>
       <c r="J18">
-        <v>0.9996620745911268</v>
+        <v>1.028531734731902</v>
       </c>
       <c r="K18">
-        <v>1.011096709799787</v>
+        <v>1.036283661140243</v>
       </c>
       <c r="L18">
-        <v>0.9984882749386981</v>
+        <v>1.030740614025077</v>
       </c>
       <c r="M18">
-        <v>1.005481497248097</v>
+        <v>1.039288810814042</v>
       </c>
       <c r="N18">
-        <v>1.001488370572381</v>
+        <v>1.02999236776946</v>
       </c>
     </row>
     <row r="19" spans="1:14">
@@ -1118,37 +1118,37 @@
         <v>1.05</v>
       </c>
       <c r="C19">
-        <v>0.9720450985589978</v>
+        <v>1.002074825869319</v>
       </c>
       <c r="D19">
-        <v>0.9976522511407322</v>
+        <v>1.023274268674998</v>
       </c>
       <c r="E19">
-        <v>0.9848659427159264</v>
+        <v>1.017673952007014</v>
       </c>
       <c r="F19">
-        <v>0.9920587327368</v>
+        <v>1.026387549006305</v>
       </c>
       <c r="G19">
         <v>1</v>
       </c>
       <c r="I19">
-        <v>1.036633157845457</v>
+        <v>1.044759901752229</v>
       </c>
       <c r="J19">
-        <v>1.000066374884523</v>
+        <v>1.02892550699744</v>
       </c>
       <c r="K19">
-        <v>1.011446871454832</v>
+        <v>1.036640541156996</v>
       </c>
       <c r="L19">
-        <v>0.9988851479188533</v>
+        <v>1.031131481657076</v>
       </c>
       <c r="M19">
-        <v>1.005950677378089</v>
+        <v>1.03970364302576</v>
       </c>
       <c r="N19">
-        <v>1.001767624301188</v>
+        <v>1.030386699236782</v>
       </c>
     </row>
     <row r="20" spans="1:14">
@@ -1159,37 +1159,37 @@
         <v>1.05</v>
       </c>
       <c r="C20">
-        <v>0.9694891134848972</v>
+        <v>0.999610373450709</v>
       </c>
       <c r="D20">
-        <v>0.995754758641117</v>
+        <v>1.021359619816817</v>
       </c>
       <c r="E20">
-        <v>0.9827482922983155</v>
+        <v>1.015601610878135</v>
       </c>
       <c r="F20">
-        <v>0.9896140708362438</v>
+        <v>1.024210053891514</v>
       </c>
       <c r="G20">
         <v>1</v>
       </c>
       <c r="I20">
-        <v>1.035761803213762</v>
+        <v>1.044023302063809</v>
       </c>
       <c r="J20">
-        <v>0.9982490457315426</v>
+        <v>1.027156322814416</v>
       </c>
       <c r="K20">
-        <v>1.009872668513304</v>
+        <v>1.035037003730291</v>
       </c>
       <c r="L20">
-        <v>0.9971014304054233</v>
+        <v>1.029375562291249</v>
       </c>
       <c r="M20">
-        <v>1.003842036240908</v>
+        <v>1.03784015032231</v>
       </c>
       <c r="N20">
-        <v>1.000512299462558</v>
+        <v>1.028615002609289</v>
       </c>
     </row>
     <row r="21" spans="1:14">
@@ -1200,37 +1200,37 @@
         <v>1.05</v>
       </c>
       <c r="C21">
-        <v>0.960945492072141</v>
+        <v>0.991393696597146</v>
       </c>
       <c r="D21">
-        <v>0.9894200592486777</v>
+        <v>1.014984117601197</v>
       </c>
       <c r="E21">
-        <v>0.9756836467393666</v>
+        <v>1.008704758095561</v>
       </c>
       <c r="F21">
-        <v>0.9814551875391008</v>
+        <v>1.016963692935984</v>
       </c>
       <c r="G21">
         <v>1</v>
       </c>
       <c r="I21">
-        <v>1.032830552646825</v>
+        <v>1.04155365410182</v>
       </c>
       <c r="J21">
-        <v>0.9921719445748771</v>
+        <v>1.021255703427423</v>
       </c>
       <c r="K21">
-        <v>1.004604682872281</v>
+        <v>1.029687065294194</v>
       </c>
       <c r="L21">
-        <v>0.9911408233681365</v>
+        <v>1.023523071717099</v>
       </c>
       <c r="M21">
-        <v>0.9967966255727788</v>
+        <v>1.031630655561042</v>
       </c>
       <c r="N21">
-        <v>0.9963131738708911</v>
+        <v>1.022706003665957</v>
       </c>
     </row>
     <row r="22" spans="1:14">
@@ -1241,37 +1241,37 @@
         <v>1.05</v>
       </c>
       <c r="C22">
-        <v>0.9553805939436996</v>
+        <v>0.9860595633156205</v>
       </c>
       <c r="D22">
-        <v>0.9853010089340826</v>
+        <v>1.010852282991686</v>
       </c>
       <c r="E22">
-        <v>0.9710935783891008</v>
+        <v>1.004237780726528</v>
       </c>
       <c r="F22">
-        <v>0.9761514113502385</v>
+        <v>1.012270702682516</v>
       </c>
       <c r="G22">
         <v>1</v>
       </c>
       <c r="I22">
-        <v>1.03090741938825</v>
+        <v>1.039940195324246</v>
       </c>
       <c r="J22">
-        <v>0.9882122497948863</v>
+        <v>1.017424048755055</v>
       </c>
       <c r="K22">
-        <v>1.001169389949845</v>
+        <v>1.026211776626757</v>
       </c>
       <c r="L22">
-        <v>0.9872602816642465</v>
+        <v>1.019725751231969</v>
       </c>
       <c r="M22">
-        <v>0.9922105946512493</v>
+        <v>1.027602931834717</v>
       </c>
       <c r="N22">
-        <v>0.9935761732410296</v>
+        <v>1.018868907604457</v>
       </c>
     </row>
     <row r="23" spans="1:14">
@@ -1282,37 +1282,37 @@
         <v>1.05</v>
       </c>
       <c r="C23">
-        <v>0.9583499186065562</v>
+        <v>0.9889039770392439</v>
       </c>
       <c r="D23">
-        <v>0.9874981269457093</v>
+        <v>1.013054860027114</v>
       </c>
       <c r="E23">
-        <v>0.9735416182480736</v>
+        <v>1.006618767487058</v>
       </c>
       <c r="F23">
-        <v>0.9789803681705251</v>
+        <v>1.014772124391593</v>
       </c>
       <c r="G23">
         <v>1</v>
       </c>
       <c r="I23">
-        <v>1.031934828354349</v>
+        <v>1.040801497307426</v>
       </c>
       <c r="J23">
-        <v>0.9903251580013918</v>
+        <v>1.019467336554851</v>
       </c>
       <c r="K23">
-        <v>1.00300272365137</v>
+        <v>1.028065131731505</v>
       </c>
       <c r="L23">
-        <v>0.9893306434202113</v>
+        <v>1.021750435319033</v>
       </c>
       <c r="M23">
-        <v>0.9946572817959823</v>
+        <v>1.029750344979398</v>
       </c>
       <c r="N23">
-        <v>0.9950367299244818</v>
+        <v>1.020915097107297</v>
       </c>
     </row>
     <row r="24" spans="1:14">
@@ -1323,37 +1323,37 @@
         <v>1.05</v>
       </c>
       <c r="C24">
-        <v>0.9696292763227172</v>
+        <v>0.9997454428415444</v>
       </c>
       <c r="D24">
-        <v>0.9958587849347016</v>
+        <v>1.021464527976879</v>
       </c>
       <c r="E24">
-        <v>0.9828643689829474</v>
+        <v>1.015715145116821</v>
       </c>
       <c r="F24">
-        <v>0.9897480840513238</v>
+        <v>1.024329347399565</v>
       </c>
       <c r="G24">
         <v>1</v>
       </c>
       <c r="I24">
-        <v>1.035809656218087</v>
+        <v>1.044063724996545</v>
       </c>
       <c r="J24">
-        <v>0.99834871342918</v>
+        <v>1.027253295256316</v>
       </c>
       <c r="K24">
-        <v>1.009959017351979</v>
+        <v>1.035124903741783</v>
       </c>
       <c r="L24">
-        <v>0.9971992397633405</v>
+        <v>1.029471793432525</v>
       </c>
       <c r="M24">
-        <v>1.003957658961569</v>
+        <v>1.037942271300195</v>
       </c>
       <c r="N24">
-        <v>1.000581150413218</v>
+        <v>1.02871211276318</v>
       </c>
     </row>
     <row r="25" spans="1:14">
@@ -1364,37 +1364,37 @@
         <v>1.05</v>
       </c>
       <c r="C25">
-        <v>0.9819640812209635</v>
+        <v>1.011665277800842</v>
       </c>
       <c r="D25">
-        <v>1.005024876093771</v>
+        <v>1.030735006481601</v>
       </c>
       <c r="E25">
-        <v>0.993101800322934</v>
+        <v>1.025754880646345</v>
       </c>
       <c r="F25">
-        <v>1.001562109137195</v>
+        <v>1.034879141202339</v>
       </c>
       <c r="G25">
         <v>1</v>
       </c>
       <c r="I25">
-        <v>1.039986731783995</v>
+        <v>1.047605710456365</v>
       </c>
       <c r="J25">
-        <v>1.007114053656745</v>
+        <v>1.035806336830195</v>
       </c>
       <c r="K25">
-        <v>1.017545684940837</v>
+        <v>1.042874226676644</v>
       </c>
       <c r="L25">
-        <v>1.005808154224781</v>
+        <v>1.037966120959306</v>
       </c>
       <c r="M25">
-        <v>1.014136223677034</v>
+        <v>1.046959099448684</v>
       </c>
       <c r="N25">
-        <v>1.006633688943728</v>
+        <v>1.037277300637141</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_3_18/res_bus/vm_pu.xlsx
+++ b/Code/Results/Cases/Case_3_18/res_bus/vm_pu.xlsx
@@ -421,37 +421,37 @@
         <v>1.05</v>
       </c>
       <c r="C2">
-        <v>1.020706747813021</v>
+        <v>1.010446904927626</v>
       </c>
       <c r="D2">
-        <v>1.037781747746605</v>
+        <v>1.032504824173628</v>
       </c>
       <c r="E2">
-        <v>1.033397072873972</v>
+        <v>1.015481639219463</v>
       </c>
       <c r="F2">
-        <v>1.042910667791641</v>
+        <v>1.038611848196537</v>
       </c>
       <c r="G2">
         <v>1</v>
       </c>
       <c r="I2">
-        <v>1.050254117586894</v>
+        <v>1.052603100217818</v>
       </c>
       <c r="J2">
-        <v>1.042285283229153</v>
+        <v>1.032319578284371</v>
       </c>
       <c r="K2">
-        <v>1.048738668625047</v>
+        <v>1.043529153374919</v>
       </c>
       <c r="L2">
-        <v>1.044409943884254</v>
+        <v>1.026729422714705</v>
       </c>
       <c r="M2">
-        <v>1.053802886213832</v>
+        <v>1.049558243070284</v>
       </c>
       <c r="N2">
-        <v>1.043765447883131</v>
+        <v>1.014640576311882</v>
       </c>
     </row>
     <row r="3" spans="1:14">
@@ -462,37 +462,37 @@
         <v>1.05</v>
       </c>
       <c r="C3">
-        <v>1.027030504952642</v>
+        <v>1.014204258747532</v>
       </c>
       <c r="D3">
-        <v>1.042716964297642</v>
+        <v>1.03547696062029</v>
       </c>
       <c r="E3">
-        <v>1.03875593357398</v>
+        <v>1.018435483843817</v>
       </c>
       <c r="F3">
-        <v>1.048543142590923</v>
+        <v>1.042242677284159</v>
       </c>
       <c r="G3">
         <v>1</v>
       </c>
       <c r="I3">
-        <v>1.052083184483963</v>
+        <v>1.053897937271941</v>
       </c>
       <c r="J3">
-        <v>1.04681046527315</v>
+        <v>1.034315051166115</v>
       </c>
       <c r="K3">
-        <v>1.052830960502981</v>
+        <v>1.04567517118766</v>
       </c>
       <c r="L3">
-        <v>1.048915823917622</v>
+        <v>1.028837790456257</v>
       </c>
       <c r="M3">
-        <v>1.058590411510935</v>
+        <v>1.052362146063969</v>
       </c>
       <c r="N3">
-        <v>1.048297056204677</v>
+        <v>1.015308614381038</v>
       </c>
     </row>
     <row r="4" spans="1:14">
@@ -503,37 +503,37 @@
         <v>1.05</v>
       </c>
       <c r="C4">
-        <v>1.031019313005697</v>
+        <v>1.016591736383034</v>
       </c>
       <c r="D4">
-        <v>1.045832393299031</v>
+        <v>1.037367680671429</v>
       </c>
       <c r="E4">
-        <v>1.042141986938608</v>
+        <v>1.020318020843061</v>
       </c>
       <c r="F4">
-        <v>1.052102356866255</v>
+        <v>1.044553753484676</v>
       </c>
       <c r="G4">
         <v>1</v>
       </c>
       <c r="I4">
-        <v>1.053225772839256</v>
+        <v>1.054711220881157</v>
       </c>
       <c r="J4">
-        <v>1.049661500606378</v>
+        <v>1.035580339851288</v>
       </c>
       <c r="K4">
-        <v>1.055407425021681</v>
+        <v>1.047035096152865</v>
       </c>
       <c r="L4">
-        <v>1.051757069229441</v>
+        <v>1.030177257138198</v>
       </c>
       <c r="M4">
-        <v>1.061610131881049</v>
+        <v>1.054142622495726</v>
       </c>
       <c r="N4">
-        <v>1.051152140335096</v>
+        <v>1.015732139162401</v>
       </c>
     </row>
     <row r="5" spans="1:14">
@@ -544,37 +544,37 @@
         <v>1.05</v>
       </c>
       <c r="C5">
-        <v>1.032672692809295</v>
+        <v>1.017585260589473</v>
       </c>
       <c r="D5">
-        <v>1.047124262514217</v>
+        <v>1.038154972428469</v>
       </c>
       <c r="E5">
-        <v>1.043546860512528</v>
+        <v>1.021102736065662</v>
       </c>
       <c r="F5">
-        <v>1.053579140284442</v>
+        <v>1.045516416120734</v>
       </c>
       <c r="G5">
         <v>1</v>
       </c>
       <c r="I5">
-        <v>1.053696660338036</v>
+        <v>1.055047354164046</v>
       </c>
       <c r="J5">
-        <v>1.050842424807058</v>
+        <v>1.036106212801017</v>
       </c>
       <c r="K5">
-        <v>1.056474161571916</v>
+        <v>1.047600099304411</v>
       </c>
       <c r="L5">
-        <v>1.052934501079375</v>
+        <v>1.030734583050393</v>
       </c>
       <c r="M5">
-        <v>1.062861732044924</v>
+        <v>1.054883238844636</v>
       </c>
       <c r="N5">
-        <v>1.052334741583595</v>
+        <v>1.015908144994546</v>
       </c>
     </row>
     <row r="6" spans="1:14">
@@ -585,37 +585,37 @@
         <v>1.05</v>
       </c>
       <c r="C6">
-        <v>1.032948955987985</v>
+        <v>1.017751489995065</v>
       </c>
       <c r="D6">
-        <v>1.047340148530316</v>
+        <v>1.03828672417003</v>
       </c>
       <c r="E6">
-        <v>1.043781677541082</v>
+        <v>1.021234105532542</v>
       </c>
       <c r="F6">
-        <v>1.053825980484048</v>
+        <v>1.045677536027597</v>
       </c>
       <c r="G6">
         <v>1</v>
       </c>
       <c r="I6">
-        <v>1.053775179467043</v>
+        <v>1.055103457085995</v>
       </c>
       <c r="J6">
-        <v>1.051039694302354</v>
+        <v>1.036194158391861</v>
       </c>
       <c r="K6">
-        <v>1.056652328953341</v>
+        <v>1.047694576902484</v>
       </c>
       <c r="L6">
-        <v>1.053131220115731</v>
+        <v>1.030827825441903</v>
       </c>
       <c r="M6">
-        <v>1.063070854787907</v>
+        <v>1.055007134360456</v>
       </c>
       <c r="N6">
-        <v>1.052532291224201</v>
+        <v>1.015937578660769</v>
       </c>
     </row>
     <row r="7" spans="1:14">
@@ -626,37 +626,37 @@
         <v>1.05</v>
       </c>
       <c r="C7">
-        <v>1.031041496464591</v>
+        <v>1.016605051466677</v>
       </c>
       <c r="D7">
-        <v>1.045849724448754</v>
+        <v>1.037378229972891</v>
       </c>
       <c r="E7">
-        <v>1.042160830976641</v>
+        <v>1.020328532337414</v>
       </c>
       <c r="F7">
-        <v>1.05212216519728</v>
+        <v>1.044566651319287</v>
       </c>
       <c r="G7">
         <v>1</v>
       </c>
       <c r="I7">
-        <v>1.053232101580035</v>
+        <v>1.054715734845287</v>
       </c>
       <c r="J7">
-        <v>1.049677348514192</v>
+        <v>1.035587390186414</v>
       </c>
       <c r="K7">
-        <v>1.055421742375232</v>
+        <v>1.047042671908156</v>
       </c>
       <c r="L7">
-        <v>1.051772868051841</v>
+        <v>1.030184726695903</v>
       </c>
       <c r="M7">
-        <v>1.06162692508301</v>
+        <v>1.054152549407487</v>
       </c>
       <c r="N7">
-        <v>1.051168010748757</v>
+        <v>1.015734498929385</v>
       </c>
     </row>
     <row r="8" spans="1:14">
@@ -667,37 +667,37 @@
         <v>1.05</v>
       </c>
       <c r="C8">
-        <v>1.022865962187081</v>
+        <v>1.011725976303248</v>
       </c>
       <c r="D8">
-        <v>1.039466281696497</v>
+        <v>1.033516114932448</v>
       </c>
       <c r="E8">
-        <v>1.035225549453981</v>
+        <v>1.016485985040537</v>
       </c>
       <c r="F8">
-        <v>1.044832445035188</v>
+        <v>1.039846995747913</v>
       </c>
       <c r="G8">
         <v>1</v>
       </c>
       <c r="I8">
-        <v>1.050880951213444</v>
+        <v>1.053045849549861</v>
       </c>
       <c r="J8">
-        <v>1.043831042861188</v>
+        <v>1.032999415937251</v>
       </c>
       <c r="K8">
-        <v>1.050136931891475</v>
+        <v>1.04426044926244</v>
       </c>
       <c r="L8">
-        <v>1.045948606924396</v>
+        <v>1.027447179371834</v>
       </c>
       <c r="M8">
-        <v>1.055437537432884</v>
+        <v>1.050512967064688</v>
       </c>
       <c r="N8">
-        <v>1.045313402671145</v>
+        <v>1.014868182553234</v>
       </c>
     </row>
     <row r="9" spans="1:14">
@@ -708,37 +708,37 @@
         <v>1.05</v>
       </c>
       <c r="C9">
-        <v>1.00761333139578</v>
+        <v>1.002778518495714</v>
       </c>
       <c r="D9">
-        <v>1.027581010154445</v>
+        <v>1.026452559688812</v>
       </c>
       <c r="E9">
-        <v>1.022337528237048</v>
+        <v>1.009485409029331</v>
       </c>
       <c r="F9">
-        <v>1.031287999232191</v>
+        <v>1.031224795017259</v>
       </c>
       <c r="G9">
         <v>1</v>
       </c>
       <c r="I9">
-        <v>1.046407584463806</v>
+        <v>1.049910031846071</v>
       </c>
       <c r="J9">
-        <v>1.032900078404384</v>
+        <v>1.028233540201812</v>
       </c>
       <c r="K9">
-        <v>1.040241910504641</v>
+        <v>1.039130561342016</v>
       </c>
       <c r="L9">
-        <v>1.035078299934698</v>
+        <v>1.022426444081838</v>
       </c>
       <c r="M9">
-        <v>1.043893056594935</v>
+        <v>1.043830800222126</v>
       </c>
       <c r="N9">
-        <v>1.034366914991013</v>
+        <v>1.013272396356413</v>
       </c>
     </row>
     <row r="10" spans="1:14">
@@ -749,37 +749,37 @@
         <v>1.05</v>
       </c>
       <c r="C10">
-        <v>0.9967887007375724</v>
+        <v>0.9965568438800504</v>
       </c>
       <c r="D10">
-        <v>1.019168791879994</v>
+        <v>1.021556150905352</v>
       </c>
       <c r="E10">
-        <v>1.013231005700212</v>
+        <v>1.004650923503312</v>
       </c>
       <c r="F10">
-        <v>1.021719237687592</v>
+        <v>1.025253430945451</v>
       </c>
       <c r="G10">
         <v>1</v>
       </c>
       <c r="I10">
-        <v>1.043177510922404</v>
+        <v>1.047681969703098</v>
       </c>
       <c r="J10">
-        <v>1.025130310522434</v>
+        <v>1.024907739976394</v>
       </c>
       <c r="K10">
-        <v>1.033200363245929</v>
+        <v>1.035546812328647</v>
       </c>
       <c r="L10">
-        <v>1.02736540999677</v>
+        <v>1.018936708791781</v>
       </c>
       <c r="M10">
-        <v>1.035707113456698</v>
+        <v>1.039181220767639</v>
       </c>
       <c r="N10">
-        <v>1.026586113147466</v>
+        <v>1.01215863685013</v>
       </c>
     </row>
     <row r="11" spans="1:14">
@@ -790,37 +790,37 @@
         <v>1.05</v>
       </c>
       <c r="C11">
-        <v>0.9919237837071481</v>
+        <v>0.9937967983997809</v>
       </c>
       <c r="D11">
-        <v>1.0153950349204</v>
+        <v>1.019388214577126</v>
       </c>
       <c r="E11">
-        <v>1.009149116686334</v>
+        <v>1.002514717134629</v>
       </c>
       <c r="F11">
-        <v>1.017430549635938</v>
+        <v>1.022610599701268</v>
       </c>
       <c r="G11">
         <v>1</v>
       </c>
       <c r="I11">
-        <v>1.041713577595644</v>
+        <v>1.046682772210268</v>
       </c>
       <c r="J11">
-        <v>1.021636445559222</v>
+        <v>1.023429934330044</v>
       </c>
       <c r="K11">
-        <v>1.030032348334399</v>
+        <v>1.033953531343919</v>
       </c>
       <c r="L11">
-        <v>1.023900532276701</v>
+        <v>1.017389364883926</v>
       </c>
       <c r="M11">
-        <v>1.032031071124566</v>
+        <v>1.03711834923885</v>
       </c>
       <c r="N11">
-        <v>1.023087286495255</v>
+        <v>1.011663731356606</v>
       </c>
     </row>
     <row r="12" spans="1:14">
@@ -831,37 +831,37 @@
         <v>1.05</v>
       </c>
       <c r="C12">
-        <v>0.9900879129176542</v>
+        <v>0.9927612127632017</v>
       </c>
       <c r="D12">
-        <v>1.013972125663299</v>
+        <v>1.018575473217337</v>
       </c>
       <c r="E12">
-        <v>1.007610496341245</v>
+        <v>1.001714517612763</v>
       </c>
       <c r="F12">
-        <v>1.015814039916094</v>
+        <v>1.021619960719571</v>
       </c>
       <c r="G12">
         <v>1</v>
       </c>
       <c r="I12">
-        <v>1.041159378687198</v>
+        <v>1.046306288897576</v>
       </c>
       <c r="J12">
-        <v>1.020317775978081</v>
+        <v>1.02287512236626</v>
       </c>
       <c r="K12">
-        <v>1.028836449620094</v>
+        <v>1.03335524430844</v>
       </c>
       <c r="L12">
-        <v>1.022593329417963</v>
+        <v>1.01680894372278</v>
       </c>
       <c r="M12">
-        <v>1.030644412341986</v>
+        <v>1.036344356051577</v>
       </c>
       <c r="N12">
-        <v>1.021766744252055</v>
+        <v>1.011477929859397</v>
       </c>
     </row>
     <row r="13" spans="1:14">
@@ -872,37 +872,37 @@
         <v>1.05</v>
       </c>
       <c r="C13">
-        <v>0.9904830541692849</v>
+        <v>0.9929838269318166</v>
       </c>
       <c r="D13">
-        <v>1.014278327403069</v>
+        <v>1.018750152145294</v>
       </c>
       <c r="E13">
-        <v>1.007941577650987</v>
+        <v>1.001886471778316</v>
       </c>
       <c r="F13">
-        <v>1.016161878717759</v>
+        <v>1.021832868583692</v>
       </c>
       <c r="G13">
         <v>1</v>
       </c>
       <c r="I13">
-        <v>1.041278738807945</v>
+        <v>1.046387290085089</v>
       </c>
       <c r="J13">
-        <v>1.020601605190836</v>
+        <v>1.022994401637133</v>
       </c>
       <c r="K13">
-        <v>1.029093862862794</v>
+        <v>1.033483875720007</v>
       </c>
       <c r="L13">
-        <v>1.022874666546434</v>
+        <v>1.01693370622652</v>
       </c>
       <c r="M13">
-        <v>1.030942840374043</v>
+        <v>1.036510736012125</v>
       </c>
       <c r="N13">
-        <v>1.022050976534847</v>
+        <v>1.011517875338216</v>
       </c>
     </row>
     <row r="14" spans="1:14">
@@ -913,37 +913,37 @@
         <v>1.05</v>
       </c>
       <c r="C14">
-        <v>0.9917726310725199</v>
+        <v>0.9937114111272468</v>
       </c>
       <c r="D14">
-        <v>1.015277857553898</v>
+        <v>1.019321187355935</v>
       </c>
       <c r="E14">
-        <v>1.009022401059003</v>
+        <v>1.002448711101699</v>
       </c>
       <c r="F14">
-        <v>1.017297418047249</v>
+        <v>1.022528898515885</v>
       </c>
       <c r="G14">
         <v>1</v>
       </c>
       <c r="I14">
-        <v>1.041667983895358</v>
+        <v>1.046651761833046</v>
       </c>
       <c r="J14">
-        <v>1.02152787895111</v>
+        <v>1.023384194872379</v>
       </c>
       <c r="K14">
-        <v>1.029933893646133</v>
+        <v>1.033904210188431</v>
       </c>
       <c r="L14">
-        <v>1.023792898962883</v>
+        <v>1.017341504046811</v>
       </c>
       <c r="M14">
-        <v>1.031916891189578</v>
+        <v>1.037054530647003</v>
       </c>
       <c r="N14">
-        <v>1.022978565710106</v>
+        <v>1.011648413599824</v>
       </c>
     </row>
     <row r="15" spans="1:14">
@@ -954,37 +954,37 @@
         <v>1.05</v>
       </c>
       <c r="C15">
-        <v>0.992563295492503</v>
+        <v>0.9941583097617916</v>
       </c>
       <c r="D15">
-        <v>1.015890850095223</v>
+        <v>1.019672021525603</v>
       </c>
       <c r="E15">
-        <v>1.009685310314217</v>
+        <v>1.002794226535165</v>
       </c>
       <c r="F15">
-        <v>1.017993894724378</v>
+        <v>1.022956544653177</v>
       </c>
       <c r="G15">
         <v>1</v>
       </c>
       <c r="I15">
-        <v>1.041906409103101</v>
+        <v>1.046813999360087</v>
       </c>
       <c r="J15">
-        <v>1.022095772860857</v>
+        <v>1.023623572089055</v>
       </c>
       <c r="K15">
-        <v>1.03044888529992</v>
+        <v>1.034162327257901</v>
       </c>
       <c r="L15">
-        <v>1.024355932463015</v>
+        <v>1.017592003786314</v>
       </c>
       <c r="M15">
-        <v>1.03251417891166</v>
+        <v>1.037388544058612</v>
       </c>
       <c r="N15">
-        <v>1.023547266094343</v>
+        <v>1.011728579042347</v>
       </c>
     </row>
     <row r="16" spans="1:14">
@@ -995,37 +995,37 @@
         <v>1.05</v>
       </c>
       <c r="C16">
-        <v>0.9971076481000025</v>
+        <v>0.99673858912351</v>
       </c>
       <c r="D16">
-        <v>1.01941635834593</v>
+        <v>1.02169899840041</v>
       </c>
       <c r="E16">
-        <v>1.013498853098388</v>
+        <v>1.004791770222113</v>
       </c>
       <c r="F16">
-        <v>1.022000663266712</v>
+        <v>1.025427589911267</v>
       </c>
       <c r="G16">
         <v>1</v>
       </c>
       <c r="I16">
-        <v>1.043273240274613</v>
+        <v>1.047747543931627</v>
       </c>
       <c r="J16">
-        <v>1.02535933905126</v>
+        <v>1.025005003739545</v>
       </c>
       <c r="K16">
-        <v>1.033408000740615</v>
+        <v>1.035651658933452</v>
       </c>
       <c r="L16">
-        <v>1.027592610269595</v>
+        <v>1.01903861831388</v>
       </c>
       <c r="M16">
-        <v>1.035948188929081</v>
+        <v>1.039317056820542</v>
       </c>
       <c r="N16">
-        <v>1.026815466923073</v>
+        <v>1.012191209685809</v>
       </c>
     </row>
     <row r="17" spans="1:14">
@@ -1036,37 +1036,37 @@
         <v>1.05</v>
       </c>
       <c r="C17">
-        <v>0.9999091782225614</v>
+        <v>0.9983391362139246</v>
       </c>
       <c r="D17">
-        <v>1.021591705369129</v>
+        <v>1.022957475632958</v>
       </c>
       <c r="E17">
-        <v>1.015852781858666</v>
+        <v>1.00603311297787</v>
       </c>
       <c r="F17">
-        <v>1.024473966316626</v>
+        <v>1.026962036794538</v>
       </c>
       <c r="G17">
         <v>1</v>
       </c>
       <c r="I17">
-        <v>1.0441127189685</v>
+        <v>1.04832380056967</v>
       </c>
       <c r="J17">
-        <v>1.02737084702491</v>
+        <v>1.02586128892495</v>
       </c>
       <c r="K17">
-        <v>1.035231456681345</v>
+        <v>1.036574604633506</v>
       </c>
       <c r="L17">
-        <v>1.029588448783207</v>
+        <v>1.019936180370749</v>
       </c>
       <c r="M17">
-        <v>1.038066067420114</v>
+        <v>1.040513281061765</v>
       </c>
       <c r="N17">
-        <v>1.028829831468768</v>
+        <v>1.012477971591109</v>
       </c>
     </row>
     <row r="18" spans="1:14">
@@ -1077,37 +1077,37 @@
         <v>1.05</v>
       </c>
       <c r="C18">
-        <v>1.001526264070555</v>
+        <v>0.9992663710005301</v>
       </c>
       <c r="D18">
-        <v>1.022847994224559</v>
+        <v>1.023686937021566</v>
       </c>
       <c r="E18">
-        <v>1.017212520951101</v>
+        <v>1.006753053293224</v>
       </c>
       <c r="F18">
-        <v>1.025902698665469</v>
+        <v>1.027851562415707</v>
       </c>
       <c r="G18">
         <v>1</v>
       </c>
       <c r="I18">
-        <v>1.044596118172508</v>
+        <v>1.04865661068692</v>
       </c>
       <c r="J18">
-        <v>1.028531734731902</v>
+        <v>1.026357122634244</v>
       </c>
       <c r="K18">
-        <v>1.036283661140243</v>
+        <v>1.037108956398885</v>
       </c>
       <c r="L18">
-        <v>1.030740614025077</v>
+        <v>1.020456229541618</v>
       </c>
       <c r="M18">
-        <v>1.039288810814042</v>
+        <v>1.041206256682574</v>
       </c>
       <c r="N18">
-        <v>1.02999236776946</v>
+        <v>1.012644020463429</v>
       </c>
     </row>
     <row r="19" spans="1:14">
@@ -1118,37 +1118,37 @@
         <v>1.05</v>
       </c>
       <c r="C19">
-        <v>1.002074825869319</v>
+        <v>0.9995814728247381</v>
       </c>
       <c r="D19">
-        <v>1.023274268674998</v>
+        <v>1.023934895239444</v>
       </c>
       <c r="E19">
-        <v>1.017673952007014</v>
+        <v>1.006997844824921</v>
       </c>
       <c r="F19">
-        <v>1.026387549006305</v>
+        <v>1.028153947490738</v>
       </c>
       <c r="G19">
         <v>1</v>
       </c>
       <c r="I19">
-        <v>1.044759901752229</v>
+        <v>1.048769533620982</v>
       </c>
       <c r="J19">
-        <v>1.02892550699744</v>
+        <v>1.026525581176907</v>
       </c>
       <c r="K19">
-        <v>1.036640541156996</v>
+        <v>1.037290487300868</v>
       </c>
       <c r="L19">
-        <v>1.031131481657076</v>
+        <v>1.020632968481647</v>
       </c>
       <c r="M19">
-        <v>1.03970364302576</v>
+        <v>1.041441744718159</v>
       </c>
       <c r="N19">
-        <v>1.030386699236782</v>
+        <v>1.012700434973115</v>
       </c>
     </row>
     <row r="20" spans="1:14">
@@ -1159,37 +1159,37 @@
         <v>1.05</v>
       </c>
       <c r="C20">
-        <v>0.999610373450709</v>
+        <v>0.9981680714135105</v>
       </c>
       <c r="D20">
-        <v>1.021359619816817</v>
+        <v>1.022822929502984</v>
       </c>
       <c r="E20">
-        <v>1.015601610878135</v>
+        <v>1.005900356151097</v>
       </c>
       <c r="F20">
-        <v>1.024210053891514</v>
+        <v>1.026797975846121</v>
       </c>
       <c r="G20">
         <v>1</v>
       </c>
       <c r="I20">
-        <v>1.044023302063809</v>
+        <v>1.048262317275299</v>
       </c>
       <c r="J20">
-        <v>1.027156322814416</v>
+        <v>1.025769793941719</v>
       </c>
       <c r="K20">
-        <v>1.035037003730291</v>
+        <v>1.036475995347825</v>
       </c>
       <c r="L20">
-        <v>1.029375562291249</v>
+        <v>1.019840242334122</v>
       </c>
       <c r="M20">
-        <v>1.03784015032231</v>
+        <v>1.040385432188524</v>
       </c>
       <c r="N20">
-        <v>1.028615002609289</v>
+        <v>1.012447330884602</v>
       </c>
     </row>
     <row r="21" spans="1:14">
@@ -1200,37 +1200,37 @@
         <v>1.05</v>
       </c>
       <c r="C21">
-        <v>0.991393696597146</v>
+        <v>0.9934974461610512</v>
       </c>
       <c r="D21">
-        <v>1.014984117601197</v>
+        <v>1.019153240493741</v>
       </c>
       <c r="E21">
-        <v>1.008704758095561</v>
+        <v>1.002283333398159</v>
       </c>
       <c r="F21">
-        <v>1.016963692935984</v>
+        <v>1.022324185938492</v>
       </c>
       <c r="G21">
         <v>1</v>
       </c>
       <c r="I21">
-        <v>1.04155365410182</v>
+        <v>1.046574030181822</v>
       </c>
       <c r="J21">
-        <v>1.021255703427423</v>
+        <v>1.023269574906094</v>
       </c>
       <c r="K21">
-        <v>1.029687065294194</v>
+        <v>1.033780612784624</v>
       </c>
       <c r="L21">
-        <v>1.023523071717099</v>
+        <v>1.017221576068297</v>
       </c>
       <c r="M21">
-        <v>1.031630655561042</v>
+        <v>1.036894613160764</v>
       </c>
       <c r="N21">
-        <v>1.022706003665957</v>
+        <v>1.011610028363089</v>
       </c>
     </row>
     <row r="22" spans="1:14">
@@ -1241,37 +1241,37 @@
         <v>1.05</v>
       </c>
       <c r="C22">
-        <v>0.9860595633156205</v>
+        <v>0.9905005232937834</v>
       </c>
       <c r="D22">
-        <v>1.010852282991686</v>
+        <v>1.016802563660045</v>
       </c>
       <c r="E22">
-        <v>1.004237780726528</v>
+        <v>0.9999701527786926</v>
       </c>
       <c r="F22">
-        <v>1.012270702682516</v>
+        <v>1.01945921271502</v>
       </c>
       <c r="G22">
         <v>1</v>
       </c>
       <c r="I22">
-        <v>1.039940195324246</v>
+        <v>1.045481571557212</v>
       </c>
       <c r="J22">
-        <v>1.017424048755055</v>
+        <v>1.021663395290067</v>
       </c>
       <c r="K22">
-        <v>1.026211776626757</v>
+        <v>1.032048349044147</v>
       </c>
       <c r="L22">
-        <v>1.019725751231969</v>
+        <v>1.015542200971556</v>
       </c>
       <c r="M22">
-        <v>1.027602931834717</v>
+        <v>1.034654790174373</v>
       </c>
       <c r="N22">
-        <v>1.018868907604457</v>
+        <v>1.011072137248703</v>
       </c>
     </row>
     <row r="23" spans="1:14">
@@ -1282,37 +1282,37 @@
         <v>1.05</v>
       </c>
       <c r="C23">
-        <v>0.9889039770392439</v>
+        <v>0.9920951277664115</v>
       </c>
       <c r="D23">
-        <v>1.013054860027114</v>
+        <v>1.018052919345706</v>
       </c>
       <c r="E23">
-        <v>1.006618767487058</v>
+        <v>1.001200209526443</v>
       </c>
       <c r="F23">
-        <v>1.014772124391593</v>
+        <v>1.020983062891398</v>
       </c>
       <c r="G23">
         <v>1</v>
       </c>
       <c r="I23">
-        <v>1.040801497307426</v>
+        <v>1.046063696892511</v>
       </c>
       <c r="J23">
-        <v>1.019467336554851</v>
+        <v>1.022518180459838</v>
       </c>
       <c r="K23">
-        <v>1.028065131731505</v>
+        <v>1.032970298828004</v>
       </c>
       <c r="L23">
-        <v>1.021750435319033</v>
+        <v>1.016435666292007</v>
       </c>
       <c r="M23">
-        <v>1.029750344979398</v>
+        <v>1.035846534450602</v>
       </c>
       <c r="N23">
-        <v>1.020915097107297</v>
+        <v>1.011358393730571</v>
       </c>
     </row>
     <row r="24" spans="1:14">
@@ -1323,37 +1323,37 @@
         <v>1.05</v>
       </c>
       <c r="C24">
-        <v>0.9997454428415444</v>
+        <v>0.9982453877841672</v>
       </c>
       <c r="D24">
-        <v>1.021464527976879</v>
+        <v>1.022883739262039</v>
       </c>
       <c r="E24">
-        <v>1.015715145116821</v>
+        <v>1.005960355940098</v>
       </c>
       <c r="F24">
-        <v>1.024329347399565</v>
+        <v>1.026872124869409</v>
       </c>
       <c r="G24">
         <v>1</v>
       </c>
       <c r="I24">
-        <v>1.044063724996545</v>
+        <v>1.048290109148568</v>
       </c>
       <c r="J24">
-        <v>1.027253295256316</v>
+        <v>1.025811147766364</v>
       </c>
       <c r="K24">
-        <v>1.035124903741783</v>
+        <v>1.036520564943058</v>
       </c>
       <c r="L24">
-        <v>1.029471793432525</v>
+        <v>1.019883603352976</v>
       </c>
       <c r="M24">
-        <v>1.037942271300195</v>
+        <v>1.040443216284787</v>
       </c>
       <c r="N24">
-        <v>1.02871211276318</v>
+        <v>1.012461179848954</v>
       </c>
     </row>
     <row r="25" spans="1:14">
@@ -1364,37 +1364,37 @@
         <v>1.05</v>
       </c>
       <c r="C25">
-        <v>1.011665277800842</v>
+        <v>1.005135253226975</v>
       </c>
       <c r="D25">
-        <v>1.030735006481601</v>
+        <v>1.028310621053795</v>
       </c>
       <c r="E25">
-        <v>1.025754880646345</v>
+        <v>1.011323734670524</v>
       </c>
       <c r="F25">
-        <v>1.034879141202339</v>
+        <v>1.033491826456129</v>
       </c>
       <c r="G25">
         <v>1</v>
       </c>
       <c r="I25">
-        <v>1.047605710456365</v>
+        <v>1.050744373603931</v>
       </c>
       <c r="J25">
-        <v>1.035806336830195</v>
+        <v>1.029491022960457</v>
       </c>
       <c r="K25">
-        <v>1.042874226676644</v>
+        <v>1.040484791079678</v>
       </c>
       <c r="L25">
-        <v>1.037966120959306</v>
+        <v>1.023748771170127</v>
       </c>
       <c r="M25">
-        <v>1.046959099448684</v>
+        <v>1.045591556608757</v>
       </c>
       <c r="N25">
-        <v>1.037277300637141</v>
+        <v>1.013693483661226</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_3_18/res_bus/vm_pu.xlsx
+++ b/Code/Results/Cases/Case_3_18/res_bus/vm_pu.xlsx
@@ -418,40 +418,40 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C2">
-        <v>1.010446904927626</v>
+        <v>1.032640661117163</v>
       </c>
       <c r="D2">
-        <v>1.032504824173628</v>
+        <v>1.04389119359344</v>
       </c>
       <c r="E2">
-        <v>1.015481639219463</v>
+        <v>1.032061870338741</v>
       </c>
       <c r="F2">
-        <v>1.038611848196537</v>
+        <v>1.054845114770408</v>
       </c>
       <c r="G2">
         <v>1</v>
       </c>
       <c r="I2">
-        <v>1.052603100217818</v>
+        <v>1.041792787156781</v>
       </c>
       <c r="J2">
-        <v>1.032319578284371</v>
+        <v>1.037769767682524</v>
       </c>
       <c r="K2">
-        <v>1.043529153374919</v>
+        <v>1.046663782943812</v>
       </c>
       <c r="L2">
-        <v>1.026729422714705</v>
+        <v>1.034868186670981</v>
       </c>
       <c r="M2">
-        <v>1.049558243070284</v>
+        <v>1.057587204250136</v>
       </c>
       <c r="N2">
-        <v>1.014640576311882</v>
+        <v>1.016571308471184</v>
       </c>
     </row>
     <row r="3" spans="1:14">
@@ -459,40 +459,40 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C3">
-        <v>1.014204258747532</v>
+        <v>1.03343642842062</v>
       </c>
       <c r="D3">
-        <v>1.03547696062029</v>
+        <v>1.044543721015948</v>
       </c>
       <c r="E3">
-        <v>1.018435483843817</v>
+        <v>1.032734065265371</v>
       </c>
       <c r="F3">
-        <v>1.042242677284159</v>
+        <v>1.055666363058192</v>
       </c>
       <c r="G3">
         <v>1</v>
       </c>
       <c r="I3">
-        <v>1.053897937271941</v>
+        <v>1.042012014437832</v>
       </c>
       <c r="J3">
-        <v>1.034315051166115</v>
+        <v>1.038208695475633</v>
       </c>
       <c r="K3">
-        <v>1.04567517118766</v>
+        <v>1.047127851775967</v>
       </c>
       <c r="L3">
-        <v>1.028837790456257</v>
+        <v>1.035349440994537</v>
       </c>
       <c r="M3">
-        <v>1.052362146063969</v>
+        <v>1.058221756177087</v>
       </c>
       <c r="N3">
-        <v>1.015308614381038</v>
+        <v>1.016717575964628</v>
       </c>
     </row>
     <row r="4" spans="1:14">
@@ -500,40 +500,40 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C4">
-        <v>1.016591736383034</v>
+        <v>1.033951959870905</v>
       </c>
       <c r="D4">
-        <v>1.037367680671429</v>
+        <v>1.04496644895903</v>
       </c>
       <c r="E4">
-        <v>1.020318020843061</v>
+        <v>1.033169937314351</v>
       </c>
       <c r="F4">
-        <v>1.044553753484676</v>
+        <v>1.056198643299491</v>
       </c>
       <c r="G4">
         <v>1</v>
       </c>
       <c r="I4">
-        <v>1.054711220881157</v>
+        <v>1.042152871726409</v>
       </c>
       <c r="J4">
-        <v>1.035580339851288</v>
+        <v>1.038492649858487</v>
       </c>
       <c r="K4">
-        <v>1.047035096152865</v>
+        <v>1.047427947920108</v>
       </c>
       <c r="L4">
-        <v>1.030177257138198</v>
+        <v>1.035661080081816</v>
       </c>
       <c r="M4">
-        <v>1.054142622495726</v>
+        <v>1.058632578439082</v>
       </c>
       <c r="N4">
-        <v>1.015732139162401</v>
+        <v>1.016812173786673</v>
       </c>
     </row>
     <row r="5" spans="1:14">
@@ -541,40 +541,40 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C5">
-        <v>1.017585260589473</v>
+        <v>1.034168835183674</v>
       </c>
       <c r="D5">
-        <v>1.038154972428469</v>
+        <v>1.045144281383541</v>
       </c>
       <c r="E5">
-        <v>1.021102736065662</v>
+        <v>1.033353395564738</v>
       </c>
       <c r="F5">
-        <v>1.045516416120734</v>
+        <v>1.056422621967682</v>
       </c>
       <c r="G5">
         <v>1</v>
       </c>
       <c r="I5">
-        <v>1.055047354164046</v>
+        <v>1.042211848468954</v>
       </c>
       <c r="J5">
-        <v>1.036106212801017</v>
+        <v>1.038612008333313</v>
       </c>
       <c r="K5">
-        <v>1.047600099304411</v>
+        <v>1.047554062055988</v>
       </c>
       <c r="L5">
-        <v>1.030734583050393</v>
+        <v>1.035792148094232</v>
       </c>
       <c r="M5">
-        <v>1.054883238844636</v>
+        <v>1.0588053401764</v>
       </c>
       <c r="N5">
-        <v>1.015908144994546</v>
+        <v>1.0168519309882</v>
       </c>
     </row>
     <row r="6" spans="1:14">
@@ -582,40 +582,40 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C6">
-        <v>1.017751489995065</v>
+        <v>1.03420525800667</v>
       </c>
       <c r="D6">
-        <v>1.03828672417003</v>
+        <v>1.045174147071354</v>
       </c>
       <c r="E6">
-        <v>1.021234105532542</v>
+        <v>1.033384211719896</v>
       </c>
       <c r="F6">
-        <v>1.045677536027597</v>
+        <v>1.056460241112017</v>
       </c>
       <c r="G6">
         <v>1</v>
       </c>
       <c r="I6">
-        <v>1.055103457085995</v>
+        <v>1.0422217368442</v>
       </c>
       <c r="J6">
-        <v>1.036194158391861</v>
+        <v>1.038632048173902</v>
       </c>
       <c r="K6">
-        <v>1.047694576902484</v>
+        <v>1.047575234419145</v>
       </c>
       <c r="L6">
-        <v>1.030827825441903</v>
+        <v>1.035814158171071</v>
       </c>
       <c r="M6">
-        <v>1.055007134360456</v>
+        <v>1.058834350634314</v>
       </c>
       <c r="N6">
-        <v>1.015937578660769</v>
+        <v>1.016858605696327</v>
       </c>
     </row>
     <row r="7" spans="1:14">
@@ -623,40 +623,40 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C7">
-        <v>1.016605051466677</v>
+        <v>1.033954857198412</v>
       </c>
       <c r="D7">
-        <v>1.037378229972891</v>
+        <v>1.044968824704878</v>
       </c>
       <c r="E7">
-        <v>1.020328532337414</v>
+        <v>1.033172387839666</v>
       </c>
       <c r="F7">
-        <v>1.044566651319287</v>
+        <v>1.056201635298496</v>
       </c>
       <c r="G7">
         <v>1</v>
       </c>
       <c r="I7">
-        <v>1.054715734845287</v>
+        <v>1.042153660719329</v>
       </c>
       <c r="J7">
-        <v>1.035587390186414</v>
+        <v>1.038494244796544</v>
       </c>
       <c r="K7">
-        <v>1.047042671908156</v>
+        <v>1.047429633246999</v>
       </c>
       <c r="L7">
-        <v>1.030184726695903</v>
+        <v>1.035662831204902</v>
       </c>
       <c r="M7">
-        <v>1.054152549407487</v>
+        <v>1.058634886687506</v>
       </c>
       <c r="N7">
-        <v>1.015734498929385</v>
+        <v>1.016812705070993</v>
       </c>
     </row>
     <row r="8" spans="1:14">
@@ -664,40 +664,40 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C8">
-        <v>1.011725976303248</v>
+        <v>1.03290946562692</v>
       </c>
       <c r="D8">
-        <v>1.033516114932448</v>
+        <v>1.044111613825814</v>
       </c>
       <c r="E8">
-        <v>1.016485985040537</v>
+        <v>1.032288850760503</v>
       </c>
       <c r="F8">
-        <v>1.039846995747913</v>
+        <v>1.055122476503039</v>
       </c>
       <c r="G8">
         <v>1</v>
       </c>
       <c r="I8">
-        <v>1.053045849549861</v>
+        <v>1.041867082038048</v>
       </c>
       <c r="J8">
-        <v>1.032999415937251</v>
+        <v>1.037918117295275</v>
       </c>
       <c r="K8">
-        <v>1.04426044926244</v>
+        <v>1.046820655135331</v>
       </c>
       <c r="L8">
-        <v>1.027447179371834</v>
+        <v>1.035030779245561</v>
       </c>
       <c r="M8">
-        <v>1.050512967064688</v>
+        <v>1.057801606464117</v>
       </c>
       <c r="N8">
-        <v>1.014868182553234</v>
+        <v>1.016620749713474</v>
       </c>
     </row>
     <row r="9" spans="1:14">
@@ -705,40 +705,40 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C9">
-        <v>1.002778518495714</v>
+        <v>1.03107215437854</v>
       </c>
       <c r="D9">
-        <v>1.026452559688812</v>
+        <v>1.0426050041001</v>
       </c>
       <c r="E9">
-        <v>1.009485409029331</v>
+        <v>1.030739051908677</v>
       </c>
       <c r="F9">
-        <v>1.031224795017259</v>
+        <v>1.053227674134899</v>
       </c>
       <c r="G9">
         <v>1</v>
       </c>
       <c r="I9">
-        <v>1.049910031846071</v>
+        <v>1.041354493541941</v>
       </c>
       <c r="J9">
-        <v>1.028233540201812</v>
+        <v>1.036902494719468</v>
       </c>
       <c r="K9">
-        <v>1.039130561342016</v>
+        <v>1.045746184985591</v>
       </c>
       <c r="L9">
-        <v>1.022426444081838</v>
+        <v>1.033918887628848</v>
       </c>
       <c r="M9">
-        <v>1.043830800222126</v>
+        <v>1.056335058532505</v>
       </c>
       <c r="N9">
-        <v>1.013272396356413</v>
+        <v>1.016282160207294</v>
       </c>
     </row>
     <row r="10" spans="1:14">
@@ -746,40 +746,40 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C10">
-        <v>0.9965568438800504</v>
+        <v>1.029850614632654</v>
       </c>
       <c r="D10">
-        <v>1.021556150905352</v>
+        <v>1.041603335607996</v>
       </c>
       <c r="E10">
-        <v>1.004650923503312</v>
+        <v>1.02971074327645</v>
       </c>
       <c r="F10">
-        <v>1.025253430945451</v>
+        <v>1.051969176701077</v>
       </c>
       <c r="G10">
         <v>1</v>
       </c>
       <c r="I10">
-        <v>1.047681969703098</v>
+        <v>1.041007710263022</v>
       </c>
       <c r="J10">
-        <v>1.024907739976394</v>
+        <v>1.036225212429545</v>
       </c>
       <c r="K10">
-        <v>1.035546812328647</v>
+        <v>1.045029032862594</v>
       </c>
       <c r="L10">
-        <v>1.018936708791781</v>
+        <v>1.033178964154312</v>
       </c>
       <c r="M10">
-        <v>1.039181220767639</v>
+        <v>1.055358673038432</v>
       </c>
       <c r="N10">
-        <v>1.01215863685013</v>
+        <v>1.016056233225194</v>
       </c>
     </row>
     <row r="11" spans="1:14">
@@ -787,40 +787,40 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C11">
-        <v>0.9937967983997809</v>
+        <v>1.029322487596133</v>
       </c>
       <c r="D11">
-        <v>1.019388214577126</v>
+        <v>1.041170275253848</v>
       </c>
       <c r="E11">
-        <v>1.002514717134629</v>
+        <v>1.02926665814097</v>
       </c>
       <c r="F11">
-        <v>1.022610599701268</v>
+        <v>1.051425375238129</v>
       </c>
       <c r="G11">
         <v>1</v>
       </c>
       <c r="I11">
-        <v>1.046682772210268</v>
+        <v>1.040856360713405</v>
       </c>
       <c r="J11">
-        <v>1.023429934330044</v>
+        <v>1.03593191033463</v>
       </c>
       <c r="K11">
-        <v>1.033953531343919</v>
+        <v>1.044718316972565</v>
       </c>
       <c r="L11">
-        <v>1.017389364883926</v>
+        <v>1.032858904125108</v>
       </c>
       <c r="M11">
-        <v>1.03711834923885</v>
+        <v>1.054936220783909</v>
       </c>
       <c r="N11">
-        <v>1.011663731356606</v>
+        <v>1.015958362612499</v>
       </c>
     </row>
     <row r="12" spans="1:14">
@@ -828,40 +828,40 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C12">
-        <v>0.9927612127632017</v>
+        <v>1.029126440848492</v>
       </c>
       <c r="D12">
-        <v>1.018575473217337</v>
+        <v>1.041009519749126</v>
       </c>
       <c r="E12">
-        <v>1.001714517612763</v>
+        <v>1.029101884268328</v>
       </c>
       <c r="F12">
-        <v>1.021619960719571</v>
+        <v>1.051223555981023</v>
       </c>
       <c r="G12">
         <v>1</v>
       </c>
       <c r="I12">
-        <v>1.046306288897576</v>
+        <v>1.040799964827492</v>
       </c>
       <c r="J12">
-        <v>1.02287512236626</v>
+        <v>1.035822961014343</v>
       </c>
       <c r="K12">
-        <v>1.03335524430844</v>
+        <v>1.044602877004252</v>
       </c>
       <c r="L12">
-        <v>1.01680894372278</v>
+        <v>1.032740070853193</v>
       </c>
       <c r="M12">
-        <v>1.036344356051577</v>
+        <v>1.054779354427506</v>
       </c>
       <c r="N12">
-        <v>1.011477929859397</v>
+        <v>1.015922003160424</v>
       </c>
     </row>
     <row r="13" spans="1:14">
@@ -869,40 +869,40 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C13">
-        <v>0.9929838269318166</v>
+        <v>1.029168487939775</v>
       </c>
       <c r="D13">
-        <v>1.018750152145294</v>
+        <v>1.041043997686197</v>
       </c>
       <c r="E13">
-        <v>1.001886471778316</v>
+        <v>1.02913722068662</v>
       </c>
       <c r="F13">
-        <v>1.021832868583692</v>
+        <v>1.051266839042423</v>
       </c>
       <c r="G13">
         <v>1</v>
       </c>
       <c r="I13">
-        <v>1.046387290085089</v>
+        <v>1.040812069973851</v>
       </c>
       <c r="J13">
-        <v>1.022994401637133</v>
+        <v>1.035846331167254</v>
       </c>
       <c r="K13">
-        <v>1.033483875720007</v>
+        <v>1.044627640434256</v>
       </c>
       <c r="L13">
-        <v>1.01693370622652</v>
+        <v>1.03276555865012</v>
       </c>
       <c r="M13">
-        <v>1.036510736012125</v>
+        <v>1.054813000447103</v>
       </c>
       <c r="N13">
-        <v>1.011517875338216</v>
+        <v>1.015929802647942</v>
       </c>
     </row>
     <row r="14" spans="1:14">
@@ -910,40 +910,40 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C14">
-        <v>0.9937114111272468</v>
+        <v>1.029306279788231</v>
       </c>
       <c r="D14">
-        <v>1.019321187355935</v>
+        <v>1.041156985053768</v>
       </c>
       <c r="E14">
-        <v>1.002448711101699</v>
+        <v>1.029253034216037</v>
       </c>
       <c r="F14">
-        <v>1.022528898515885</v>
+        <v>1.051408689257707</v>
       </c>
       <c r="G14">
         <v>1</v>
       </c>
       <c r="I14">
-        <v>1.046651761833046</v>
+        <v>1.040851702636421</v>
       </c>
       <c r="J14">
-        <v>1.023384194872379</v>
+        <v>1.035922904621091</v>
       </c>
       <c r="K14">
-        <v>1.033904210188431</v>
+        <v>1.044708775196012</v>
       </c>
       <c r="L14">
-        <v>1.017341504046811</v>
+        <v>1.032849080275513</v>
       </c>
       <c r="M14">
-        <v>1.037054530647003</v>
+        <v>1.054923253106802</v>
       </c>
       <c r="N14">
-        <v>1.011648413599824</v>
+        <v>1.015955357247475</v>
       </c>
     </row>
     <row r="15" spans="1:14">
@@ -951,40 +951,40 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C15">
-        <v>0.9941583097617916</v>
+        <v>1.029391194265895</v>
       </c>
       <c r="D15">
-        <v>1.019672021525603</v>
+        <v>1.041226613925594</v>
       </c>
       <c r="E15">
-        <v>1.002794226535165</v>
+        <v>1.029324414547033</v>
       </c>
       <c r="F15">
-        <v>1.022956544653177</v>
+        <v>1.051496110820375</v>
       </c>
       <c r="G15">
         <v>1</v>
       </c>
       <c r="I15">
-        <v>1.046813999360087</v>
+        <v>1.040876098077366</v>
       </c>
       <c r="J15">
-        <v>1.023623572089055</v>
+        <v>1.035970083580368</v>
       </c>
       <c r="K15">
-        <v>1.034162327257901</v>
+        <v>1.044758761564767</v>
       </c>
       <c r="L15">
-        <v>1.017592003786314</v>
+        <v>1.032900547542676</v>
       </c>
       <c r="M15">
-        <v>1.037388544058612</v>
+        <v>1.054991190249576</v>
       </c>
       <c r="N15">
-        <v>1.011728579042347</v>
+        <v>1.01597110150549</v>
       </c>
     </row>
     <row r="16" spans="1:14">
@@ -992,40 +992,40 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C16">
-        <v>0.99673858912351</v>
+        <v>1.029885681855986</v>
       </c>
       <c r="D16">
-        <v>1.02169899840041</v>
+        <v>1.041632090650951</v>
       </c>
       <c r="E16">
-        <v>1.004791770222113</v>
+        <v>1.029740240756668</v>
       </c>
       <c r="F16">
-        <v>1.025427589911267</v>
+        <v>1.052005291132684</v>
       </c>
       <c r="G16">
         <v>1</v>
       </c>
       <c r="I16">
-        <v>1.047747543931627</v>
+        <v>1.041017729834754</v>
       </c>
       <c r="J16">
-        <v>1.025005003739545</v>
+        <v>1.036244677310327</v>
       </c>
       <c r="K16">
-        <v>1.035651658933452</v>
+        <v>1.045049650292669</v>
       </c>
       <c r="L16">
-        <v>1.01903861831388</v>
+        <v>1.033200212595949</v>
       </c>
       <c r="M16">
-        <v>1.039317056820542</v>
+        <v>1.055386716888776</v>
       </c>
       <c r="N16">
-        <v>1.012191209685809</v>
+        <v>1.016062727715292</v>
       </c>
     </row>
     <row r="17" spans="1:14">
@@ -1033,40 +1033,40 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C17">
-        <v>0.9983391362139246</v>
+        <v>1.030196078377453</v>
       </c>
       <c r="D17">
-        <v>1.022957475632958</v>
+        <v>1.041886615882305</v>
       </c>
       <c r="E17">
-        <v>1.00603311297787</v>
+        <v>1.030001394654893</v>
       </c>
       <c r="F17">
-        <v>1.026962036794538</v>
+        <v>1.052324992183516</v>
       </c>
       <c r="G17">
         <v>1</v>
       </c>
       <c r="I17">
-        <v>1.04832380056967</v>
+        <v>1.041106253687559</v>
       </c>
       <c r="J17">
-        <v>1.02586128892495</v>
+        <v>1.036416914415173</v>
       </c>
       <c r="K17">
-        <v>1.036574604633506</v>
+        <v>1.045232068780581</v>
       </c>
       <c r="L17">
-        <v>1.019936180370749</v>
+        <v>1.033388274391886</v>
       </c>
       <c r="M17">
-        <v>1.040513281061765</v>
+        <v>1.05563490966519</v>
       </c>
       <c r="N17">
-        <v>1.012477971591109</v>
+        <v>1.016120191307121</v>
       </c>
     </row>
     <row r="18" spans="1:14">
@@ -1074,40 +1074,40 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C18">
-        <v>0.9992663710005301</v>
+        <v>1.030377205231065</v>
       </c>
       <c r="D18">
-        <v>1.023686937021566</v>
+        <v>1.042035140535595</v>
       </c>
       <c r="E18">
-        <v>1.006753053293224</v>
+        <v>1.030153834959307</v>
       </c>
       <c r="F18">
-        <v>1.027851562415707</v>
+        <v>1.052511577885678</v>
       </c>
       <c r="G18">
         <v>1</v>
       </c>
       <c r="I18">
-        <v>1.04865661068692</v>
+        <v>1.041157773266912</v>
       </c>
       <c r="J18">
-        <v>1.026357122634244</v>
+        <v>1.036517373998445</v>
       </c>
       <c r="K18">
-        <v>1.037108956398885</v>
+        <v>1.04533845252095</v>
       </c>
       <c r="L18">
-        <v>1.020456229541618</v>
+        <v>1.033497999565417</v>
       </c>
       <c r="M18">
-        <v>1.041206256682574</v>
+        <v>1.055779707947626</v>
       </c>
       <c r="N18">
-        <v>1.012644020463429</v>
+        <v>1.016153704692742</v>
       </c>
     </row>
     <row r="19" spans="1:14">
@@ -1115,40 +1115,40 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C19">
-        <v>0.9995814728247381</v>
+        <v>1.030438977951437</v>
       </c>
       <c r="D19">
-        <v>1.023934895239444</v>
+        <v>1.042085794467517</v>
       </c>
       <c r="E19">
-        <v>1.006997844824921</v>
+        <v>1.030205832382168</v>
       </c>
       <c r="F19">
-        <v>1.028153947490738</v>
+        <v>1.052575217295092</v>
       </c>
       <c r="G19">
         <v>1</v>
       </c>
       <c r="I19">
-        <v>1.048769533620982</v>
+        <v>1.041175320598783</v>
       </c>
       <c r="J19">
-        <v>1.026525581176907</v>
+        <v>1.036551627502833</v>
       </c>
       <c r="K19">
-        <v>1.037290487300868</v>
+        <v>1.045374723551235</v>
       </c>
       <c r="L19">
-        <v>1.020632968481647</v>
+        <v>1.033535418382749</v>
       </c>
       <c r="M19">
-        <v>1.041441744718159</v>
+        <v>1.05582908573183</v>
       </c>
       <c r="N19">
-        <v>1.012700434973115</v>
+        <v>1.016165131171995</v>
       </c>
     </row>
     <row r="20" spans="1:14">
@@ -1156,40 +1156,40 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C20">
-        <v>0.9981680714135105</v>
+        <v>1.030162767706631</v>
       </c>
       <c r="D20">
-        <v>1.022822929502984</v>
+        <v>1.041859301059514</v>
       </c>
       <c r="E20">
-        <v>1.005900356151097</v>
+        <v>1.029973363543359</v>
       </c>
       <c r="F20">
-        <v>1.026797975846121</v>
+        <v>1.052290679946269</v>
       </c>
       <c r="G20">
         <v>1</v>
       </c>
       <c r="I20">
-        <v>1.048262317275299</v>
+        <v>1.041096767792852</v>
       </c>
       <c r="J20">
-        <v>1.025769793941719</v>
+        <v>1.036398435346744</v>
       </c>
       <c r="K20">
-        <v>1.036475995347825</v>
+        <v>1.045212498842006</v>
       </c>
       <c r="L20">
-        <v>1.019840242334122</v>
+        <v>1.033368093830046</v>
       </c>
       <c r="M20">
-        <v>1.040385432188524</v>
+        <v>1.055608277644182</v>
       </c>
       <c r="N20">
-        <v>1.012447330884602</v>
+        <v>1.016114026433941</v>
       </c>
     </row>
     <row r="21" spans="1:14">
@@ -1197,40 +1197,40 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C21">
-        <v>0.9934974461610512</v>
+        <v>1.029265700109299</v>
       </c>
       <c r="D21">
-        <v>1.019153240493741</v>
+        <v>1.041123710248155</v>
       </c>
       <c r="E21">
-        <v>1.002283333398159</v>
+        <v>1.029218925058021</v>
       </c>
       <c r="F21">
-        <v>1.022324185938492</v>
+        <v>1.051366913117213</v>
       </c>
       <c r="G21">
         <v>1</v>
       </c>
       <c r="I21">
-        <v>1.046574030181822</v>
+        <v>1.040840036709662</v>
       </c>
       <c r="J21">
-        <v>1.023269574906094</v>
+        <v>1.035900355743643</v>
       </c>
       <c r="K21">
-        <v>1.033780612784624</v>
+        <v>1.044684883744071</v>
       </c>
       <c r="L21">
-        <v>1.017221576068297</v>
+        <v>1.032824483811625</v>
       </c>
       <c r="M21">
-        <v>1.036894613160764</v>
+        <v>1.054890785018297</v>
       </c>
       <c r="N21">
-        <v>1.011610028363089</v>
+        <v>1.015947832215272</v>
       </c>
     </row>
     <row r="22" spans="1:14">
@@ -1238,40 +1238,40 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C22">
-        <v>0.9905005232937834</v>
+        <v>1.028702391496351</v>
       </c>
       <c r="D22">
-        <v>1.016802563660045</v>
+        <v>1.040661808474368</v>
       </c>
       <c r="E22">
-        <v>0.9999701527786926</v>
+        <v>1.028745616929496</v>
       </c>
       <c r="F22">
-        <v>1.01945921271502</v>
+        <v>1.050787105170305</v>
       </c>
       <c r="G22">
         <v>1</v>
       </c>
       <c r="I22">
-        <v>1.045481571557212</v>
+        <v>1.040677590706756</v>
       </c>
       <c r="J22">
-        <v>1.021663395290067</v>
+        <v>1.035587171623793</v>
       </c>
       <c r="K22">
-        <v>1.032048349044147</v>
+        <v>1.044353000014185</v>
       </c>
       <c r="L22">
-        <v>1.015542200971556</v>
+        <v>1.032482991980481</v>
       </c>
       <c r="M22">
-        <v>1.034654790174373</v>
+        <v>1.054439966152506</v>
       </c>
       <c r="N22">
-        <v>1.011072137248703</v>
+        <v>1.015843305128978</v>
       </c>
     </row>
     <row r="23" spans="1:14">
@@ -1279,40 +1279,40 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C23">
-        <v>0.9920951277664115</v>
+        <v>1.029000943828981</v>
       </c>
       <c r="D23">
-        <v>1.018052919345706</v>
+        <v>1.040906614457493</v>
       </c>
       <c r="E23">
-        <v>1.001200209526443</v>
+        <v>1.028996427552011</v>
       </c>
       <c r="F23">
-        <v>1.020983062891398</v>
+        <v>1.051094376752017</v>
       </c>
       <c r="G23">
         <v>1</v>
       </c>
       <c r="I23">
-        <v>1.046063696892511</v>
+        <v>1.040763803649484</v>
       </c>
       <c r="J23">
-        <v>1.022518180459838</v>
+        <v>1.035753198073325</v>
       </c>
       <c r="K23">
-        <v>1.032970298828004</v>
+        <v>1.044528951709631</v>
       </c>
       <c r="L23">
-        <v>1.016435666292007</v>
+        <v>1.032663994595491</v>
       </c>
       <c r="M23">
-        <v>1.035846534450602</v>
+        <v>1.054678924996671</v>
       </c>
       <c r="N23">
-        <v>1.011358393730571</v>
+        <v>1.015898719997947</v>
       </c>
     </row>
     <row r="24" spans="1:14">
@@ -1320,40 +1320,40 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C24">
-        <v>0.9982453877841672</v>
+        <v>1.030177819124727</v>
       </c>
       <c r="D24">
-        <v>1.022883739262039</v>
+        <v>1.041871643253472</v>
       </c>
       <c r="E24">
-        <v>1.005960355940098</v>
+        <v>1.029986029245163</v>
       </c>
       <c r="F24">
-        <v>1.026872124869409</v>
+        <v>1.052306183831301</v>
       </c>
       <c r="G24">
         <v>1</v>
       </c>
       <c r="I24">
-        <v>1.048290109148568</v>
+        <v>1.041101054415442</v>
       </c>
       <c r="J24">
-        <v>1.025811147766364</v>
+        <v>1.036406785253035</v>
       </c>
       <c r="K24">
-        <v>1.036520564943058</v>
+        <v>1.045221341710291</v>
       </c>
       <c r="L24">
-        <v>1.019883603352976</v>
+        <v>1.03337721245887</v>
       </c>
       <c r="M24">
-        <v>1.040443216284787</v>
+        <v>1.055620311410594</v>
       </c>
       <c r="N24">
-        <v>1.012461179848954</v>
+        <v>1.016116812087667</v>
       </c>
     </row>
     <row r="25" spans="1:14">
@@ -1361,40 +1361,40 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C25">
-        <v>1.005135253226975</v>
+        <v>1.031546563404294</v>
       </c>
       <c r="D25">
-        <v>1.028310621053795</v>
+        <v>1.042994024446681</v>
       </c>
       <c r="E25">
-        <v>1.011323734670524</v>
+        <v>1.031138858297075</v>
       </c>
       <c r="F25">
-        <v>1.033491826456129</v>
+        <v>1.053716705849159</v>
       </c>
       <c r="G25">
         <v>1</v>
       </c>
       <c r="I25">
-        <v>1.050744373603931</v>
+        <v>1.041487905232785</v>
       </c>
       <c r="J25">
-        <v>1.029491022960457</v>
+        <v>1.037165098461402</v>
       </c>
       <c r="K25">
-        <v>1.040484791079678</v>
+        <v>1.046024115274688</v>
       </c>
       <c r="L25">
-        <v>1.023748771170127</v>
+        <v>1.034206108638731</v>
       </c>
       <c r="M25">
-        <v>1.045591556608757</v>
+        <v>1.056713972495097</v>
       </c>
       <c r="N25">
-        <v>1.013693483661226</v>
+        <v>1.016369731102625</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_3_18/res_bus/vm_pu.xlsx
+++ b/Code/Results/Cases/Case_3_18/res_bus/vm_pu.xlsx
@@ -418,40 +418,40 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C2">
-        <v>1.032640661117163</v>
+        <v>1.010446904927625</v>
       </c>
       <c r="D2">
-        <v>1.04389119359344</v>
+        <v>1.032504824173627</v>
       </c>
       <c r="E2">
-        <v>1.032061870338741</v>
+        <v>1.015481639219462</v>
       </c>
       <c r="F2">
-        <v>1.054845114770408</v>
+        <v>1.038611848196537</v>
       </c>
       <c r="G2">
         <v>1</v>
       </c>
       <c r="I2">
-        <v>1.041792787156781</v>
+        <v>1.052603100217817</v>
       </c>
       <c r="J2">
-        <v>1.037769767682524</v>
+        <v>1.03231957828437</v>
       </c>
       <c r="K2">
-        <v>1.046663782943812</v>
+        <v>1.043529153374918</v>
       </c>
       <c r="L2">
-        <v>1.034868186670981</v>
+        <v>1.026729422714704</v>
       </c>
       <c r="M2">
-        <v>1.057587204250136</v>
+        <v>1.049558243070283</v>
       </c>
       <c r="N2">
-        <v>1.016571308471184</v>
+        <v>1.014640576311882</v>
       </c>
     </row>
     <row r="3" spans="1:14">
@@ -459,40 +459,40 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C3">
-        <v>1.03343642842062</v>
+        <v>1.014204258747532</v>
       </c>
       <c r="D3">
-        <v>1.044543721015948</v>
+        <v>1.035476960620289</v>
       </c>
       <c r="E3">
-        <v>1.032734065265371</v>
+        <v>1.018435483843816</v>
       </c>
       <c r="F3">
-        <v>1.055666363058192</v>
+        <v>1.042242677284159</v>
       </c>
       <c r="G3">
         <v>1</v>
       </c>
       <c r="I3">
-        <v>1.042012014437832</v>
+        <v>1.053897937271941</v>
       </c>
       <c r="J3">
-        <v>1.038208695475633</v>
+        <v>1.034315051166114</v>
       </c>
       <c r="K3">
-        <v>1.047127851775967</v>
+        <v>1.04567517118766</v>
       </c>
       <c r="L3">
-        <v>1.035349440994537</v>
+        <v>1.028837790456256</v>
       </c>
       <c r="M3">
-        <v>1.058221756177087</v>
+        <v>1.052362146063968</v>
       </c>
       <c r="N3">
-        <v>1.016717575964628</v>
+        <v>1.015308614381037</v>
       </c>
     </row>
     <row r="4" spans="1:14">
@@ -500,40 +500,40 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C4">
-        <v>1.033951959870905</v>
+        <v>1.016591736383033</v>
       </c>
       <c r="D4">
-        <v>1.04496644895903</v>
+        <v>1.037367680671428</v>
       </c>
       <c r="E4">
-        <v>1.033169937314351</v>
+        <v>1.02031802084306</v>
       </c>
       <c r="F4">
-        <v>1.056198643299491</v>
+        <v>1.044553753484675</v>
       </c>
       <c r="G4">
         <v>1</v>
       </c>
       <c r="I4">
-        <v>1.042152871726409</v>
+        <v>1.054711220881157</v>
       </c>
       <c r="J4">
-        <v>1.038492649858487</v>
+        <v>1.035580339851287</v>
       </c>
       <c r="K4">
-        <v>1.047427947920108</v>
+        <v>1.047035096152864</v>
       </c>
       <c r="L4">
-        <v>1.035661080081816</v>
+        <v>1.030177257138197</v>
       </c>
       <c r="M4">
-        <v>1.058632578439082</v>
+        <v>1.054142622495726</v>
       </c>
       <c r="N4">
-        <v>1.016812173786673</v>
+        <v>1.015732139162401</v>
       </c>
     </row>
     <row r="5" spans="1:14">
@@ -541,40 +541,40 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C5">
-        <v>1.034168835183674</v>
+        <v>1.017585260589472</v>
       </c>
       <c r="D5">
-        <v>1.045144281383541</v>
+        <v>1.038154972428468</v>
       </c>
       <c r="E5">
-        <v>1.033353395564738</v>
+        <v>1.021102736065661</v>
       </c>
       <c r="F5">
-        <v>1.056422621967682</v>
+        <v>1.045516416120734</v>
       </c>
       <c r="G5">
         <v>1</v>
       </c>
       <c r="I5">
-        <v>1.042211848468954</v>
+        <v>1.055047354164046</v>
       </c>
       <c r="J5">
-        <v>1.038612008333313</v>
+        <v>1.036106212801017</v>
       </c>
       <c r="K5">
-        <v>1.047554062055988</v>
+        <v>1.047600099304411</v>
       </c>
       <c r="L5">
-        <v>1.035792148094232</v>
+        <v>1.030734583050393</v>
       </c>
       <c r="M5">
-        <v>1.0588053401764</v>
+        <v>1.054883238844636</v>
       </c>
       <c r="N5">
-        <v>1.0168519309882</v>
+        <v>1.015908144994545</v>
       </c>
     </row>
     <row r="6" spans="1:14">
@@ -582,40 +582,40 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C6">
-        <v>1.03420525800667</v>
+        <v>1.017751489995065</v>
       </c>
       <c r="D6">
-        <v>1.045174147071354</v>
+        <v>1.038286724170029</v>
       </c>
       <c r="E6">
-        <v>1.033384211719896</v>
+        <v>1.021234105532542</v>
       </c>
       <c r="F6">
-        <v>1.056460241112017</v>
+        <v>1.045677536027596</v>
       </c>
       <c r="G6">
         <v>1</v>
       </c>
       <c r="I6">
-        <v>1.0422217368442</v>
+        <v>1.055103457085995</v>
       </c>
       <c r="J6">
-        <v>1.038632048173902</v>
+        <v>1.03619415839186</v>
       </c>
       <c r="K6">
-        <v>1.047575234419145</v>
+        <v>1.047694576902484</v>
       </c>
       <c r="L6">
-        <v>1.035814158171071</v>
+        <v>1.030827825441903</v>
       </c>
       <c r="M6">
-        <v>1.058834350634314</v>
+        <v>1.055007134360456</v>
       </c>
       <c r="N6">
-        <v>1.016858605696327</v>
+        <v>1.015937578660769</v>
       </c>
     </row>
     <row r="7" spans="1:14">
@@ -623,40 +623,40 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C7">
-        <v>1.033954857198412</v>
+        <v>1.016605051466677</v>
       </c>
       <c r="D7">
-        <v>1.044968824704878</v>
+        <v>1.037378229972891</v>
       </c>
       <c r="E7">
-        <v>1.033172387839666</v>
+        <v>1.020328532337414</v>
       </c>
       <c r="F7">
-        <v>1.056201635298496</v>
+        <v>1.044566651319288</v>
       </c>
       <c r="G7">
         <v>1</v>
       </c>
       <c r="I7">
-        <v>1.042153660719329</v>
+        <v>1.054715734845287</v>
       </c>
       <c r="J7">
-        <v>1.038494244796544</v>
+        <v>1.035587390186414</v>
       </c>
       <c r="K7">
-        <v>1.047429633246999</v>
+        <v>1.047042671908156</v>
       </c>
       <c r="L7">
-        <v>1.035662831204902</v>
+        <v>1.030184726695903</v>
       </c>
       <c r="M7">
-        <v>1.058634886687506</v>
+        <v>1.054152549407488</v>
       </c>
       <c r="N7">
-        <v>1.016812705070993</v>
+        <v>1.015734498929385</v>
       </c>
     </row>
     <row r="8" spans="1:14">
@@ -664,40 +664,40 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C8">
-        <v>1.03290946562692</v>
+        <v>1.011725976303247</v>
       </c>
       <c r="D8">
-        <v>1.044111613825814</v>
+        <v>1.033516114932447</v>
       </c>
       <c r="E8">
-        <v>1.032288850760503</v>
+        <v>1.016485985040537</v>
       </c>
       <c r="F8">
-        <v>1.055122476503039</v>
+        <v>1.039846995747912</v>
       </c>
       <c r="G8">
         <v>1</v>
       </c>
       <c r="I8">
-        <v>1.041867082038048</v>
+        <v>1.053045849549861</v>
       </c>
       <c r="J8">
-        <v>1.037918117295275</v>
+        <v>1.032999415937251</v>
       </c>
       <c r="K8">
-        <v>1.046820655135331</v>
+        <v>1.04426044926244</v>
       </c>
       <c r="L8">
-        <v>1.035030779245561</v>
+        <v>1.027447179371834</v>
       </c>
       <c r="M8">
-        <v>1.057801606464117</v>
+        <v>1.050512967064688</v>
       </c>
       <c r="N8">
-        <v>1.016620749713474</v>
+        <v>1.014868182553234</v>
       </c>
     </row>
     <row r="9" spans="1:14">
@@ -705,40 +705,40 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C9">
-        <v>1.03107215437854</v>
+        <v>1.002778518495714</v>
       </c>
       <c r="D9">
-        <v>1.0426050041001</v>
+        <v>1.026452559688812</v>
       </c>
       <c r="E9">
-        <v>1.030739051908677</v>
+        <v>1.009485409029331</v>
       </c>
       <c r="F9">
-        <v>1.053227674134899</v>
+        <v>1.031224795017259</v>
       </c>
       <c r="G9">
         <v>1</v>
       </c>
       <c r="I9">
-        <v>1.041354493541941</v>
+        <v>1.049910031846071</v>
       </c>
       <c r="J9">
-        <v>1.036902494719468</v>
+        <v>1.028233540201812</v>
       </c>
       <c r="K9">
-        <v>1.045746184985591</v>
+        <v>1.039130561342016</v>
       </c>
       <c r="L9">
-        <v>1.033918887628848</v>
+        <v>1.022426444081838</v>
       </c>
       <c r="M9">
-        <v>1.056335058532505</v>
+        <v>1.043830800222126</v>
       </c>
       <c r="N9">
-        <v>1.016282160207294</v>
+        <v>1.013272396356413</v>
       </c>
     </row>
     <row r="10" spans="1:14">
@@ -746,40 +746,40 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C10">
-        <v>1.029850614632654</v>
+        <v>0.9965568438800501</v>
       </c>
       <c r="D10">
-        <v>1.041603335607996</v>
+        <v>1.021556150905351</v>
       </c>
       <c r="E10">
-        <v>1.02971074327645</v>
+        <v>1.004650923503311</v>
       </c>
       <c r="F10">
-        <v>1.051969176701077</v>
+        <v>1.02525343094545</v>
       </c>
       <c r="G10">
         <v>1</v>
       </c>
       <c r="I10">
-        <v>1.041007710263022</v>
+        <v>1.047681969703097</v>
       </c>
       <c r="J10">
-        <v>1.036225212429545</v>
+        <v>1.024907739976394</v>
       </c>
       <c r="K10">
-        <v>1.045029032862594</v>
+        <v>1.035546812328646</v>
       </c>
       <c r="L10">
-        <v>1.033178964154312</v>
+        <v>1.01893670879178</v>
       </c>
       <c r="M10">
-        <v>1.055358673038432</v>
+        <v>1.039181220767639</v>
       </c>
       <c r="N10">
-        <v>1.016056233225194</v>
+        <v>1.01215863685013</v>
       </c>
     </row>
     <row r="11" spans="1:14">
@@ -787,40 +787,40 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C11">
-        <v>1.029322487596133</v>
+        <v>0.9937967983997799</v>
       </c>
       <c r="D11">
-        <v>1.041170275253848</v>
+        <v>1.019388214577125</v>
       </c>
       <c r="E11">
-        <v>1.02926665814097</v>
+        <v>1.002514717134628</v>
       </c>
       <c r="F11">
-        <v>1.051425375238129</v>
+        <v>1.022610599701266</v>
       </c>
       <c r="G11">
         <v>1</v>
       </c>
       <c r="I11">
-        <v>1.040856360713405</v>
+        <v>1.046682772210268</v>
       </c>
       <c r="J11">
-        <v>1.03593191033463</v>
+        <v>1.023429934330043</v>
       </c>
       <c r="K11">
-        <v>1.044718316972565</v>
+        <v>1.033953531343918</v>
       </c>
       <c r="L11">
-        <v>1.032858904125108</v>
+        <v>1.017389364883925</v>
       </c>
       <c r="M11">
-        <v>1.054936220783909</v>
+        <v>1.037118349238849</v>
       </c>
       <c r="N11">
-        <v>1.015958362612499</v>
+        <v>1.011663731356606</v>
       </c>
     </row>
     <row r="12" spans="1:14">
@@ -828,40 +828,40 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C12">
-        <v>1.029126440848492</v>
+        <v>0.9927612127632022</v>
       </c>
       <c r="D12">
-        <v>1.041009519749126</v>
+        <v>1.018575473217338</v>
       </c>
       <c r="E12">
-        <v>1.029101884268328</v>
+        <v>1.001714517612764</v>
       </c>
       <c r="F12">
-        <v>1.051223555981023</v>
+        <v>1.021619960719572</v>
       </c>
       <c r="G12">
         <v>1</v>
       </c>
       <c r="I12">
-        <v>1.040799964827492</v>
+        <v>1.046306288897576</v>
       </c>
       <c r="J12">
-        <v>1.035822961014343</v>
+        <v>1.02287512236626</v>
       </c>
       <c r="K12">
-        <v>1.044602877004252</v>
+        <v>1.03335524430844</v>
       </c>
       <c r="L12">
-        <v>1.032740070853193</v>
+        <v>1.016808943722781</v>
       </c>
       <c r="M12">
-        <v>1.054779354427506</v>
+        <v>1.036344356051579</v>
       </c>
       <c r="N12">
-        <v>1.015922003160424</v>
+        <v>1.011477929859397</v>
       </c>
     </row>
     <row r="13" spans="1:14">
@@ -869,40 +869,40 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C13">
-        <v>1.029168487939775</v>
+        <v>0.9929838269318161</v>
       </c>
       <c r="D13">
-        <v>1.041043997686197</v>
+        <v>1.018750152145293</v>
       </c>
       <c r="E13">
-        <v>1.02913722068662</v>
+        <v>1.001886471778315</v>
       </c>
       <c r="F13">
-        <v>1.051266839042423</v>
+        <v>1.021832868583692</v>
       </c>
       <c r="G13">
         <v>1</v>
       </c>
       <c r="I13">
-        <v>1.040812069973851</v>
+        <v>1.046387290085089</v>
       </c>
       <c r="J13">
-        <v>1.035846331167254</v>
+        <v>1.022994401637133</v>
       </c>
       <c r="K13">
-        <v>1.044627640434256</v>
+        <v>1.033483875720007</v>
       </c>
       <c r="L13">
-        <v>1.03276555865012</v>
+        <v>1.016933706226519</v>
       </c>
       <c r="M13">
-        <v>1.054813000447103</v>
+        <v>1.036510736012124</v>
       </c>
       <c r="N13">
-        <v>1.015929802647942</v>
+        <v>1.011517875338216</v>
       </c>
     </row>
     <row r="14" spans="1:14">
@@ -910,40 +910,40 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C14">
-        <v>1.029306279788231</v>
+        <v>0.9937114111272467</v>
       </c>
       <c r="D14">
-        <v>1.041156985053768</v>
+        <v>1.019321187355935</v>
       </c>
       <c r="E14">
-        <v>1.029253034216037</v>
+        <v>1.002448711101698</v>
       </c>
       <c r="F14">
-        <v>1.051408689257707</v>
+        <v>1.022528898515885</v>
       </c>
       <c r="G14">
         <v>1</v>
       </c>
       <c r="I14">
-        <v>1.040851702636421</v>
+        <v>1.046651761833046</v>
       </c>
       <c r="J14">
-        <v>1.035922904621091</v>
+        <v>1.023384194872379</v>
       </c>
       <c r="K14">
-        <v>1.044708775196012</v>
+        <v>1.033904210188431</v>
       </c>
       <c r="L14">
-        <v>1.032849080275513</v>
+        <v>1.017341504046811</v>
       </c>
       <c r="M14">
-        <v>1.054923253106802</v>
+        <v>1.037054530647002</v>
       </c>
       <c r="N14">
-        <v>1.015955357247475</v>
+        <v>1.011648413599823</v>
       </c>
     </row>
     <row r="15" spans="1:14">
@@ -951,40 +951,40 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C15">
-        <v>1.029391194265895</v>
+        <v>0.9941583097617912</v>
       </c>
       <c r="D15">
-        <v>1.041226613925594</v>
+        <v>1.019672021525603</v>
       </c>
       <c r="E15">
-        <v>1.029324414547033</v>
+        <v>1.002794226535165</v>
       </c>
       <c r="F15">
-        <v>1.051496110820375</v>
+        <v>1.022956544653176</v>
       </c>
       <c r="G15">
         <v>1</v>
       </c>
       <c r="I15">
-        <v>1.040876098077366</v>
+        <v>1.046813999360086</v>
       </c>
       <c r="J15">
-        <v>1.035970083580368</v>
+        <v>1.023623572089055</v>
       </c>
       <c r="K15">
-        <v>1.044758761564767</v>
+        <v>1.0341623272579</v>
       </c>
       <c r="L15">
-        <v>1.032900547542676</v>
+        <v>1.017592003786314</v>
       </c>
       <c r="M15">
-        <v>1.054991190249576</v>
+        <v>1.03738854405861</v>
       </c>
       <c r="N15">
-        <v>1.01597110150549</v>
+        <v>1.011728579042346</v>
       </c>
     </row>
     <row r="16" spans="1:14">
@@ -992,40 +992,40 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C16">
-        <v>1.029885681855986</v>
+        <v>0.9967385891235098</v>
       </c>
       <c r="D16">
-        <v>1.041632090650951</v>
+        <v>1.02169899840041</v>
       </c>
       <c r="E16">
-        <v>1.029740240756668</v>
+        <v>1.004791770222112</v>
       </c>
       <c r="F16">
-        <v>1.052005291132684</v>
+        <v>1.025427589911267</v>
       </c>
       <c r="G16">
         <v>1</v>
       </c>
       <c r="I16">
-        <v>1.041017729834754</v>
+        <v>1.047747543931627</v>
       </c>
       <c r="J16">
-        <v>1.036244677310327</v>
+        <v>1.025005003739544</v>
       </c>
       <c r="K16">
-        <v>1.045049650292669</v>
+        <v>1.035651658933452</v>
       </c>
       <c r="L16">
-        <v>1.033200212595949</v>
+        <v>1.01903861831388</v>
       </c>
       <c r="M16">
-        <v>1.055386716888776</v>
+        <v>1.039317056820542</v>
       </c>
       <c r="N16">
-        <v>1.016062727715292</v>
+        <v>1.012191209685809</v>
       </c>
     </row>
     <row r="17" spans="1:14">
@@ -1033,40 +1033,40 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C17">
-        <v>1.030196078377453</v>
+        <v>0.9983391362139239</v>
       </c>
       <c r="D17">
-        <v>1.041886615882305</v>
+        <v>1.022957475632958</v>
       </c>
       <c r="E17">
-        <v>1.030001394654893</v>
+        <v>1.00603311297787</v>
       </c>
       <c r="F17">
-        <v>1.052324992183516</v>
+        <v>1.026962036794538</v>
       </c>
       <c r="G17">
         <v>1</v>
       </c>
       <c r="I17">
-        <v>1.041106253687559</v>
+        <v>1.048323800569669</v>
       </c>
       <c r="J17">
-        <v>1.036416914415173</v>
+        <v>1.025861288924949</v>
       </c>
       <c r="K17">
-        <v>1.045232068780581</v>
+        <v>1.036574604633505</v>
       </c>
       <c r="L17">
-        <v>1.033388274391886</v>
+        <v>1.019936180370748</v>
       </c>
       <c r="M17">
-        <v>1.05563490966519</v>
+        <v>1.040513281061764</v>
       </c>
       <c r="N17">
-        <v>1.016120191307121</v>
+        <v>1.012477971591108</v>
       </c>
     </row>
     <row r="18" spans="1:14">
@@ -1074,40 +1074,40 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C18">
-        <v>1.030377205231065</v>
+        <v>0.9992663710005296</v>
       </c>
       <c r="D18">
-        <v>1.042035140535595</v>
+        <v>1.023686937021566</v>
       </c>
       <c r="E18">
-        <v>1.030153834959307</v>
+        <v>1.006753053293224</v>
       </c>
       <c r="F18">
-        <v>1.052511577885678</v>
+        <v>1.027851562415707</v>
       </c>
       <c r="G18">
         <v>1</v>
       </c>
       <c r="I18">
-        <v>1.041157773266912</v>
+        <v>1.04865661068692</v>
       </c>
       <c r="J18">
-        <v>1.036517373998445</v>
+        <v>1.026357122634244</v>
       </c>
       <c r="K18">
-        <v>1.04533845252095</v>
+        <v>1.037108956398884</v>
       </c>
       <c r="L18">
-        <v>1.033497999565417</v>
+        <v>1.020456229541618</v>
       </c>
       <c r="M18">
-        <v>1.055779707947626</v>
+        <v>1.041206256682573</v>
       </c>
       <c r="N18">
-        <v>1.016153704692742</v>
+        <v>1.012644020463429</v>
       </c>
     </row>
     <row r="19" spans="1:14">
@@ -1115,40 +1115,40 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C19">
-        <v>1.030438977951437</v>
+        <v>0.9995814728247377</v>
       </c>
       <c r="D19">
-        <v>1.042085794467517</v>
+        <v>1.023934895239444</v>
       </c>
       <c r="E19">
-        <v>1.030205832382168</v>
+        <v>1.006997844824921</v>
       </c>
       <c r="F19">
-        <v>1.052575217295092</v>
+        <v>1.028153947490738</v>
       </c>
       <c r="G19">
         <v>1</v>
       </c>
       <c r="I19">
-        <v>1.041175320598783</v>
+        <v>1.048769533620982</v>
       </c>
       <c r="J19">
-        <v>1.036551627502833</v>
+        <v>1.026525581176907</v>
       </c>
       <c r="K19">
-        <v>1.045374723551235</v>
+        <v>1.037290487300868</v>
       </c>
       <c r="L19">
-        <v>1.033535418382749</v>
+        <v>1.020632968481647</v>
       </c>
       <c r="M19">
-        <v>1.05582908573183</v>
+        <v>1.041441744718159</v>
       </c>
       <c r="N19">
-        <v>1.016165131171995</v>
+        <v>1.012700434973115</v>
       </c>
     </row>
     <row r="20" spans="1:14">
@@ -1156,40 +1156,40 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C20">
-        <v>1.030162767706631</v>
+        <v>0.9981680714135109</v>
       </c>
       <c r="D20">
-        <v>1.041859301059514</v>
+        <v>1.022822929502984</v>
       </c>
       <c r="E20">
-        <v>1.029973363543359</v>
+        <v>1.005900356151097</v>
       </c>
       <c r="F20">
-        <v>1.052290679946269</v>
+        <v>1.026797975846121</v>
       </c>
       <c r="G20">
         <v>1</v>
       </c>
       <c r="I20">
-        <v>1.041096767792852</v>
+        <v>1.048262317275299</v>
       </c>
       <c r="J20">
-        <v>1.036398435346744</v>
+        <v>1.02576979394172</v>
       </c>
       <c r="K20">
-        <v>1.045212498842006</v>
+        <v>1.036475995347826</v>
       </c>
       <c r="L20">
-        <v>1.033368093830046</v>
+        <v>1.019840242334122</v>
       </c>
       <c r="M20">
-        <v>1.055608277644182</v>
+        <v>1.040385432188524</v>
       </c>
       <c r="N20">
-        <v>1.016114026433941</v>
+        <v>1.012447330884603</v>
       </c>
     </row>
     <row r="21" spans="1:14">
@@ -1197,40 +1197,40 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C21">
-        <v>1.029265700109299</v>
+        <v>0.9934974461610506</v>
       </c>
       <c r="D21">
-        <v>1.041123710248155</v>
+        <v>1.01915324049374</v>
       </c>
       <c r="E21">
-        <v>1.029218925058021</v>
+        <v>1.002283333398159</v>
       </c>
       <c r="F21">
-        <v>1.051366913117213</v>
+        <v>1.022324185938492</v>
       </c>
       <c r="G21">
         <v>1</v>
       </c>
       <c r="I21">
-        <v>1.040840036709662</v>
+        <v>1.046574030181822</v>
       </c>
       <c r="J21">
-        <v>1.035900355743643</v>
+        <v>1.023269574906094</v>
       </c>
       <c r="K21">
-        <v>1.044684883744071</v>
+        <v>1.033780612784623</v>
       </c>
       <c r="L21">
-        <v>1.032824483811625</v>
+        <v>1.017221576068296</v>
       </c>
       <c r="M21">
-        <v>1.054890785018297</v>
+        <v>1.036894613160763</v>
       </c>
       <c r="N21">
-        <v>1.015947832215272</v>
+        <v>1.011610028363089</v>
       </c>
     </row>
     <row r="22" spans="1:14">
@@ -1238,40 +1238,40 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C22">
-        <v>1.028702391496351</v>
+        <v>0.9905005232937832</v>
       </c>
       <c r="D22">
-        <v>1.040661808474368</v>
+        <v>1.016802563660045</v>
       </c>
       <c r="E22">
-        <v>1.028745616929496</v>
+        <v>0.9999701527786923</v>
       </c>
       <c r="F22">
-        <v>1.050787105170305</v>
+        <v>1.01945921271502</v>
       </c>
       <c r="G22">
         <v>1</v>
       </c>
       <c r="I22">
-        <v>1.040677590706756</v>
+        <v>1.045481571557212</v>
       </c>
       <c r="J22">
-        <v>1.035587171623793</v>
+        <v>1.021663395290067</v>
       </c>
       <c r="K22">
-        <v>1.044353000014185</v>
+        <v>1.032048349044146</v>
       </c>
       <c r="L22">
-        <v>1.032482991980481</v>
+        <v>1.015542200971556</v>
       </c>
       <c r="M22">
-        <v>1.054439966152506</v>
+        <v>1.034654790174373</v>
       </c>
       <c r="N22">
-        <v>1.015843305128978</v>
+        <v>1.011072137248703</v>
       </c>
     </row>
     <row r="23" spans="1:14">
@@ -1279,40 +1279,40 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C23">
-        <v>1.029000943828981</v>
+        <v>0.9920951277664113</v>
       </c>
       <c r="D23">
-        <v>1.040906614457493</v>
+        <v>1.018052919345706</v>
       </c>
       <c r="E23">
-        <v>1.028996427552011</v>
+        <v>1.001200209526443</v>
       </c>
       <c r="F23">
-        <v>1.051094376752017</v>
+        <v>1.020983062891398</v>
       </c>
       <c r="G23">
         <v>1</v>
       </c>
       <c r="I23">
-        <v>1.040763803649484</v>
+        <v>1.04606369689251</v>
       </c>
       <c r="J23">
-        <v>1.035753198073325</v>
+        <v>1.022518180459838</v>
       </c>
       <c r="K23">
-        <v>1.044528951709631</v>
+        <v>1.032970298828003</v>
       </c>
       <c r="L23">
-        <v>1.032663994595491</v>
+        <v>1.016435666292006</v>
       </c>
       <c r="M23">
-        <v>1.054678924996671</v>
+        <v>1.035846534450602</v>
       </c>
       <c r="N23">
-        <v>1.015898719997947</v>
+        <v>1.011358393730571</v>
       </c>
     </row>
     <row r="24" spans="1:14">
@@ -1320,40 +1320,40 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C24">
-        <v>1.030177819124727</v>
+        <v>0.9982453877841668</v>
       </c>
       <c r="D24">
-        <v>1.041871643253472</v>
+        <v>1.022883739262038</v>
       </c>
       <c r="E24">
-        <v>1.029986029245163</v>
+        <v>1.005960355940098</v>
       </c>
       <c r="F24">
-        <v>1.052306183831301</v>
+        <v>1.026872124869409</v>
       </c>
       <c r="G24">
         <v>1</v>
       </c>
       <c r="I24">
-        <v>1.041101054415442</v>
+        <v>1.048290109148568</v>
       </c>
       <c r="J24">
-        <v>1.036406785253035</v>
+        <v>1.025811147766364</v>
       </c>
       <c r="K24">
-        <v>1.045221341710291</v>
+        <v>1.036520564943058</v>
       </c>
       <c r="L24">
-        <v>1.03337721245887</v>
+        <v>1.019883603352975</v>
       </c>
       <c r="M24">
-        <v>1.055620311410594</v>
+        <v>1.040443216284787</v>
       </c>
       <c r="N24">
-        <v>1.016116812087667</v>
+        <v>1.012461179848954</v>
       </c>
     </row>
     <row r="25" spans="1:14">
@@ -1361,40 +1361,40 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C25">
-        <v>1.031546563404294</v>
+        <v>1.005135253226975</v>
       </c>
       <c r="D25">
-        <v>1.042994024446681</v>
+        <v>1.028310621053795</v>
       </c>
       <c r="E25">
-        <v>1.031138858297075</v>
+        <v>1.011323734670524</v>
       </c>
       <c r="F25">
-        <v>1.053716705849159</v>
+        <v>1.033491826456129</v>
       </c>
       <c r="G25">
         <v>1</v>
       </c>
       <c r="I25">
-        <v>1.041487905232785</v>
+        <v>1.050744373603931</v>
       </c>
       <c r="J25">
-        <v>1.037165098461402</v>
+        <v>1.029491022960457</v>
       </c>
       <c r="K25">
-        <v>1.046024115274688</v>
+        <v>1.040484791079679</v>
       </c>
       <c r="L25">
-        <v>1.034206108638731</v>
+        <v>1.023748771170128</v>
       </c>
       <c r="M25">
-        <v>1.056713972495097</v>
+        <v>1.045591556608758</v>
       </c>
       <c r="N25">
-        <v>1.016369731102625</v>
+        <v>1.013693483661226</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_3_18/res_bus/vm_pu.xlsx
+++ b/Code/Results/Cases/Case_3_18/res_bus/vm_pu.xlsx
@@ -366,13 +366,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:N25"/>
+  <dimension ref="A1:R25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:14">
+    <row r="1" spans="1:18">
       <c r="B1" s="1">
         <v>0</v>
       </c>
@@ -412,8 +412,20 @@
       <c r="N1" s="1">
         <v>12</v>
       </c>
-    </row>
-    <row r="2" spans="1:14">
+      <c r="O1" s="1">
+        <v>13</v>
+      </c>
+      <c r="P1" s="1">
+        <v>14</v>
+      </c>
+      <c r="Q1" s="1">
+        <v>15</v>
+      </c>
+      <c r="R1" s="1">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="2" spans="1:18">
       <c r="A2" s="1">
         <v>0</v>
       </c>
@@ -421,40 +433,52 @@
         <v>1.05</v>
       </c>
       <c r="C2">
-        <v>1.010446904927625</v>
+        <v>1.014185145817269</v>
       </c>
       <c r="D2">
-        <v>1.032504824173627</v>
+        <v>1.033698001385496</v>
       </c>
       <c r="E2">
-        <v>1.015481639219462</v>
+        <v>1.028686970929851</v>
       </c>
       <c r="F2">
-        <v>1.038611848196537</v>
+        <v>1.039538057777554</v>
       </c>
       <c r="G2">
         <v>1</v>
       </c>
       <c r="I2">
-        <v>1.052603100217817</v>
+        <v>1.04889438375641</v>
       </c>
       <c r="J2">
-        <v>1.03231957828437</v>
+        <v>1.035949704073178</v>
       </c>
       <c r="K2">
-        <v>1.043529153374918</v>
+        <v>1.044707013470404</v>
       </c>
       <c r="L2">
-        <v>1.026729422714704</v>
+        <v>1.039760609694582</v>
       </c>
       <c r="M2">
-        <v>1.049558243070283</v>
+        <v>1.050472732709367</v>
       </c>
       <c r="N2">
-        <v>1.014640576311882</v>
-      </c>
-    </row>
-    <row r="3" spans="1:14">
+        <v>1.015832971611248</v>
+      </c>
+      <c r="O2">
+        <v>1.03</v>
+      </c>
+      <c r="P2">
+        <v>1.04851812899664</v>
+      </c>
+      <c r="Q2">
+        <v>1.02</v>
+      </c>
+      <c r="R2">
+        <v>1.042682010164093</v>
+      </c>
+    </row>
+    <row r="3" spans="1:18">
       <c r="A3" s="1">
         <v>1</v>
       </c>
@@ -462,40 +486,52 @@
         <v>1.05</v>
       </c>
       <c r="C3">
-        <v>1.014204258747532</v>
+        <v>1.017328109247598</v>
       </c>
       <c r="D3">
-        <v>1.035476960620289</v>
+        <v>1.035777719493578</v>
       </c>
       <c r="E3">
-        <v>1.018435483843816</v>
+        <v>1.03109193904351</v>
       </c>
       <c r="F3">
-        <v>1.042242677284159</v>
+        <v>1.04188098490716</v>
       </c>
       <c r="G3">
         <v>1</v>
       </c>
       <c r="I3">
-        <v>1.053897937271941</v>
+        <v>1.049521997892463</v>
       </c>
       <c r="J3">
-        <v>1.034315051166114</v>
+        <v>1.037357285827015</v>
       </c>
       <c r="K3">
-        <v>1.04567517118766</v>
+        <v>1.045972402690239</v>
       </c>
       <c r="L3">
-        <v>1.028837790456256</v>
+        <v>1.041341867716278</v>
       </c>
       <c r="M3">
-        <v>1.052362146063968</v>
+        <v>1.052004631221862</v>
       </c>
       <c r="N3">
-        <v>1.015308614381037</v>
-      </c>
-    </row>
-    <row r="4" spans="1:14">
+        <v>1.016308935201961</v>
+      </c>
+      <c r="O3">
+        <v>1.03</v>
+      </c>
+      <c r="P3">
+        <v>1.049730509677513</v>
+      </c>
+      <c r="Q3">
+        <v>1.02</v>
+      </c>
+      <c r="R3">
+        <v>1.043574088547595</v>
+      </c>
+    </row>
+    <row r="4" spans="1:18">
       <c r="A4" s="1">
         <v>2</v>
       </c>
@@ -503,40 +539,52 @@
         <v>1.05</v>
       </c>
       <c r="C4">
-        <v>1.016591736383033</v>
+        <v>1.019331351097999</v>
       </c>
       <c r="D4">
-        <v>1.037367680671428</v>
+        <v>1.037107536365431</v>
       </c>
       <c r="E4">
-        <v>1.02031802084306</v>
+        <v>1.032630682254995</v>
       </c>
       <c r="F4">
-        <v>1.044553753484675</v>
+        <v>1.043381081329271</v>
       </c>
       <c r="G4">
         <v>1</v>
       </c>
       <c r="I4">
-        <v>1.054711220881157</v>
+        <v>1.049915083706876</v>
       </c>
       <c r="J4">
-        <v>1.035580339851287</v>
+        <v>1.038253160314476</v>
       </c>
       <c r="K4">
-        <v>1.047035096152864</v>
+        <v>1.046777820409583</v>
       </c>
       <c r="L4">
-        <v>1.030177257138197</v>
+        <v>1.042350610340907</v>
       </c>
       <c r="M4">
-        <v>1.054142622495726</v>
+        <v>1.052982677439467</v>
       </c>
       <c r="N4">
-        <v>1.015732139162401</v>
-      </c>
-    </row>
-    <row r="5" spans="1:14">
+        <v>1.016611852026791</v>
+      </c>
+      <c r="O4">
+        <v>1.03</v>
+      </c>
+      <c r="P4">
+        <v>1.050504557532916</v>
+      </c>
+      <c r="Q4">
+        <v>1.02</v>
+      </c>
+      <c r="R4">
+        <v>1.044144471412847</v>
+      </c>
+    </row>
+    <row r="5" spans="1:18">
       <c r="A5" s="1">
         <v>3</v>
       </c>
@@ -544,40 +592,52 @@
         <v>1.05</v>
       </c>
       <c r="C5">
-        <v>1.017585260589472</v>
+        <v>1.020168843400729</v>
       </c>
       <c r="D5">
-        <v>1.038154972428468</v>
+        <v>1.037666326835528</v>
       </c>
       <c r="E5">
-        <v>1.021102736065661</v>
+        <v>1.033275790785733</v>
       </c>
       <c r="F5">
-        <v>1.045516416120734</v>
+        <v>1.044010389921445</v>
       </c>
       <c r="G5">
         <v>1</v>
       </c>
       <c r="I5">
-        <v>1.055047354164046</v>
+        <v>1.050079016267689</v>
       </c>
       <c r="J5">
-        <v>1.036106212801017</v>
+        <v>1.038628664437413</v>
       </c>
       <c r="K5">
-        <v>1.047600099304411</v>
+        <v>1.047116699643974</v>
       </c>
       <c r="L5">
-        <v>1.030734583050393</v>
+        <v>1.042773571908591</v>
       </c>
       <c r="M5">
-        <v>1.054883238844636</v>
+        <v>1.053393122421145</v>
       </c>
       <c r="N5">
-        <v>1.015908144994545</v>
-      </c>
-    </row>
-    <row r="6" spans="1:14">
+        <v>1.016739012869177</v>
+      </c>
+      <c r="O5">
+        <v>1.03</v>
+      </c>
+      <c r="P5">
+        <v>1.050829392718033</v>
+      </c>
+      <c r="Q5">
+        <v>1.02</v>
+      </c>
+      <c r="R5">
+        <v>1.044391212735539</v>
+      </c>
+    </row>
+    <row r="6" spans="1:18">
       <c r="A6" s="1">
         <v>4</v>
       </c>
@@ -585,40 +645,52 @@
         <v>1.05</v>
       </c>
       <c r="C6">
-        <v>1.017751489995065</v>
+        <v>1.020312025462414</v>
       </c>
       <c r="D6">
-        <v>1.038286724170029</v>
+        <v>1.037764152266416</v>
       </c>
       <c r="E6">
-        <v>1.021234105532542</v>
+        <v>1.033386673112556</v>
       </c>
       <c r="F6">
-        <v>1.045677536027596</v>
+        <v>1.044118756213481</v>
       </c>
       <c r="G6">
         <v>1</v>
       </c>
       <c r="I6">
-        <v>1.055103457085995</v>
+        <v>1.050108509582577</v>
       </c>
       <c r="J6">
-        <v>1.03619415839186</v>
+        <v>1.038694415436556</v>
       </c>
       <c r="K6">
-        <v>1.047694576902484</v>
+        <v>1.047177589692357</v>
       </c>
       <c r="L6">
-        <v>1.030827825441903</v>
+        <v>1.042847164347009</v>
       </c>
       <c r="M6">
-        <v>1.055007134360456</v>
+        <v>1.053464746281274</v>
       </c>
       <c r="N6">
-        <v>1.015937578660769</v>
-      </c>
-    </row>
-    <row r="7" spans="1:14">
+        <v>1.016761520460246</v>
+      </c>
+      <c r="O6">
+        <v>1.03</v>
+      </c>
+      <c r="P6">
+        <v>1.050886077401654</v>
+      </c>
+      <c r="Q6">
+        <v>1.02</v>
+      </c>
+      <c r="R6">
+        <v>1.04444295958337</v>
+      </c>
+    </row>
+    <row r="7" spans="1:18">
       <c r="A7" s="1">
         <v>5</v>
       </c>
@@ -626,40 +698,52 @@
         <v>1.05</v>
       </c>
       <c r="C7">
-        <v>1.016605051466677</v>
+        <v>1.019350570946628</v>
       </c>
       <c r="D7">
-        <v>1.037378229972891</v>
+        <v>1.037126331358247</v>
       </c>
       <c r="E7">
-        <v>1.020328532337414</v>
+        <v>1.032646854118626</v>
       </c>
       <c r="F7">
-        <v>1.044566651319288</v>
+        <v>1.04339734015787</v>
       </c>
       <c r="G7">
         <v>1</v>
       </c>
       <c r="I7">
-        <v>1.054715734845287</v>
+        <v>1.04992305526422</v>
       </c>
       <c r="J7">
-        <v>1.035587390186414</v>
+        <v>1.038265998707498</v>
       </c>
       <c r="K7">
-        <v>1.047042671908156</v>
+        <v>1.046793549911614</v>
       </c>
       <c r="L7">
-        <v>1.030184726695903</v>
+        <v>1.042363727197821</v>
       </c>
       <c r="M7">
-        <v>1.054152549407488</v>
+        <v>1.05299592421757</v>
       </c>
       <c r="N7">
-        <v>1.015734498929385</v>
-      </c>
-    </row>
-    <row r="8" spans="1:14">
+        <v>1.016616857351199</v>
+      </c>
+      <c r="O7">
+        <v>1.03</v>
+      </c>
+      <c r="P7">
+        <v>1.050515041326637</v>
+      </c>
+      <c r="Q7">
+        <v>1.02</v>
+      </c>
+      <c r="R7">
+        <v>1.044175586745209</v>
+      </c>
+    </row>
+    <row r="8" spans="1:18">
       <c r="A8" s="1">
         <v>6</v>
       </c>
@@ -667,40 +751,52 @@
         <v>1.05</v>
       </c>
       <c r="C8">
-        <v>1.011725976303247</v>
+        <v>1.015263740209364</v>
       </c>
       <c r="D8">
-        <v>1.033516114932447</v>
+        <v>1.034418193329844</v>
       </c>
       <c r="E8">
-        <v>1.016485985040537</v>
+        <v>1.029512821409733</v>
       </c>
       <c r="F8">
-        <v>1.039846995747912</v>
+        <v>1.040342940878565</v>
       </c>
       <c r="G8">
         <v>1</v>
       </c>
       <c r="I8">
-        <v>1.053045849549861</v>
+        <v>1.049116376690764</v>
       </c>
       <c r="J8">
-        <v>1.032999415937251</v>
+        <v>1.03643825237056</v>
       </c>
       <c r="K8">
-        <v>1.04426044926244</v>
+        <v>1.045151288821493</v>
       </c>
       <c r="L8">
-        <v>1.027447179371834</v>
+        <v>1.040307328515288</v>
       </c>
       <c r="M8">
-        <v>1.050512967064688</v>
+        <v>1.05100282354512</v>
       </c>
       <c r="N8">
-        <v>1.014868182553234</v>
-      </c>
-    </row>
-    <row r="9" spans="1:14">
+        <v>1.015999030891634</v>
+      </c>
+      <c r="O8">
+        <v>1.03</v>
+      </c>
+      <c r="P8">
+        <v>1.048937655633519</v>
+      </c>
+      <c r="Q8">
+        <v>1.02</v>
+      </c>
+      <c r="R8">
+        <v>1.043018921841005</v>
+      </c>
+    </row>
+    <row r="9" spans="1:18">
       <c r="A9" s="1">
         <v>7</v>
       </c>
@@ -708,40 +804,52 @@
         <v>1.05</v>
       </c>
       <c r="C9">
-        <v>1.002778518495714</v>
+        <v>1.007807695342774</v>
       </c>
       <c r="D9">
-        <v>1.026452559688812</v>
+        <v>1.029502836663688</v>
       </c>
       <c r="E9">
-        <v>1.009485409029331</v>
+        <v>1.023840351148175</v>
       </c>
       <c r="F9">
-        <v>1.031224795017259</v>
+        <v>1.034822243326897</v>
       </c>
       <c r="G9">
         <v>1</v>
       </c>
       <c r="I9">
-        <v>1.049910031846071</v>
+        <v>1.047584445838927</v>
       </c>
       <c r="J9">
-        <v>1.028233540201812</v>
+        <v>1.033087724683239</v>
       </c>
       <c r="K9">
-        <v>1.039130561342016</v>
+        <v>1.042134722230807</v>
       </c>
       <c r="L9">
-        <v>1.022426444081838</v>
+        <v>1.036558124430034</v>
       </c>
       <c r="M9">
-        <v>1.043830800222126</v>
+        <v>1.047374533661882</v>
       </c>
       <c r="N9">
-        <v>1.013272396356413</v>
-      </c>
-    </row>
-    <row r="10" spans="1:14">
+        <v>1.014865278247176</v>
+      </c>
+      <c r="O9">
+        <v>1.03</v>
+      </c>
+      <c r="P9">
+        <v>1.046066134998191</v>
+      </c>
+      <c r="Q9">
+        <v>1.02</v>
+      </c>
+      <c r="R9">
+        <v>1.040882880246921</v>
+      </c>
+    </row>
+    <row r="10" spans="1:18">
       <c r="A10" s="1">
         <v>8</v>
       </c>
@@ -749,40 +857,52 @@
         <v>1.05</v>
       </c>
       <c r="C10">
-        <v>0.9965568438800501</v>
+        <v>1.002707283782887</v>
       </c>
       <c r="D10">
-        <v>1.021556150905351</v>
+        <v>1.026186434498249</v>
       </c>
       <c r="E10">
-        <v>1.004650923503311</v>
+        <v>1.020019867638674</v>
       </c>
       <c r="F10">
-        <v>1.02525343094545</v>
+        <v>1.031148395148261</v>
       </c>
       <c r="G10">
         <v>1</v>
       </c>
       <c r="I10">
-        <v>1.047681969703097</v>
+        <v>1.046520132530126</v>
       </c>
       <c r="J10">
-        <v>1.024907739976394</v>
+        <v>1.030813899007196</v>
       </c>
       <c r="K10">
-        <v>1.035546812328646</v>
+        <v>1.040098451115447</v>
       </c>
       <c r="L10">
-        <v>1.01893670879178</v>
+        <v>1.034036826525056</v>
       </c>
       <c r="M10">
-        <v>1.039181220767639</v>
+        <v>1.044977143505037</v>
       </c>
       <c r="N10">
-        <v>1.01215863685013</v>
-      </c>
-    </row>
-    <row r="11" spans="1:14">
+        <v>1.014099057928767</v>
+      </c>
+      <c r="O10">
+        <v>1.03</v>
+      </c>
+      <c r="P10">
+        <v>1.044219855982966</v>
+      </c>
+      <c r="Q10">
+        <v>1.02</v>
+      </c>
+      <c r="R10">
+        <v>1.039459847627735</v>
+      </c>
+    </row>
+    <row r="11" spans="1:18">
       <c r="A11" s="1">
         <v>9</v>
       </c>
@@ -790,40 +910,52 @@
         <v>1.05</v>
       </c>
       <c r="C11">
-        <v>0.9937967983997799</v>
+        <v>1.000807714973791</v>
       </c>
       <c r="D11">
-        <v>1.019388214577125</v>
+        <v>1.025116078770542</v>
       </c>
       <c r="E11">
-        <v>1.002514717134628</v>
+        <v>1.018813287613159</v>
       </c>
       <c r="F11">
-        <v>1.022610599701266</v>
+        <v>1.03029887504444</v>
       </c>
       <c r="G11">
         <v>1</v>
       </c>
       <c r="I11">
-        <v>1.046682772210268</v>
+        <v>1.046255135662593</v>
       </c>
       <c r="J11">
-        <v>1.023429934330043</v>
+        <v>1.030146930620677</v>
       </c>
       <c r="K11">
-        <v>1.033953531343918</v>
+        <v>1.03957939281463</v>
       </c>
       <c r="L11">
-        <v>1.017389364883925</v>
+        <v>1.033388925069154</v>
       </c>
       <c r="M11">
-        <v>1.037118349238849</v>
+        <v>1.044671158755143</v>
       </c>
       <c r="N11">
-        <v>1.011663731356606</v>
-      </c>
-    </row>
-    <row r="12" spans="1:14">
+        <v>1.013900327231448</v>
+      </c>
+      <c r="O11">
+        <v>1.03</v>
+      </c>
+      <c r="P11">
+        <v>1.044410946692099</v>
+      </c>
+      <c r="Q11">
+        <v>1.02</v>
+      </c>
+      <c r="R11">
+        <v>1.039125519449654</v>
+      </c>
+    </row>
+    <row r="12" spans="1:18">
       <c r="A12" s="1">
         <v>10</v>
       </c>
@@ -831,40 +963,52 @@
         <v>1.05</v>
       </c>
       <c r="C12">
-        <v>0.9927612127632022</v>
+        <v>1.000223629324357</v>
       </c>
       <c r="D12">
-        <v>1.018575473217338</v>
+        <v>1.024852078005795</v>
       </c>
       <c r="E12">
-        <v>1.001714517612764</v>
+        <v>1.018532708036205</v>
       </c>
       <c r="F12">
-        <v>1.021619960719572</v>
+        <v>1.030257344744203</v>
       </c>
       <c r="G12">
         <v>1</v>
       </c>
       <c r="I12">
-        <v>1.046306288897576</v>
+        <v>1.046230533681199</v>
       </c>
       <c r="J12">
-        <v>1.02287512236626</v>
+        <v>1.030018527770374</v>
       </c>
       <c r="K12">
-        <v>1.03335524430844</v>
+        <v>1.039518152635304</v>
       </c>
       <c r="L12">
-        <v>1.016808943722781</v>
+        <v>1.033313260046455</v>
       </c>
       <c r="M12">
-        <v>1.036344356051579</v>
+        <v>1.044826946926367</v>
       </c>
       <c r="N12">
-        <v>1.011477929859397</v>
-      </c>
-    </row>
-    <row r="13" spans="1:14">
+        <v>1.013877810912084</v>
+      </c>
+      <c r="O12">
+        <v>1.03</v>
+      </c>
+      <c r="P12">
+        <v>1.044858516840198</v>
+      </c>
+      <c r="Q12">
+        <v>1.02</v>
+      </c>
+      <c r="R12">
+        <v>1.039082221114009</v>
+      </c>
+    </row>
+    <row r="13" spans="1:18">
       <c r="A13" s="1">
         <v>11</v>
       </c>
@@ -872,40 +1016,52 @@
         <v>1.05</v>
       </c>
       <c r="C13">
-        <v>0.9929838269318161</v>
+        <v>1.000622617492215</v>
       </c>
       <c r="D13">
-        <v>1.018750152145293</v>
+        <v>1.025205016170123</v>
       </c>
       <c r="E13">
-        <v>1.001886471778315</v>
+        <v>1.018956304344851</v>
       </c>
       <c r="F13">
-        <v>1.021832868583692</v>
+        <v>1.030853709603755</v>
       </c>
       <c r="G13">
         <v>1</v>
       </c>
       <c r="I13">
-        <v>1.046387290085089</v>
+        <v>1.046400437520234</v>
       </c>
       <c r="J13">
-        <v>1.022994401637133</v>
+        <v>1.030308125643158</v>
       </c>
       <c r="K13">
-        <v>1.033483875720007</v>
+        <v>1.039822282831857</v>
       </c>
       <c r="L13">
-        <v>1.016933706226519</v>
+        <v>1.0336862789005</v>
       </c>
       <c r="M13">
-        <v>1.036510736012124</v>
+        <v>1.04537061557022</v>
       </c>
       <c r="N13">
-        <v>1.011517875338216</v>
-      </c>
-    </row>
-    <row r="14" spans="1:14">
+        <v>1.013994386358033</v>
+      </c>
+      <c r="O13">
+        <v>1.03</v>
+      </c>
+      <c r="P13">
+        <v>1.045563505117633</v>
+      </c>
+      <c r="Q13">
+        <v>1.02</v>
+      </c>
+      <c r="R13">
+        <v>1.039294770271154</v>
+      </c>
+    </row>
+    <row r="14" spans="1:18">
       <c r="A14" s="1">
         <v>12</v>
       </c>
@@ -913,40 +1069,52 @@
         <v>1.05</v>
       </c>
       <c r="C14">
-        <v>0.9937114111272467</v>
+        <v>1.001348555801533</v>
       </c>
       <c r="D14">
-        <v>1.019321187355935</v>
+        <v>1.025733211100611</v>
       </c>
       <c r="E14">
-        <v>1.002448711101698</v>
+        <v>1.019572402058574</v>
       </c>
       <c r="F14">
-        <v>1.022528898515885</v>
+        <v>1.031560948258826</v>
       </c>
       <c r="G14">
         <v>1</v>
       </c>
       <c r="I14">
-        <v>1.046651761833046</v>
+        <v>1.046607951520068</v>
       </c>
       <c r="J14">
-        <v>1.023384194872379</v>
+        <v>1.03070091473163</v>
       </c>
       <c r="K14">
-        <v>1.033904210188431</v>
+        <v>1.040201978117195</v>
       </c>
       <c r="L14">
-        <v>1.017341504046811</v>
+        <v>1.034150913355025</v>
       </c>
       <c r="M14">
-        <v>1.037054530647002</v>
+        <v>1.045927466148587</v>
       </c>
       <c r="N14">
-        <v>1.011648413599823</v>
-      </c>
-    </row>
-    <row r="15" spans="1:14">
+        <v>1.014139351499321</v>
+      </c>
+      <c r="O14">
+        <v>1.03</v>
+      </c>
+      <c r="P14">
+        <v>1.046176151823625</v>
+      </c>
+      <c r="Q14">
+        <v>1.02</v>
+      </c>
+      <c r="R14">
+        <v>1.039564640886369</v>
+      </c>
+    </row>
+    <row r="15" spans="1:18">
       <c r="A15" s="1">
         <v>13</v>
       </c>
@@ -954,40 +1122,52 @@
         <v>1.05</v>
       </c>
       <c r="C15">
-        <v>0.9941583097617912</v>
+        <v>1.001743012006043</v>
       </c>
       <c r="D15">
-        <v>1.019672021525603</v>
+        <v>1.026002796392385</v>
       </c>
       <c r="E15">
-        <v>1.002794226535165</v>
+        <v>1.019882572679831</v>
       </c>
       <c r="F15">
-        <v>1.022956544653176</v>
+        <v>1.031884658956642</v>
       </c>
       <c r="G15">
         <v>1</v>
       </c>
       <c r="I15">
-        <v>1.046813999360086</v>
+        <v>1.046704377014811</v>
       </c>
       <c r="J15">
-        <v>1.023623572089055</v>
+        <v>1.030892807823476</v>
       </c>
       <c r="K15">
-        <v>1.0341623272579</v>
+        <v>1.040381151591653</v>
       </c>
       <c r="L15">
-        <v>1.017592003786314</v>
+        <v>1.034369126118152</v>
       </c>
       <c r="M15">
-        <v>1.03738854405861</v>
+        <v>1.046160594420416</v>
       </c>
       <c r="N15">
-        <v>1.011728579042346</v>
-      </c>
-    </row>
-    <row r="16" spans="1:14">
+        <v>1.014206938098268</v>
+      </c>
+      <c r="O15">
+        <v>1.03</v>
+      </c>
+      <c r="P15">
+        <v>1.046397783315571</v>
+      </c>
+      <c r="Q15">
+        <v>1.02</v>
+      </c>
+      <c r="R15">
+        <v>1.039697158222288</v>
+      </c>
+    </row>
+    <row r="16" spans="1:18">
       <c r="A16" s="1">
         <v>14</v>
       </c>
@@ -995,40 +1175,52 @@
         <v>1.05</v>
       </c>
       <c r="C16">
-        <v>0.9967385891235098</v>
+        <v>1.003820809554622</v>
       </c>
       <c r="D16">
-        <v>1.02169899840041</v>
+        <v>1.02734047387569</v>
       </c>
       <c r="E16">
-        <v>1.004791770222112</v>
+        <v>1.021418815412423</v>
       </c>
       <c r="F16">
-        <v>1.025427589911267</v>
+        <v>1.033349189345502</v>
       </c>
       <c r="G16">
         <v>1</v>
       </c>
       <c r="I16">
-        <v>1.047747543931627</v>
+        <v>1.047135402973982</v>
       </c>
       <c r="J16">
-        <v>1.025005003739544</v>
+        <v>1.031807347915343</v>
       </c>
       <c r="K16">
-        <v>1.035651658933452</v>
+        <v>1.041197750012606</v>
       </c>
       <c r="L16">
-        <v>1.01903861831388</v>
+        <v>1.035376248665112</v>
       </c>
       <c r="M16">
-        <v>1.039317056820542</v>
+        <v>1.047106346118526</v>
       </c>
       <c r="N16">
-        <v>1.012191209685809</v>
-      </c>
-    </row>
-    <row r="17" spans="1:14">
+        <v>1.014511766666995</v>
+      </c>
+      <c r="O16">
+        <v>1.03</v>
+      </c>
+      <c r="P16">
+        <v>1.047106766949398</v>
+      </c>
+      <c r="Q16">
+        <v>1.02</v>
+      </c>
+      <c r="R16">
+        <v>1.040277666876917</v>
+      </c>
+    </row>
+    <row r="17" spans="1:18">
       <c r="A17" s="1">
         <v>15</v>
       </c>
@@ -1036,40 +1228,52 @@
         <v>1.05</v>
       </c>
       <c r="C17">
-        <v>0.9983391362139239</v>
+        <v>1.005036949082082</v>
       </c>
       <c r="D17">
-        <v>1.022957475632958</v>
+        <v>1.028091714619634</v>
       </c>
       <c r="E17">
-        <v>1.00603311297787</v>
+        <v>1.022276285929788</v>
       </c>
       <c r="F17">
-        <v>1.026962036794538</v>
+        <v>1.034099210477296</v>
       </c>
       <c r="G17">
         <v>1</v>
       </c>
       <c r="I17">
-        <v>1.048323800569669</v>
+        <v>1.047355472775763</v>
       </c>
       <c r="J17">
-        <v>1.025861288924949</v>
+        <v>1.032302931443133</v>
       </c>
       <c r="K17">
-        <v>1.036574604633505</v>
+        <v>1.041624492232397</v>
       </c>
       <c r="L17">
-        <v>1.019936180370748</v>
+        <v>1.035904688277068</v>
       </c>
       <c r="M17">
-        <v>1.040513281061764</v>
+        <v>1.047534654131497</v>
       </c>
       <c r="N17">
-        <v>1.012477971591108</v>
-      </c>
-    </row>
-    <row r="18" spans="1:14">
+        <v>1.014669492048832</v>
+      </c>
+      <c r="O17">
+        <v>1.03</v>
+      </c>
+      <c r="P17">
+        <v>1.047316904817164</v>
+      </c>
+      <c r="Q17">
+        <v>1.02</v>
+      </c>
+      <c r="R17">
+        <v>1.040581961565373</v>
+      </c>
+    </row>
+    <row r="18" spans="1:18">
       <c r="A18" s="1">
         <v>16</v>
       </c>
@@ -1077,40 +1281,52 @@
         <v>1.05</v>
       </c>
       <c r="C18">
-        <v>0.9992663710005296</v>
+        <v>1.005616736351744</v>
       </c>
       <c r="D18">
-        <v>1.023686937021566</v>
+        <v>1.028389109712508</v>
       </c>
       <c r="E18">
-        <v>1.006753053293224</v>
+        <v>1.022608241243142</v>
       </c>
       <c r="F18">
-        <v>1.027851562415707</v>
+        <v>1.034264621706246</v>
       </c>
       <c r="G18">
         <v>1</v>
       </c>
       <c r="I18">
-        <v>1.04865661068692</v>
+        <v>1.047405689055364</v>
       </c>
       <c r="J18">
-        <v>1.026357122634244</v>
+        <v>1.032469216703653</v>
       </c>
       <c r="K18">
-        <v>1.037108956398884</v>
+        <v>1.041735164986433</v>
       </c>
       <c r="L18">
-        <v>1.020456229541618</v>
+        <v>1.036047813636823</v>
       </c>
       <c r="M18">
-        <v>1.041206256682573</v>
+        <v>1.047517000661904</v>
       </c>
       <c r="N18">
-        <v>1.012644020463429</v>
-      </c>
-    </row>
-    <row r="19" spans="1:14">
+        <v>1.014709411078739</v>
+      </c>
+      <c r="O18">
+        <v>1.03</v>
+      </c>
+      <c r="P18">
+        <v>1.047066564514476</v>
+      </c>
+      <c r="Q18">
+        <v>1.02</v>
+      </c>
+      <c r="R18">
+        <v>1.040648641128009</v>
+      </c>
+    </row>
+    <row r="19" spans="1:18">
       <c r="A19" s="1">
         <v>17</v>
       </c>
@@ -1118,40 +1334,52 @@
         <v>1.05</v>
       </c>
       <c r="C19">
-        <v>0.9995814728247377</v>
+        <v>1.005630695420937</v>
       </c>
       <c r="D19">
-        <v>1.023934895239444</v>
+        <v>1.028290916480791</v>
       </c>
       <c r="E19">
-        <v>1.006997844824921</v>
+        <v>1.022471766949201</v>
       </c>
       <c r="F19">
-        <v>1.028153947490738</v>
+        <v>1.033907375693509</v>
       </c>
       <c r="G19">
         <v>1</v>
       </c>
       <c r="I19">
-        <v>1.048769533620982</v>
+        <v>1.047312351787807</v>
       </c>
       <c r="J19">
-        <v>1.026525581176907</v>
+        <v>1.032349262720077</v>
       </c>
       <c r="K19">
-        <v>1.037290487300868</v>
+        <v>1.041576524742323</v>
       </c>
       <c r="L19">
-        <v>1.020632968481647</v>
+        <v>1.035851037402929</v>
       </c>
       <c r="M19">
-        <v>1.041441744718159</v>
+        <v>1.04710386400346</v>
       </c>
       <c r="N19">
-        <v>1.012700434973115</v>
-      </c>
-    </row>
-    <row r="20" spans="1:14">
+        <v>1.014649260569058</v>
+      </c>
+      <c r="O19">
+        <v>1.03</v>
+      </c>
+      <c r="P19">
+        <v>1.046416415568397</v>
+      </c>
+      <c r="Q19">
+        <v>1.02</v>
+      </c>
+      <c r="R19">
+        <v>1.040542837279294</v>
+      </c>
+    </row>
+    <row r="20" spans="1:18">
       <c r="A20" s="1">
         <v>18</v>
       </c>
@@ -1159,40 +1387,52 @@
         <v>1.05</v>
       </c>
       <c r="C20">
-        <v>0.9981680714135109</v>
+        <v>1.004047675056917</v>
       </c>
       <c r="D20">
-        <v>1.022822929502984</v>
+        <v>1.027071766730881</v>
       </c>
       <c r="E20">
-        <v>1.005900356151097</v>
+        <v>1.02102651772934</v>
       </c>
       <c r="F20">
-        <v>1.026797975846121</v>
+        <v>1.032119071679807</v>
       </c>
       <c r="G20">
         <v>1</v>
       </c>
       <c r="I20">
-        <v>1.048262317275299</v>
+        <v>1.04681335943315</v>
       </c>
       <c r="J20">
-        <v>1.02576979394172</v>
+        <v>1.031423452391081</v>
       </c>
       <c r="K20">
-        <v>1.036475995347826</v>
+        <v>1.040654728100515</v>
       </c>
       <c r="L20">
-        <v>1.019840242334122</v>
+        <v>1.034709449858707</v>
       </c>
       <c r="M20">
-        <v>1.040385432188524</v>
+        <v>1.045619717292136</v>
       </c>
       <c r="N20">
-        <v>1.012447330884603</v>
-      </c>
-    </row>
-    <row r="21" spans="1:14">
+        <v>1.014306522107256</v>
+      </c>
+      <c r="O20">
+        <v>1.03</v>
+      </c>
+      <c r="P20">
+        <v>1.044717905270222</v>
+      </c>
+      <c r="Q20">
+        <v>1.02</v>
+      </c>
+      <c r="R20">
+        <v>1.03989499574219</v>
+      </c>
+    </row>
+    <row r="21" spans="1:18">
       <c r="A21" s="1">
         <v>19</v>
       </c>
@@ -1200,40 +1440,52 @@
         <v>1.05</v>
       </c>
       <c r="C21">
-        <v>0.9934974461610506</v>
+        <v>1.000163339502661</v>
       </c>
       <c r="D21">
-        <v>1.01915324049374</v>
+        <v>1.024522445645909</v>
       </c>
       <c r="E21">
-        <v>1.002283333398159</v>
+        <v>1.018088379028244</v>
       </c>
       <c r="F21">
-        <v>1.022324185938492</v>
+        <v>1.029235166584197</v>
       </c>
       <c r="G21">
         <v>1</v>
       </c>
       <c r="I21">
-        <v>1.046574030181822</v>
+        <v>1.045963193282366</v>
       </c>
       <c r="J21">
-        <v>1.023269574906094</v>
+        <v>1.029654233145957</v>
       </c>
       <c r="K21">
-        <v>1.033780612784623</v>
+        <v>1.039053664174563</v>
       </c>
       <c r="L21">
-        <v>1.017221576068296</v>
+        <v>1.032734977968961</v>
       </c>
       <c r="M21">
-        <v>1.036894613160763</v>
+        <v>1.043683059404155</v>
       </c>
       <c r="N21">
-        <v>1.011610028363089</v>
-      </c>
-    </row>
-    <row r="22" spans="1:14">
+        <v>1.013705469566514</v>
+      </c>
+      <c r="O21">
+        <v>1.03</v>
+      </c>
+      <c r="P21">
+        <v>1.043144597140412</v>
+      </c>
+      <c r="Q21">
+        <v>1.02</v>
+      </c>
+      <c r="R21">
+        <v>1.038766199601134</v>
+      </c>
+    </row>
+    <row r="22" spans="1:18">
       <c r="A22" s="1">
         <v>20</v>
       </c>
@@ -1241,40 +1493,52 @@
         <v>1.05</v>
       </c>
       <c r="C22">
-        <v>0.9905005232937832</v>
+        <v>0.9976935778718153</v>
       </c>
       <c r="D22">
-        <v>1.016802563660045</v>
+        <v>1.022911161148903</v>
       </c>
       <c r="E22">
-        <v>0.9999701527786923</v>
+        <v>1.016239267023253</v>
       </c>
       <c r="F22">
-        <v>1.01945921271502</v>
+        <v>1.027440445039191</v>
       </c>
       <c r="G22">
         <v>1</v>
       </c>
       <c r="I22">
-        <v>1.045481571557212</v>
+        <v>1.045420151149964</v>
       </c>
       <c r="J22">
-        <v>1.021663395290067</v>
+        <v>1.028535336863168</v>
       </c>
       <c r="K22">
-        <v>1.032048349044146</v>
+        <v>1.038042008773506</v>
       </c>
       <c r="L22">
-        <v>1.015542200971556</v>
+        <v>1.031495742239981</v>
       </c>
       <c r="M22">
-        <v>1.034654790174373</v>
+        <v>1.042487220847515</v>
       </c>
       <c r="N22">
-        <v>1.011072137248703</v>
-      </c>
-    </row>
-    <row r="23" spans="1:14">
+        <v>1.013326012173267</v>
+      </c>
+      <c r="O22">
+        <v>1.03</v>
+      </c>
+      <c r="P22">
+        <v>1.042198173941133</v>
+      </c>
+      <c r="Q22">
+        <v>1.02</v>
+      </c>
+      <c r="R22">
+        <v>1.038037485328104</v>
+      </c>
+    </row>
+    <row r="23" spans="1:18">
       <c r="A23" s="1">
         <v>21</v>
       </c>
@@ -1282,40 +1546,52 @@
         <v>1.05</v>
       </c>
       <c r="C23">
-        <v>0.9920951277664113</v>
+        <v>0.9989992563975544</v>
       </c>
       <c r="D23">
-        <v>1.018052919345706</v>
+        <v>1.023757169450817</v>
       </c>
       <c r="E23">
-        <v>1.001200209526443</v>
+        <v>1.017214665513748</v>
       </c>
       <c r="F23">
-        <v>1.020983062891398</v>
+        <v>1.02838674004857</v>
       </c>
       <c r="G23">
         <v>1</v>
       </c>
       <c r="I23">
-        <v>1.04606369689251</v>
+        <v>1.045704235482361</v>
       </c>
       <c r="J23">
-        <v>1.022518180459838</v>
+        <v>1.029123124274364</v>
       </c>
       <c r="K23">
-        <v>1.032970298828003</v>
+        <v>1.038569973850879</v>
       </c>
       <c r="L23">
-        <v>1.016435666292006</v>
+        <v>1.032147541432122</v>
       </c>
       <c r="M23">
-        <v>1.035846534450602</v>
+        <v>1.043115779573969</v>
       </c>
       <c r="N23">
-        <v>1.011358393730571</v>
-      </c>
-    </row>
-    <row r="24" spans="1:14">
+        <v>1.013524636414044</v>
+      </c>
+      <c r="O23">
+        <v>1.03</v>
+      </c>
+      <c r="P23">
+        <v>1.0426956346906</v>
+      </c>
+      <c r="Q23">
+        <v>1.02</v>
+      </c>
+      <c r="R23">
+        <v>1.038401191731156</v>
+      </c>
+    </row>
+    <row r="24" spans="1:18">
       <c r="A24" s="1">
         <v>22</v>
       </c>
@@ -1323,40 +1599,52 @@
         <v>1.05</v>
       </c>
       <c r="C24">
-        <v>0.9982453877841668</v>
+        <v>1.004066377773969</v>
       </c>
       <c r="D24">
-        <v>1.022883739262038</v>
+        <v>1.027060700385872</v>
       </c>
       <c r="E24">
-        <v>1.005960355940098</v>
+        <v>1.021018059190613</v>
       </c>
       <c r="F24">
-        <v>1.026872124869409</v>
+        <v>1.032079719242317</v>
       </c>
       <c r="G24">
         <v>1</v>
       </c>
       <c r="I24">
-        <v>1.048290109148568</v>
+        <v>1.046798542453514</v>
       </c>
       <c r="J24">
-        <v>1.025811147766364</v>
+        <v>1.031408789398713</v>
       </c>
       <c r="K24">
-        <v>1.036520564943058</v>
+        <v>1.040628700060235</v>
       </c>
       <c r="L24">
-        <v>1.019883603352975</v>
+        <v>1.03468586099742</v>
       </c>
       <c r="M24">
-        <v>1.040443216284787</v>
+        <v>1.045565963979395</v>
       </c>
       <c r="N24">
-        <v>1.012461179848954</v>
-      </c>
-    </row>
-    <row r="25" spans="1:14">
+        <v>1.014298208734269</v>
+      </c>
+      <c r="O24">
+        <v>1.03</v>
+      </c>
+      <c r="P24">
+        <v>1.044634782902486</v>
+      </c>
+      <c r="Q24">
+        <v>1.02</v>
+      </c>
+      <c r="R24">
+        <v>1.039849334866328</v>
+      </c>
+    </row>
+    <row r="25" spans="1:18">
       <c r="A25" s="1">
         <v>23</v>
       </c>
@@ -1364,37 +1652,49 @@
         <v>1.05</v>
       </c>
       <c r="C25">
-        <v>1.005135253226975</v>
+        <v>1.009777926493359</v>
       </c>
       <c r="D25">
-        <v>1.028310621053795</v>
+        <v>1.030806646948379</v>
       </c>
       <c r="E25">
-        <v>1.011323734670524</v>
+        <v>1.025335831294133</v>
       </c>
       <c r="F25">
-        <v>1.033491826456129</v>
+        <v>1.036277331983382</v>
       </c>
       <c r="G25">
         <v>1</v>
       </c>
       <c r="I25">
-        <v>1.050744373603931</v>
+        <v>1.048001829074539</v>
       </c>
       <c r="J25">
-        <v>1.029491022960457</v>
+        <v>1.033980646459532</v>
       </c>
       <c r="K25">
-        <v>1.040484791079679</v>
+        <v>1.042944837544834</v>
       </c>
       <c r="L25">
-        <v>1.023748771170128</v>
+        <v>1.037553172165758</v>
       </c>
       <c r="M25">
-        <v>1.045591556608758</v>
+        <v>1.048337431051986</v>
       </c>
       <c r="N25">
-        <v>1.013693483661226</v>
+        <v>1.015168567583365</v>
+      </c>
+      <c r="O25">
+        <v>1.03</v>
+      </c>
+      <c r="P25">
+        <v>1.046828197502011</v>
+      </c>
+      <c r="Q25">
+        <v>1.02</v>
+      </c>
+      <c r="R25">
+        <v>1.041484100946243</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_3_18/res_bus/vm_pu.xlsx
+++ b/Code/Results/Cases/Case_3_18/res_bus/vm_pu.xlsx
@@ -366,13 +366,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:R25"/>
+  <dimension ref="A1:T25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:18">
+    <row r="1" spans="1:20">
       <c r="B1" s="1">
         <v>0</v>
       </c>
@@ -424,8 +424,14 @@
       <c r="R1" s="1">
         <v>16</v>
       </c>
-    </row>
-    <row r="2" spans="1:18">
+      <c r="S1" s="1">
+        <v>17</v>
+      </c>
+      <c r="T1" s="1">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="2" spans="1:20">
       <c r="A2" s="1">
         <v>0</v>
       </c>
@@ -433,52 +439,61 @@
         <v>1.05</v>
       </c>
       <c r="C2">
-        <v>1.014185145817269</v>
+        <v>1.013515937777359</v>
       </c>
       <c r="D2">
-        <v>1.033698001385496</v>
+        <v>1.0324436534935</v>
       </c>
       <c r="E2">
-        <v>1.028686970929851</v>
+        <v>1.028047058155256</v>
       </c>
       <c r="F2">
-        <v>1.039538057777554</v>
+        <v>1.038734316683661</v>
       </c>
       <c r="G2">
         <v>1</v>
       </c>
+      <c r="H2">
+        <v>1.02</v>
+      </c>
       <c r="I2">
-        <v>1.04889438375641</v>
+        <v>1.048355446497606</v>
       </c>
       <c r="J2">
-        <v>1.035949704073178</v>
+        <v>1.035299770168783</v>
       </c>
       <c r="K2">
-        <v>1.044707013470404</v>
+        <v>1.043468769151165</v>
       </c>
       <c r="L2">
-        <v>1.039760609694582</v>
+        <v>1.039129006591667</v>
       </c>
       <c r="M2">
-        <v>1.050472732709367</v>
+        <v>1.049679160385866</v>
       </c>
       <c r="N2">
-        <v>1.015832971611248</v>
+        <v>1.016523005119307</v>
       </c>
       <c r="O2">
         <v>1.03</v>
       </c>
       <c r="P2">
-        <v>1.04851812899664</v>
+        <v>1.047890076329768</v>
       </c>
       <c r="Q2">
         <v>1.02</v>
       </c>
       <c r="R2">
-        <v>1.042682010164093</v>
-      </c>
-    </row>
-    <row r="3" spans="1:18">
+        <v>1.041815200916974</v>
+      </c>
+      <c r="S2">
+        <v>1.02</v>
+      </c>
+      <c r="T2">
+        <v>1.023578292950973</v>
+      </c>
+    </row>
+    <row r="3" spans="1:20">
       <c r="A3" s="1">
         <v>1</v>
       </c>
@@ -486,52 +501,61 @@
         <v>1.05</v>
       </c>
       <c r="C3">
-        <v>1.017328109247598</v>
+        <v>1.01656862679868</v>
       </c>
       <c r="D3">
-        <v>1.035777719493578</v>
+        <v>1.034400799052536</v>
       </c>
       <c r="E3">
-        <v>1.03109193904351</v>
+        <v>1.030370016117685</v>
       </c>
       <c r="F3">
-        <v>1.04188098490716</v>
+        <v>1.040991863164232</v>
       </c>
       <c r="G3">
         <v>1</v>
       </c>
+      <c r="H3">
+        <v>1.02</v>
+      </c>
       <c r="I3">
-        <v>1.049521997892463</v>
+        <v>1.048922162075113</v>
       </c>
       <c r="J3">
-        <v>1.037357285827015</v>
+        <v>1.036617583595472</v>
       </c>
       <c r="K3">
-        <v>1.045972402690239</v>
+        <v>1.044611651892632</v>
       </c>
       <c r="L3">
-        <v>1.041341867716278</v>
+        <v>1.040628511635143</v>
       </c>
       <c r="M3">
-        <v>1.052004631221862</v>
+        <v>1.051125794052714</v>
       </c>
       <c r="N3">
-        <v>1.016308935201961</v>
+        <v>1.016876895544996</v>
       </c>
       <c r="O3">
         <v>1.03</v>
       </c>
       <c r="P3">
-        <v>1.049730509677513</v>
+        <v>1.049034977417006</v>
       </c>
       <c r="Q3">
         <v>1.02</v>
       </c>
       <c r="R3">
-        <v>1.043574088547595</v>
-      </c>
-    </row>
-    <row r="4" spans="1:18">
+        <v>1.042620384127968</v>
+      </c>
+      <c r="S3">
+        <v>1.02</v>
+      </c>
+      <c r="T3">
+        <v>1.023787578269534</v>
+      </c>
+    </row>
+    <row r="4" spans="1:20">
       <c r="A4" s="1">
         <v>2</v>
       </c>
@@ -539,52 +563,61 @@
         <v>1.05</v>
       </c>
       <c r="C4">
-        <v>1.019331351097999</v>
+        <v>1.018514831810737</v>
       </c>
       <c r="D4">
-        <v>1.037107536365431</v>
+        <v>1.035652787421782</v>
       </c>
       <c r="E4">
-        <v>1.032630682254995</v>
+        <v>1.031856873320978</v>
       </c>
       <c r="F4">
-        <v>1.043381081329271</v>
+        <v>1.042437850064904</v>
       </c>
       <c r="G4">
         <v>1</v>
       </c>
+      <c r="H4">
+        <v>1.02</v>
+      </c>
       <c r="I4">
-        <v>1.049915083706876</v>
+        <v>1.049276560372497</v>
       </c>
       <c r="J4">
-        <v>1.038253160314476</v>
+        <v>1.037456497946357</v>
       </c>
       <c r="K4">
-        <v>1.046777820409583</v>
+        <v>1.045339145366883</v>
       </c>
       <c r="L4">
-        <v>1.042350610340907</v>
+        <v>1.041585435943148</v>
       </c>
       <c r="M4">
-        <v>1.052982677439467</v>
+        <v>1.052049708634905</v>
       </c>
       <c r="N4">
-        <v>1.016611852026791</v>
+        <v>1.017102201382444</v>
       </c>
       <c r="O4">
         <v>1.03</v>
       </c>
       <c r="P4">
-        <v>1.050504557532916</v>
+        <v>1.049766184977445</v>
       </c>
       <c r="Q4">
         <v>1.02</v>
       </c>
       <c r="R4">
-        <v>1.044144471412847</v>
-      </c>
-    </row>
-    <row r="5" spans="1:18">
+        <v>1.043135752078486</v>
+      </c>
+      <c r="S4">
+        <v>1.02</v>
+      </c>
+      <c r="T4">
+        <v>1.023918590106742</v>
+      </c>
+    </row>
+    <row r="5" spans="1:20">
       <c r="A5" s="1">
         <v>3</v>
       </c>
@@ -592,52 +625,61 @@
         <v>1.05</v>
       </c>
       <c r="C5">
-        <v>1.020168843400729</v>
+        <v>1.019328607567957</v>
       </c>
       <c r="D5">
-        <v>1.037666326835528</v>
+        <v>1.036179172538055</v>
       </c>
       <c r="E5">
-        <v>1.033275790785733</v>
+        <v>1.032480396982117</v>
       </c>
       <c r="F5">
-        <v>1.044010389921445</v>
+        <v>1.043044640641038</v>
       </c>
       <c r="G5">
         <v>1</v>
       </c>
+      <c r="H5">
+        <v>1.02</v>
+      </c>
       <c r="I5">
-        <v>1.050079016267689</v>
+        <v>1.049424369420463</v>
       </c>
       <c r="J5">
-        <v>1.038628664437413</v>
+        <v>1.037808264180115</v>
       </c>
       <c r="K5">
-        <v>1.047116699643974</v>
+        <v>1.045645548245278</v>
       </c>
       <c r="L5">
-        <v>1.042773571908591</v>
+        <v>1.041986819569948</v>
       </c>
       <c r="M5">
-        <v>1.053393122421145</v>
+        <v>1.052437604972542</v>
       </c>
       <c r="N5">
-        <v>1.016739012869177</v>
+        <v>1.017196837035759</v>
       </c>
       <c r="O5">
         <v>1.03</v>
       </c>
       <c r="P5">
-        <v>1.050829392718033</v>
+        <v>1.050073174976949</v>
       </c>
       <c r="Q5">
         <v>1.02</v>
       </c>
       <c r="R5">
-        <v>1.044391212735539</v>
-      </c>
-    </row>
-    <row r="6" spans="1:18">
+        <v>1.043360240544444</v>
+      </c>
+      <c r="S5">
+        <v>1.02</v>
+      </c>
+      <c r="T5">
+        <v>1.02397366356295</v>
+      </c>
+    </row>
+    <row r="6" spans="1:20">
       <c r="A6" s="1">
         <v>4</v>
       </c>
@@ -645,52 +687,61 @@
         <v>1.05</v>
       </c>
       <c r="C6">
-        <v>1.020312025462414</v>
+        <v>1.019467757671207</v>
       </c>
       <c r="D6">
-        <v>1.037764152266416</v>
+        <v>1.036271537885729</v>
       </c>
       <c r="E6">
-        <v>1.033386673112556</v>
+        <v>1.032587614610934</v>
       </c>
       <c r="F6">
-        <v>1.044118756213481</v>
+        <v>1.043149199193298</v>
       </c>
       <c r="G6">
         <v>1</v>
       </c>
+      <c r="H6">
+        <v>1.02</v>
+      </c>
       <c r="I6">
-        <v>1.050108509582577</v>
+        <v>1.049451132192461</v>
       </c>
       <c r="J6">
-        <v>1.038694415436556</v>
+        <v>1.037869978011932</v>
       </c>
       <c r="K6">
-        <v>1.047177589692357</v>
+        <v>1.045700964793903</v>
       </c>
       <c r="L6">
-        <v>1.042847164347009</v>
+        <v>1.042056747781212</v>
       </c>
       <c r="M6">
-        <v>1.053464746281274</v>
+        <v>1.052505415099577</v>
       </c>
       <c r="N6">
-        <v>1.016761520460246</v>
+        <v>1.017213632196025</v>
       </c>
       <c r="O6">
         <v>1.03</v>
       </c>
       <c r="P6">
-        <v>1.050886077401654</v>
+        <v>1.05012684144351</v>
       </c>
       <c r="Q6">
         <v>1.02</v>
       </c>
       <c r="R6">
-        <v>1.04444295958337</v>
-      </c>
-    </row>
-    <row r="7" spans="1:18">
+        <v>1.043408984607311</v>
+      </c>
+      <c r="S6">
+        <v>1.02</v>
+      </c>
+      <c r="T6">
+        <v>1.023984116305845</v>
+      </c>
+    </row>
+    <row r="7" spans="1:20">
       <c r="A7" s="1">
         <v>5</v>
       </c>
@@ -698,52 +749,61 @@
         <v>1.05</v>
       </c>
       <c r="C7">
-        <v>1.019350570946628</v>
+        <v>1.018539676285962</v>
       </c>
       <c r="D7">
-        <v>1.037126331358247</v>
+        <v>1.035675347001176</v>
       </c>
       <c r="E7">
-        <v>1.032646854118626</v>
+        <v>1.031877622993005</v>
       </c>
       <c r="F7">
-        <v>1.04339734015787</v>
+        <v>1.042457593487099</v>
       </c>
       <c r="G7">
         <v>1</v>
       </c>
+      <c r="H7">
+        <v>1.02</v>
+      </c>
       <c r="I7">
-        <v>1.04992305526422</v>
+        <v>1.049287107507689</v>
       </c>
       <c r="J7">
-        <v>1.038265998707498</v>
+        <v>1.037474815853808</v>
       </c>
       <c r="K7">
-        <v>1.046793549911614</v>
+        <v>1.045358591736838</v>
       </c>
       <c r="L7">
-        <v>1.042363727197821</v>
+        <v>1.041603076289073</v>
       </c>
       <c r="M7">
-        <v>1.05299592421757</v>
+        <v>1.052066398263307</v>
       </c>
       <c r="N7">
-        <v>1.016616857351199</v>
+        <v>1.017133341357158</v>
       </c>
       <c r="O7">
         <v>1.03</v>
       </c>
       <c r="P7">
-        <v>1.050515041326637</v>
+        <v>1.049779393532223</v>
       </c>
       <c r="Q7">
         <v>1.02</v>
       </c>
       <c r="R7">
-        <v>1.044175586745209</v>
-      </c>
-    </row>
-    <row r="8" spans="1:18">
+        <v>1.043171490987275</v>
+      </c>
+      <c r="S7">
+        <v>1.02</v>
+      </c>
+      <c r="T7">
+        <v>1.023924028760226</v>
+      </c>
+    </row>
+    <row r="8" spans="1:20">
       <c r="A8" s="1">
         <v>6</v>
       </c>
@@ -751,52 +811,61 @@
         <v>1.05</v>
       </c>
       <c r="C8">
-        <v>1.015263740209364</v>
+        <v>1.01458230499257</v>
       </c>
       <c r="D8">
-        <v>1.034418193329844</v>
+        <v>1.033135219706961</v>
       </c>
       <c r="E8">
-        <v>1.029512821409733</v>
+        <v>1.028860176334113</v>
       </c>
       <c r="F8">
-        <v>1.040342940878565</v>
+        <v>1.039521962146036</v>
       </c>
       <c r="G8">
         <v>1</v>
       </c>
+      <c r="H8">
+        <v>1.02</v>
+      </c>
       <c r="I8">
-        <v>1.049116376690764</v>
+        <v>1.048565457558708</v>
       </c>
       <c r="J8">
-        <v>1.03643825237056</v>
+        <v>1.035775799089435</v>
       </c>
       <c r="K8">
-        <v>1.045151288821493</v>
+        <v>1.043884306888714</v>
       </c>
       <c r="L8">
-        <v>1.040307328515288</v>
+        <v>1.039662909140337</v>
       </c>
       <c r="M8">
-        <v>1.05100282354512</v>
+        <v>1.050191927776358</v>
       </c>
       <c r="N8">
-        <v>1.015999030891634</v>
+        <v>1.016729589198567</v>
       </c>
       <c r="O8">
         <v>1.03</v>
       </c>
       <c r="P8">
-        <v>1.048937655633519</v>
+        <v>1.048295893122748</v>
       </c>
       <c r="Q8">
         <v>1.02</v>
       </c>
       <c r="R8">
-        <v>1.043018921841005</v>
-      </c>
-    </row>
-    <row r="9" spans="1:18">
+        <v>1.042134057373911</v>
+      </c>
+      <c r="S8">
+        <v>1.02</v>
+      </c>
+      <c r="T8">
+        <v>1.023658186534016</v>
+      </c>
+    </row>
+    <row r="9" spans="1:20">
       <c r="A9" s="1">
         <v>7</v>
       </c>
@@ -804,52 +873,61 @@
         <v>1.05</v>
       </c>
       <c r="C9">
-        <v>1.007807695342774</v>
+        <v>1.007346207977464</v>
       </c>
       <c r="D9">
-        <v>1.029502836663688</v>
+        <v>1.028514174951925</v>
       </c>
       <c r="E9">
-        <v>1.023840351148175</v>
+        <v>1.023386777685584</v>
       </c>
       <c r="F9">
-        <v>1.034822243326897</v>
+        <v>1.034207381380752</v>
       </c>
       <c r="G9">
         <v>1</v>
       </c>
+      <c r="H9">
+        <v>1.02</v>
+      </c>
       <c r="I9">
-        <v>1.047584445838927</v>
+        <v>1.047179992938839</v>
       </c>
       <c r="J9">
-        <v>1.033087724683239</v>
+        <v>1.032642193298326</v>
       </c>
       <c r="K9">
-        <v>1.042134722230807</v>
+        <v>1.041160969594718</v>
       </c>
       <c r="L9">
-        <v>1.036558124430034</v>
+        <v>1.036111483141134</v>
       </c>
       <c r="M9">
-        <v>1.047374533661882</v>
+        <v>1.046768818785594</v>
       </c>
       <c r="N9">
-        <v>1.014865278247176</v>
+        <v>1.015897021067919</v>
       </c>
       <c r="O9">
         <v>1.03</v>
       </c>
       <c r="P9">
-        <v>1.046066134998191</v>
+        <v>1.045586755793945</v>
       </c>
       <c r="Q9">
         <v>1.02</v>
       </c>
       <c r="R9">
-        <v>1.040882880246921</v>
-      </c>
-    </row>
-    <row r="10" spans="1:18">
+        <v>1.040205061017723</v>
+      </c>
+      <c r="S9">
+        <v>1.02</v>
+      </c>
+      <c r="T9">
+        <v>1.023145858156618</v>
+      </c>
+    </row>
+    <row r="10" spans="1:20">
       <c r="A10" s="1">
         <v>8</v>
       </c>
@@ -857,52 +935,61 @@
         <v>1.05</v>
       </c>
       <c r="C10">
-        <v>1.002707283782887</v>
+        <v>1.002424275228856</v>
       </c>
       <c r="D10">
-        <v>1.026186434498249</v>
+        <v>1.025417453214282</v>
       </c>
       <c r="E10">
-        <v>1.020019867638674</v>
+        <v>1.019724864985359</v>
       </c>
       <c r="F10">
-        <v>1.031148395148261</v>
+        <v>1.030691891521292</v>
       </c>
       <c r="G10">
         <v>1</v>
       </c>
+      <c r="H10">
+        <v>1.02</v>
+      </c>
       <c r="I10">
-        <v>1.046520132530126</v>
+        <v>1.046227894911716</v>
       </c>
       <c r="J10">
-        <v>1.030813899007196</v>
+        <v>1.030542037813184</v>
       </c>
       <c r="K10">
-        <v>1.040098451115447</v>
+        <v>1.039342467419532</v>
       </c>
       <c r="L10">
-        <v>1.034036826525056</v>
+        <v>1.033746885326977</v>
       </c>
       <c r="M10">
-        <v>1.044977143505037</v>
+        <v>1.044528257465467</v>
       </c>
       <c r="N10">
-        <v>1.014099057928767</v>
+        <v>1.015451364828963</v>
       </c>
       <c r="O10">
         <v>1.03</v>
       </c>
       <c r="P10">
-        <v>1.044219855982966</v>
+        <v>1.043864616365255</v>
       </c>
       <c r="Q10">
         <v>1.02</v>
       </c>
       <c r="R10">
-        <v>1.039459847627735</v>
-      </c>
-    </row>
-    <row r="11" spans="1:18">
+        <v>1.038937675821459</v>
+      </c>
+      <c r="S10">
+        <v>1.02</v>
+      </c>
+      <c r="T10">
+        <v>1.022799929097284</v>
+      </c>
+    </row>
+    <row r="11" spans="1:20">
       <c r="A11" s="1">
         <v>9</v>
       </c>
@@ -910,52 +997,61 @@
         <v>1.05</v>
       </c>
       <c r="C11">
-        <v>1.000807714973791</v>
+        <v>1.000615630547028</v>
       </c>
       <c r="D11">
-        <v>1.025116078770542</v>
+        <v>1.024437402729676</v>
       </c>
       <c r="E11">
-        <v>1.018813287613159</v>
+        <v>1.018594551858174</v>
       </c>
       <c r="F11">
-        <v>1.03029887504444</v>
+        <v>1.029912739098203</v>
       </c>
       <c r="G11">
         <v>1</v>
       </c>
+      <c r="H11">
+        <v>1.02</v>
+      </c>
       <c r="I11">
-        <v>1.046255135662593</v>
+        <v>1.046012000989468</v>
       </c>
       <c r="J11">
-        <v>1.030146930620677</v>
+        <v>1.029962820976396</v>
       </c>
       <c r="K11">
-        <v>1.03957939281463</v>
+        <v>1.038912725473248</v>
       </c>
       <c r="L11">
-        <v>1.033388925069154</v>
+        <v>1.033174119881926</v>
       </c>
       <c r="M11">
-        <v>1.044671158755143</v>
+        <v>1.044291763969355</v>
       </c>
       <c r="N11">
-        <v>1.013900327231448</v>
+        <v>1.015541898515711</v>
       </c>
       <c r="O11">
         <v>1.03</v>
       </c>
       <c r="P11">
-        <v>1.044410946692099</v>
+        <v>1.04411085009937</v>
       </c>
       <c r="Q11">
         <v>1.02</v>
       </c>
       <c r="R11">
-        <v>1.039125519449654</v>
-      </c>
-    </row>
-    <row r="12" spans="1:18">
+        <v>1.038669707907556</v>
+      </c>
+      <c r="S11">
+        <v>1.02</v>
+      </c>
+      <c r="T11">
+        <v>1.022758084909413</v>
+      </c>
+    </row>
+    <row r="12" spans="1:20">
       <c r="A12" s="1">
         <v>10</v>
       </c>
@@ -963,52 +1059,61 @@
         <v>1.05</v>
       </c>
       <c r="C12">
-        <v>1.000223629324357</v>
+        <v>1.000056854640344</v>
       </c>
       <c r="D12">
-        <v>1.024852078005795</v>
+        <v>1.024195066157037</v>
       </c>
       <c r="E12">
-        <v>1.018532708036205</v>
+        <v>1.018333753480432</v>
       </c>
       <c r="F12">
-        <v>1.030257344744203</v>
+        <v>1.029889021003435</v>
       </c>
       <c r="G12">
         <v>1</v>
       </c>
+      <c r="H12">
+        <v>1.02</v>
+      </c>
       <c r="I12">
-        <v>1.046230533681199</v>
+        <v>1.045999094698368</v>
       </c>
       <c r="J12">
-        <v>1.030018527770374</v>
+        <v>1.029858808470791</v>
       </c>
       <c r="K12">
-        <v>1.039518152635304</v>
+        <v>1.038872957247253</v>
       </c>
       <c r="L12">
-        <v>1.033313260046455</v>
+        <v>1.033117939648869</v>
       </c>
       <c r="M12">
-        <v>1.044826946926367</v>
+        <v>1.044465155261489</v>
       </c>
       <c r="N12">
-        <v>1.013877810912084</v>
+        <v>1.015629717383908</v>
       </c>
       <c r="O12">
         <v>1.03</v>
       </c>
       <c r="P12">
-        <v>1.044858516840198</v>
+        <v>1.044572439774287</v>
       </c>
       <c r="Q12">
         <v>1.02</v>
       </c>
       <c r="R12">
-        <v>1.039082221114009</v>
-      </c>
-    </row>
-    <row r="13" spans="1:18">
+        <v>1.038641591329589</v>
+      </c>
+      <c r="S12">
+        <v>1.02</v>
+      </c>
+      <c r="T12">
+        <v>1.022779142209999</v>
+      </c>
+    </row>
+    <row r="13" spans="1:20">
       <c r="A13" s="1">
         <v>11</v>
       </c>
@@ -1016,52 +1121,61 @@
         <v>1.05</v>
       </c>
       <c r="C13">
-        <v>1.000622617492215</v>
+        <v>1.000423424181904</v>
       </c>
       <c r="D13">
-        <v>1.025205016170123</v>
+        <v>1.024511885119032</v>
       </c>
       <c r="E13">
-        <v>1.018956304344851</v>
+        <v>1.018727823234724</v>
       </c>
       <c r="F13">
-        <v>1.030853709603755</v>
+        <v>1.030458272714439</v>
       </c>
       <c r="G13">
         <v>1</v>
       </c>
+      <c r="H13">
+        <v>1.02</v>
+      </c>
       <c r="I13">
-        <v>1.046400437520234</v>
+        <v>1.046148594507704</v>
       </c>
       <c r="J13">
-        <v>1.030308125643158</v>
+        <v>1.030117319212993</v>
       </c>
       <c r="K13">
-        <v>1.039822282831857</v>
+        <v>1.03914156570771</v>
       </c>
       <c r="L13">
-        <v>1.0336862789005</v>
+        <v>1.033461952994494</v>
       </c>
       <c r="M13">
-        <v>1.04537061557022</v>
+        <v>1.044982157986818</v>
       </c>
       <c r="N13">
-        <v>1.013994386358033</v>
+        <v>1.015689687448651</v>
       </c>
       <c r="O13">
         <v>1.03</v>
       </c>
       <c r="P13">
-        <v>1.045563505117633</v>
+        <v>1.045256419079664</v>
       </c>
       <c r="Q13">
         <v>1.02</v>
       </c>
       <c r="R13">
-        <v>1.039294770271154</v>
-      </c>
-    </row>
-    <row r="14" spans="1:18">
+        <v>1.03882877976596</v>
+      </c>
+      <c r="S13">
+        <v>1.02</v>
+      </c>
+      <c r="T13">
+        <v>1.022854326081046</v>
+      </c>
+    </row>
+    <row r="14" spans="1:20">
       <c r="A14" s="1">
         <v>12</v>
       </c>
@@ -1069,52 +1183,61 @@
         <v>1.05</v>
       </c>
       <c r="C14">
-        <v>1.001348555801533</v>
+        <v>1.001100992979703</v>
       </c>
       <c r="D14">
-        <v>1.025733211100611</v>
+        <v>1.024989062754825</v>
       </c>
       <c r="E14">
-        <v>1.019572402058574</v>
+        <v>1.019301418783469</v>
       </c>
       <c r="F14">
-        <v>1.031560948258826</v>
+        <v>1.031126595185132</v>
       </c>
       <c r="G14">
         <v>1</v>
       </c>
+      <c r="H14">
+        <v>1.02</v>
+      </c>
       <c r="I14">
-        <v>1.046607951520068</v>
+        <v>1.046327632928</v>
       </c>
       <c r="J14">
-        <v>1.03070091473163</v>
+        <v>1.030463629683282</v>
       </c>
       <c r="K14">
-        <v>1.040201978117195</v>
+        <v>1.039470994632751</v>
       </c>
       <c r="L14">
-        <v>1.034150913355025</v>
+        <v>1.033884796760127</v>
       </c>
       <c r="M14">
-        <v>1.045927466148587</v>
+        <v>1.045500682294006</v>
       </c>
       <c r="N14">
-        <v>1.014139351499321</v>
+        <v>1.015720487324192</v>
       </c>
       <c r="O14">
         <v>1.03</v>
       </c>
       <c r="P14">
-        <v>1.046176151823625</v>
+        <v>1.045838813043166</v>
       </c>
       <c r="Q14">
         <v>1.02</v>
       </c>
       <c r="R14">
-        <v>1.039564640886369</v>
-      </c>
-    </row>
-    <row r="15" spans="1:18">
+        <v>1.039063244745709</v>
+      </c>
+      <c r="S14">
+        <v>1.02</v>
+      </c>
+      <c r="T14">
+        <v>1.022932008925906</v>
+      </c>
+    </row>
+    <row r="15" spans="1:20">
       <c r="A15" s="1">
         <v>13</v>
       </c>
@@ -1122,52 +1245,61 @@
         <v>1.05</v>
       </c>
       <c r="C15">
-        <v>1.001743012006043</v>
+        <v>1.001471530678716</v>
       </c>
       <c r="D15">
-        <v>1.026002796392385</v>
+        <v>1.025233839656078</v>
       </c>
       <c r="E15">
-        <v>1.019882572679831</v>
+        <v>1.019590873500882</v>
       </c>
       <c r="F15">
-        <v>1.031884658956642</v>
+        <v>1.031431296607243</v>
       </c>
       <c r="G15">
         <v>1</v>
       </c>
+      <c r="H15">
+        <v>1.02</v>
+      </c>
       <c r="I15">
-        <v>1.046704377014811</v>
+        <v>1.046410340363216</v>
       </c>
       <c r="J15">
-        <v>1.030892807823476</v>
+        <v>1.030632500946388</v>
       </c>
       <c r="K15">
-        <v>1.040381151591653</v>
+        <v>1.039625697127252</v>
       </c>
       <c r="L15">
-        <v>1.034369126118152</v>
+        <v>1.034082625933014</v>
       </c>
       <c r="M15">
-        <v>1.046160594420416</v>
+        <v>1.045715072628512</v>
       </c>
       <c r="N15">
-        <v>1.014206938098268</v>
+        <v>1.015726302703422</v>
       </c>
       <c r="O15">
         <v>1.03</v>
       </c>
       <c r="P15">
-        <v>1.046397783315571</v>
+        <v>1.046045642903222</v>
       </c>
       <c r="Q15">
         <v>1.02</v>
       </c>
       <c r="R15">
-        <v>1.039697158222288</v>
-      </c>
-    </row>
-    <row r="16" spans="1:18">
+        <v>1.039179028999139</v>
+      </c>
+      <c r="S15">
+        <v>1.02</v>
+      </c>
+      <c r="T15">
+        <v>1.022964942231618</v>
+      </c>
+    </row>
+    <row r="16" spans="1:20">
       <c r="A16" s="1">
         <v>14</v>
       </c>
@@ -1175,52 +1307,61 @@
         <v>1.05</v>
       </c>
       <c r="C16">
-        <v>1.003820809554622</v>
+        <v>1.003439533457104</v>
       </c>
       <c r="D16">
-        <v>1.02734047387569</v>
+        <v>1.026456864455645</v>
       </c>
       <c r="E16">
-        <v>1.021418815412423</v>
+        <v>1.021032952429038</v>
       </c>
       <c r="F16">
-        <v>1.033349189345502</v>
+        <v>1.03280836488415</v>
       </c>
       <c r="G16">
         <v>1</v>
       </c>
+      <c r="H16">
+        <v>1.02</v>
+      </c>
       <c r="I16">
-        <v>1.047135402973982</v>
+        <v>1.046779187573517</v>
       </c>
       <c r="J16">
-        <v>1.031807347915343</v>
+        <v>1.031440996901729</v>
       </c>
       <c r="K16">
-        <v>1.041197750012606</v>
+        <v>1.040328991094958</v>
       </c>
       <c r="L16">
-        <v>1.035376248665112</v>
+        <v>1.034996964123592</v>
       </c>
       <c r="M16">
-        <v>1.047106346118526</v>
+        <v>1.046574471655207</v>
       </c>
       <c r="N16">
-        <v>1.014511766666995</v>
+        <v>1.015734999843294</v>
       </c>
       <c r="O16">
         <v>1.03</v>
       </c>
       <c r="P16">
-        <v>1.047106766949398</v>
+        <v>1.046686361550154</v>
       </c>
       <c r="Q16">
         <v>1.02</v>
       </c>
       <c r="R16">
-        <v>1.040277666876917</v>
-      </c>
-    </row>
-    <row r="17" spans="1:18">
+        <v>1.039679728159125</v>
+      </c>
+      <c r="S16">
+        <v>1.02</v>
+      </c>
+      <c r="T16">
+        <v>1.023095213993102</v>
+      </c>
+    </row>
+    <row r="17" spans="1:20">
       <c r="A17" s="1">
         <v>15</v>
       </c>
@@ -1228,52 +1369,61 @@
         <v>1.05</v>
       </c>
       <c r="C17">
-        <v>1.005036949082082</v>
+        <v>1.004603599566857</v>
       </c>
       <c r="D17">
-        <v>1.028091714619634</v>
+        <v>1.027151635994313</v>
       </c>
       <c r="E17">
-        <v>1.022276285929788</v>
+        <v>1.021845878561779</v>
       </c>
       <c r="F17">
-        <v>1.034099210477296</v>
+        <v>1.033515934938199</v>
       </c>
       <c r="G17">
         <v>1</v>
       </c>
+      <c r="H17">
+        <v>1.02</v>
+      </c>
       <c r="I17">
-        <v>1.047355472775763</v>
+        <v>1.046969499203803</v>
       </c>
       <c r="J17">
-        <v>1.032302931443133</v>
+        <v>1.031886010537479</v>
       </c>
       <c r="K17">
-        <v>1.041624492232397</v>
+        <v>1.040699777268801</v>
       </c>
       <c r="L17">
-        <v>1.035904688277068</v>
+        <v>1.035481413910157</v>
       </c>
       <c r="M17">
-        <v>1.047534654131497</v>
+        <v>1.046960765231096</v>
       </c>
       <c r="N17">
-        <v>1.014669492048832</v>
+        <v>1.015753960259621</v>
       </c>
       <c r="O17">
         <v>1.03</v>
       </c>
       <c r="P17">
-        <v>1.047316904817164</v>
+        <v>1.046863245485142</v>
       </c>
       <c r="Q17">
         <v>1.02</v>
       </c>
       <c r="R17">
-        <v>1.040581961565373</v>
-      </c>
-    </row>
-    <row r="18" spans="1:18">
+        <v>1.039944708188655</v>
+      </c>
+      <c r="S17">
+        <v>1.02</v>
+      </c>
+      <c r="T17">
+        <v>1.023154882779048</v>
+      </c>
+    </row>
+    <row r="18" spans="1:20">
       <c r="A18" s="1">
         <v>16</v>
       </c>
@@ -1281,52 +1431,61 @@
         <v>1.05</v>
       </c>
       <c r="C18">
-        <v>1.005616736351744</v>
+        <v>1.005168210486255</v>
       </c>
       <c r="D18">
-        <v>1.028389109712508</v>
+        <v>1.027432265891836</v>
       </c>
       <c r="E18">
-        <v>1.022608241243142</v>
+        <v>1.022165482759235</v>
       </c>
       <c r="F18">
-        <v>1.034264621706246</v>
+        <v>1.033668821137504</v>
       </c>
       <c r="G18">
         <v>1</v>
       </c>
+      <c r="H18">
+        <v>1.02</v>
+      </c>
       <c r="I18">
-        <v>1.047405689055364</v>
+        <v>1.047011595167262</v>
       </c>
       <c r="J18">
-        <v>1.032469216703653</v>
+        <v>1.032037380925917</v>
       </c>
       <c r="K18">
-        <v>1.041735164986433</v>
+        <v>1.040793706779942</v>
       </c>
       <c r="L18">
-        <v>1.036047813636823</v>
+        <v>1.035612273695794</v>
       </c>
       <c r="M18">
-        <v>1.047517000661904</v>
+        <v>1.046930637105483</v>
       </c>
       <c r="N18">
-        <v>1.014709411078739</v>
+        <v>1.015742203706151</v>
       </c>
       <c r="O18">
         <v>1.03</v>
       </c>
       <c r="P18">
-        <v>1.047066564514476</v>
+        <v>1.04660294832145</v>
       </c>
       <c r="Q18">
         <v>1.02</v>
       </c>
       <c r="R18">
-        <v>1.040648641128009</v>
-      </c>
-    </row>
-    <row r="19" spans="1:18">
+        <v>1.039998416410818</v>
+      </c>
+      <c r="S18">
+        <v>1.02</v>
+      </c>
+      <c r="T18">
+        <v>1.023152073929851</v>
+      </c>
+    </row>
+    <row r="19" spans="1:20">
       <c r="A19" s="1">
         <v>17</v>
       </c>
@@ -1334,52 +1493,61 @@
         <v>1.05</v>
       </c>
       <c r="C19">
-        <v>1.005630695420937</v>
+        <v>1.005194995992002</v>
       </c>
       <c r="D19">
-        <v>1.028290916480791</v>
+        <v>1.027349478963959</v>
       </c>
       <c r="E19">
-        <v>1.022471766949201</v>
+        <v>1.022041387468255</v>
       </c>
       <c r="F19">
-        <v>1.033907375693509</v>
+        <v>1.033322713807212</v>
       </c>
       <c r="G19">
         <v>1</v>
       </c>
+      <c r="H19">
+        <v>1.02</v>
+      </c>
       <c r="I19">
-        <v>1.047312351787807</v>
+        <v>1.046927179737867</v>
       </c>
       <c r="J19">
-        <v>1.032349262720077</v>
+        <v>1.031929680502769</v>
       </c>
       <c r="K19">
-        <v>1.041576524742323</v>
+        <v>1.040650147889058</v>
       </c>
       <c r="L19">
-        <v>1.035851037402929</v>
+        <v>1.035427639497687</v>
       </c>
       <c r="M19">
-        <v>1.04710386400346</v>
+        <v>1.046528421490125</v>
       </c>
       <c r="N19">
-        <v>1.014649260569058</v>
+        <v>1.015687776329561</v>
       </c>
       <c r="O19">
         <v>1.03</v>
       </c>
       <c r="P19">
-        <v>1.046416415568397</v>
+        <v>1.045961287319834</v>
       </c>
       <c r="Q19">
         <v>1.02</v>
       </c>
       <c r="R19">
-        <v>1.040542837279294</v>
-      </c>
-    </row>
-    <row r="20" spans="1:18">
+        <v>1.039903900028943</v>
+      </c>
+      <c r="S19">
+        <v>1.02</v>
+      </c>
+      <c r="T19">
+        <v>1.02309763974611</v>
+      </c>
+    </row>
+    <row r="20" spans="1:20">
       <c r="A20" s="1">
         <v>18</v>
       </c>
@@ -1387,52 +1555,61 @@
         <v>1.05</v>
       </c>
       <c r="C20">
-        <v>1.004047675056917</v>
+        <v>1.003700501458032</v>
       </c>
       <c r="D20">
-        <v>1.027071766730881</v>
+        <v>1.026233156641309</v>
       </c>
       <c r="E20">
-        <v>1.02102651772934</v>
+        <v>1.020675676864452</v>
       </c>
       <c r="F20">
-        <v>1.032119071679807</v>
+        <v>1.031609974911343</v>
       </c>
       <c r="G20">
         <v>1</v>
       </c>
+      <c r="H20">
+        <v>1.02</v>
+      </c>
       <c r="I20">
-        <v>1.04681335943315</v>
+        <v>1.046483529596818</v>
       </c>
       <c r="J20">
-        <v>1.031423452391081</v>
+        <v>1.031089516507433</v>
       </c>
       <c r="K20">
-        <v>1.040654728100515</v>
+        <v>1.039829895671918</v>
       </c>
       <c r="L20">
-        <v>1.034709449858707</v>
+        <v>1.034364457715006</v>
       </c>
       <c r="M20">
-        <v>1.045619717292136</v>
+        <v>1.045118876400841</v>
       </c>
       <c r="N20">
-        <v>1.014306522107256</v>
+        <v>1.015501785077373</v>
       </c>
       <c r="O20">
         <v>1.03</v>
       </c>
       <c r="P20">
-        <v>1.044717905270222</v>
+        <v>1.044321544855106</v>
       </c>
       <c r="Q20">
         <v>1.02</v>
       </c>
       <c r="R20">
-        <v>1.03989499574219</v>
-      </c>
-    </row>
-    <row r="21" spans="1:18">
+        <v>1.039328243368519</v>
+      </c>
+      <c r="S20">
+        <v>1.02</v>
+      </c>
+      <c r="T20">
+        <v>1.022895594447847</v>
+      </c>
+    </row>
+    <row r="21" spans="1:20">
       <c r="A21" s="1">
         <v>19</v>
       </c>
@@ -1440,52 +1617,61 @@
         <v>1.05</v>
       </c>
       <c r="C21">
-        <v>1.000163339502661</v>
+        <v>1.000039154379816</v>
       </c>
       <c r="D21">
-        <v>1.024522445645909</v>
+        <v>1.023914588230526</v>
       </c>
       <c r="E21">
-        <v>1.018088379028244</v>
+        <v>1.017930401616546</v>
       </c>
       <c r="F21">
-        <v>1.029235166584197</v>
+        <v>1.028903575451763</v>
       </c>
       <c r="G21">
         <v>1</v>
       </c>
+      <c r="H21">
+        <v>1.02</v>
+      </c>
       <c r="I21">
-        <v>1.045963193282366</v>
+        <v>1.045760784294123</v>
       </c>
       <c r="J21">
-        <v>1.029654233145957</v>
+        <v>1.029535238656175</v>
       </c>
       <c r="K21">
-        <v>1.039053664174563</v>
+        <v>1.038456626791738</v>
       </c>
       <c r="L21">
-        <v>1.032734977968961</v>
+        <v>1.032579857380575</v>
       </c>
       <c r="M21">
-        <v>1.043683059404155</v>
+        <v>1.043357298782083</v>
       </c>
       <c r="N21">
-        <v>1.013705469566514</v>
+        <v>1.015496818007136</v>
       </c>
       <c r="O21">
         <v>1.03</v>
       </c>
       <c r="P21">
-        <v>1.043144597140412</v>
+        <v>1.042886780345362</v>
       </c>
       <c r="Q21">
-        <v>1.02</v>
+        <v>1.019999999999999</v>
       </c>
       <c r="R21">
-        <v>1.038766199601134</v>
-      </c>
-    </row>
-    <row r="22" spans="1:18">
+        <v>1.038360831869865</v>
+      </c>
+      <c r="S21">
+        <v>1.02</v>
+      </c>
+      <c r="T21">
+        <v>1.022629915804357</v>
+      </c>
+    </row>
+    <row r="22" spans="1:20">
       <c r="A22" s="1">
         <v>20</v>
       </c>
@@ -1493,52 +1679,61 @@
         <v>1.05</v>
       </c>
       <c r="C22">
-        <v>0.9976935778718153</v>
+        <v>0.9977094951280611</v>
       </c>
       <c r="D22">
-        <v>1.022911161148903</v>
+        <v>1.022448421526505</v>
       </c>
       <c r="E22">
-        <v>1.016239267023253</v>
+        <v>1.016202510028964</v>
       </c>
       <c r="F22">
-        <v>1.027440445039191</v>
+        <v>1.027220620372068</v>
       </c>
       <c r="G22">
         <v>1</v>
       </c>
+      <c r="H22">
+        <v>1.02</v>
+      </c>
       <c r="I22">
-        <v>1.045420151149964</v>
+        <v>1.045297883166948</v>
       </c>
       <c r="J22">
-        <v>1.028535336863168</v>
+        <v>1.028550550881681</v>
       </c>
       <c r="K22">
-        <v>1.038042008773506</v>
+        <v>1.037587913185139</v>
       </c>
       <c r="L22">
-        <v>1.031495742239981</v>
+        <v>1.03145968333172</v>
       </c>
       <c r="M22">
-        <v>1.042487220847515</v>
+        <v>1.042271454217317</v>
       </c>
       <c r="N22">
-        <v>1.013326012173267</v>
+        <v>1.015487536394516</v>
       </c>
       <c r="O22">
         <v>1.03</v>
       </c>
       <c r="P22">
-        <v>1.042198173941133</v>
+        <v>1.04202740950103</v>
       </c>
       <c r="Q22">
         <v>1.02</v>
       </c>
       <c r="R22">
-        <v>1.038037485328104</v>
-      </c>
-    </row>
-    <row r="23" spans="1:18">
+        <v>1.037731882323949</v>
+      </c>
+      <c r="S22">
+        <v>1.02</v>
+      </c>
+      <c r="T22">
+        <v>1.02246074224003</v>
+      </c>
+    </row>
+    <row r="23" spans="1:20">
       <c r="A23" s="1">
         <v>21</v>
       </c>
@@ -1546,52 +1741,61 @@
         <v>1.05</v>
       </c>
       <c r="C23">
-        <v>0.9989992563975544</v>
+        <v>0.9989311741483939</v>
       </c>
       <c r="D23">
-        <v>1.023757169450817</v>
+        <v>1.023210438165207</v>
       </c>
       <c r="E23">
-        <v>1.017214665513748</v>
+        <v>1.017105597209217</v>
       </c>
       <c r="F23">
-        <v>1.02838674004857</v>
+        <v>1.028101315448484</v>
       </c>
       <c r="G23">
         <v>1</v>
       </c>
+      <c r="H23">
+        <v>1.02</v>
+      </c>
       <c r="I23">
-        <v>1.045704235482361</v>
+        <v>1.045534793320156</v>
       </c>
       <c r="J23">
-        <v>1.029123124274364</v>
+        <v>1.02905796352116</v>
       </c>
       <c r="K23">
-        <v>1.038569973850879</v>
+        <v>1.038033199947844</v>
       </c>
       <c r="L23">
-        <v>1.032147541432122</v>
+        <v>1.032040491874658</v>
       </c>
       <c r="M23">
-        <v>1.043115779573969</v>
+        <v>1.042835490928375</v>
       </c>
       <c r="N23">
-        <v>1.013524636414044</v>
+        <v>1.01544875034254</v>
       </c>
       <c r="O23">
         <v>1.03</v>
       </c>
       <c r="P23">
-        <v>1.0426956346906</v>
+        <v>1.042473805659571</v>
       </c>
       <c r="Q23">
         <v>1.02</v>
       </c>
       <c r="R23">
-        <v>1.038401191731156</v>
-      </c>
-    </row>
-    <row r="24" spans="1:18">
+        <v>1.038036190803447</v>
+      </c>
+      <c r="S23">
+        <v>1.02</v>
+      </c>
+      <c r="T23">
+        <v>1.022545605313036</v>
+      </c>
+    </row>
+    <row r="24" spans="1:20">
       <c r="A24" s="1">
         <v>22</v>
       </c>
@@ -1599,52 +1803,61 @@
         <v>1.05</v>
       </c>
       <c r="C24">
-        <v>1.004066377773969</v>
+        <v>1.003719815141391</v>
       </c>
       <c r="D24">
-        <v>1.027060700385872</v>
+        <v>1.026222831796046</v>
       </c>
       <c r="E24">
-        <v>1.021018059190613</v>
+        <v>1.020667914702341</v>
       </c>
       <c r="F24">
-        <v>1.032079719242317</v>
+        <v>1.031571183894634</v>
       </c>
       <c r="G24">
         <v>1</v>
       </c>
+      <c r="H24">
+        <v>1.02</v>
+      </c>
       <c r="I24">
-        <v>1.046798542453514</v>
+        <v>1.046469249778943</v>
       </c>
       <c r="J24">
-        <v>1.031408789398713</v>
+        <v>1.0310754219406</v>
       </c>
       <c r="K24">
-        <v>1.040628700060235</v>
+        <v>1.039804579705191</v>
       </c>
       <c r="L24">
-        <v>1.03468586099742</v>
+        <v>1.034341546259798</v>
       </c>
       <c r="M24">
-        <v>1.045565963979395</v>
+        <v>1.045065665669766</v>
       </c>
       <c r="N24">
-        <v>1.014298208734269</v>
+        <v>1.015491583073564</v>
       </c>
       <c r="O24">
         <v>1.03</v>
       </c>
       <c r="P24">
-        <v>1.044634782902486</v>
+        <v>1.044238832481589</v>
       </c>
       <c r="Q24">
         <v>1.02</v>
       </c>
       <c r="R24">
-        <v>1.039849334866328</v>
-      </c>
-    </row>
-    <row r="25" spans="1:18">
+        <v>1.039280415928934</v>
+      </c>
+      <c r="S24">
+        <v>1.02</v>
+      </c>
+      <c r="T24">
+        <v>1.022885277105542</v>
+      </c>
+    </row>
+    <row r="25" spans="1:20">
       <c r="A25" s="1">
         <v>23</v>
       </c>
@@ -1652,49 +1865,58 @@
         <v>1.05</v>
       </c>
       <c r="C25">
-        <v>1.009777926493359</v>
+        <v>1.009250339746359</v>
       </c>
       <c r="D25">
-        <v>1.030806646948379</v>
+        <v>1.029734893747701</v>
       </c>
       <c r="E25">
-        <v>1.025335831294133</v>
+        <v>1.024823163294162</v>
       </c>
       <c r="F25">
-        <v>1.036277331983382</v>
+        <v>1.035603007831848</v>
       </c>
       <c r="G25">
         <v>1</v>
       </c>
+      <c r="H25">
+        <v>1.02</v>
+      </c>
       <c r="I25">
-        <v>1.048001829074539</v>
+        <v>1.047555069574456</v>
       </c>
       <c r="J25">
-        <v>1.033980646459532</v>
+        <v>1.033470353587248</v>
       </c>
       <c r="K25">
-        <v>1.042944837544834</v>
+        <v>1.041888506260236</v>
       </c>
       <c r="L25">
-        <v>1.037553172165758</v>
+        <v>1.037047976241002</v>
       </c>
       <c r="M25">
-        <v>1.048337431051986</v>
+        <v>1.047672676184507</v>
       </c>
       <c r="N25">
-        <v>1.015168567583365</v>
+        <v>1.016087734280684</v>
       </c>
       <c r="O25">
         <v>1.03</v>
       </c>
       <c r="P25">
-        <v>1.046828197502011</v>
+        <v>1.046302092973341</v>
       </c>
       <c r="Q25">
         <v>1.02</v>
       </c>
       <c r="R25">
-        <v>1.041484100946243</v>
+        <v>1.040750695941265</v>
+      </c>
+      <c r="S25">
+        <v>1.02</v>
+      </c>
+      <c r="T25">
+        <v>1.023286197891901</v>
       </c>
     </row>
   </sheetData>
